--- a/manuals/feedback_figures/figures.xlsx
+++ b/manuals/feedback_figures/figures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koike\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\koike\proj\e7awg_sw\manuals\feedback_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949A06C5-A21D-44FD-A210-786888E10C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E684882-38EE-4D0B-968E-0AED68979E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1830" windowWidth="26730" windowHeight="20160" activeTab="1" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
+    <workbookView xWindow="7245" yWindow="2265" windowWidth="28305" windowHeight="19575" activeTab="1" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>AWG スタートコマンド</t>
     <phoneticPr fontId="1"/>
@@ -77,13 +77,6 @@
   </si>
   <si>
     <t>1bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AWG スタート時刻</t>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -141,12 +134,178 @@
     <t>(LSB)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スタート時刻</t>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャユニット ID リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャ終了フェンスコマンド</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了確認時刻</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強制停止フラグ</t>
+    <rPh sb="0" eb="4">
+      <t>キョウセイテイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了待ちフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWG パラメータ設定コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバックチャネル ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大チャンク番号</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ ID 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ ID 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ ID 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ ID 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャパラメータ設定コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定要素</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレスオフセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャアドレス設定コマンド</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック値計算コマンド</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32 bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データオフセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +337,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -501,84 +682,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -592,40 +753,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,16 +786,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,13 +928,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>61479</xdr:colOff>
+      <xdr:colOff>212480</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>134027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>209325</xdr:colOff>
+      <xdr:colOff>209324</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>59457</xdr:rowOff>
     </xdr:to>
@@ -694,8 +951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1446934" y="861391"/>
-          <a:ext cx="9153300" cy="5744339"/>
+          <a:off x="1589942" y="859392"/>
+          <a:ext cx="8950344" cy="5728353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,7 +1006,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>175779</xdr:colOff>
+      <xdr:colOff>307730</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>112</xdr:rowOff>
     </xdr:from>
@@ -772,8 +1029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1547379" y="1190737"/>
-          <a:ext cx="4424644" cy="5260730"/>
+          <a:off x="1685192" y="1209054"/>
+          <a:ext cx="4310277" cy="5341326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,13 +1166,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>294427</xdr:colOff>
+      <xdr:colOff>492256</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>206087</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>570747</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79845</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>127401</xdr:rowOff>
     </xdr:to>
@@ -932,8 +1189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1679882" y="1660814"/>
-          <a:ext cx="1661774" cy="4770405"/>
+          <a:off x="1869718" y="1555506"/>
+          <a:ext cx="1653781" cy="4858395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,6 +1236,190 @@
             </a:rPr>
             <a:t>sequencer</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1038,15 +1479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>303219</xdr:colOff>
+      <xdr:colOff>486394</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>135016</xdr:rowOff>
+      <xdr:rowOff>156997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>331794</xdr:colOff>
+      <xdr:colOff>514969</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16386</xdr:rowOff>
+      <xdr:rowOff>38367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,8 +1502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688674" y="2317107"/>
-          <a:ext cx="721302" cy="366279"/>
+          <a:off x="1863856" y="2333093"/>
+          <a:ext cx="717305" cy="364947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,14 +2184,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>646397</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>155496</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>189133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>501651</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10749</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>222509</xdr:rowOff>
     </xdr:to>
@@ -1767,8 +2208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2031852" y="3583497"/>
-          <a:ext cx="1240708" cy="518285"/>
+          <a:off x="2221688" y="3574171"/>
+          <a:ext cx="1232715" cy="516953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1904,8 +2345,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>562465</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>148938</xdr:rowOff>
     </xdr:from>
@@ -1928,8 +2369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333374" y="2815938"/>
-          <a:ext cx="4076549" cy="0"/>
+          <a:off x="3516923" y="2808611"/>
+          <a:ext cx="3853035" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2198,15 +2639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>309382</xdr:colOff>
+      <xdr:colOff>617113</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>96057</xdr:rowOff>
+      <xdr:rowOff>103383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>328431</xdr:colOff>
+      <xdr:colOff>636162</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>200831</xdr:rowOff>
+      <xdr:rowOff>208157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2221,8 +2662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3080291" y="2763057"/>
-          <a:ext cx="1404504" cy="589683"/>
+          <a:off x="3372036" y="2763056"/>
+          <a:ext cx="1396511" cy="588351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3421,8 +3862,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>115807</xdr:rowOff>
     </xdr:from>
@@ -3445,8 +3886,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3334334" y="5934716"/>
-          <a:ext cx="4075589" cy="0"/>
+          <a:off x="3531577" y="5918730"/>
+          <a:ext cx="3838381" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3479,15 +3920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485678</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99244</xdr:rowOff>
+      <xdr:colOff>683505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604834</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>204018</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113931</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3502,8 +3943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3256587" y="5433244"/>
-          <a:ext cx="1504611" cy="589683"/>
+          <a:off x="3438428" y="5858206"/>
+          <a:ext cx="1496618" cy="588351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3670,8 +4111,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569994</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>108351</xdr:rowOff>
     </xdr:from>
@@ -3694,8 +4135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3340903" y="4472533"/>
-          <a:ext cx="769732" cy="0"/>
+          <a:off x="3524250" y="4460543"/>
+          <a:ext cx="566403" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4425,15 +4866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>574342</xdr:colOff>
+      <xdr:colOff>676919</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165117</xdr:rowOff>
+      <xdr:rowOff>157791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692512</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96834</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>157074</xdr:rowOff>
+      <xdr:rowOff>149748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4448,8 +4889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345251" y="1619844"/>
-          <a:ext cx="1503625" cy="234412"/>
+          <a:off x="3431842" y="1608522"/>
+          <a:ext cx="1486107" cy="233745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,38 +4929,6 @@
             </a:rPr>
             <a:t>フィードバック値</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>～ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -4532,8 +4941,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>130960</xdr:rowOff>
     </xdr:from>
@@ -4556,8 +4965,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3334334" y="1828142"/>
-          <a:ext cx="1472180" cy="0"/>
+          <a:off x="3538904" y="1823479"/>
+          <a:ext cx="1243631" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4589,8 +4998,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569994</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>27911</xdr:rowOff>
     </xdr:from>
@@ -4613,8 +5022,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3340903" y="2210002"/>
-          <a:ext cx="1464069" cy="0"/>
+          <a:off x="3531577" y="2204007"/>
+          <a:ext cx="1249416" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4646,8 +5055,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569994</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>64251</xdr:rowOff>
     </xdr:from>
@@ -4670,8 +5079,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3340903" y="2488796"/>
-          <a:ext cx="1475136" cy="0"/>
+          <a:off x="3531577" y="2482136"/>
+          <a:ext cx="1260483" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4704,15 +5113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>373434</xdr:colOff>
+      <xdr:colOff>461357</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>207111</xdr:rowOff>
+      <xdr:rowOff>207112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>267002</xdr:colOff>
+      <xdr:colOff>354925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>221398</xdr:rowOff>
+      <xdr:rowOff>221399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4727,8 +5136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3759392" y="1739516"/>
-          <a:ext cx="741651" cy="586296"/>
+          <a:off x="3826335" y="1736519"/>
+          <a:ext cx="739652" cy="582299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4912,14 +5321,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>684980</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>91786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295701</xdr:colOff>
+      <xdr:colOff>493530</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>91786</xdr:rowOff>
     </xdr:to>
@@ -4936,8 +5345,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1377707" y="2516331"/>
-          <a:ext cx="303449" cy="0"/>
+          <a:off x="1465385" y="2509671"/>
+          <a:ext cx="405607" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4970,13 +5379,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>96218</xdr:colOff>
+      <xdr:colOff>294047</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>207121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338716</xdr:colOff>
+      <xdr:colOff>536545</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>88981</xdr:rowOff>
     </xdr:to>
@@ -4993,8 +5402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2174400" y="4571303"/>
-          <a:ext cx="935225" cy="366769"/>
+          <a:off x="2360239" y="4559313"/>
+          <a:ext cx="931229" cy="365437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5052,15 +5461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>262810</xdr:colOff>
+      <xdr:colOff>460637</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>181204</xdr:rowOff>
+      <xdr:rowOff>188531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>358060</xdr:colOff>
+      <xdr:colOff>555887</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>67635</xdr:rowOff>
+      <xdr:rowOff>74962</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5075,8 +5484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="955537" y="4302931"/>
-          <a:ext cx="787978" cy="371340"/>
+          <a:off x="1149368" y="4298935"/>
+          <a:ext cx="783981" cy="370008"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -5131,14 +5540,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>639831</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148930</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>488985</xdr:colOff>
+      <xdr:colOff>686814</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>128268</xdr:rowOff>
     </xdr:to>
@@ -5155,8 +5564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2025286" y="5336312"/>
-          <a:ext cx="1234608" cy="368411"/>
+          <a:off x="2215122" y="5321658"/>
+          <a:ext cx="1226615" cy="367745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5217,13 +5626,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>374437</xdr:colOff>
+      <xdr:colOff>572266</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>229078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>374437</xdr:colOff>
+      <xdr:colOff>572266</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>11989</xdr:rowOff>
     </xdr:to>
@@ -5240,8 +5649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759892" y="3865896"/>
-          <a:ext cx="0" cy="1722548"/>
+          <a:off x="1949728" y="3855905"/>
+          <a:ext cx="0" cy="1717219"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5273,13 +5682,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>374842</xdr:colOff>
+      <xdr:colOff>572671</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>16512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>640588</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149687</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>16512</xdr:rowOff>
     </xdr:to>
@@ -5296,7 +5705,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1760297" y="3895785"/>
+          <a:off x="1950133" y="3885127"/>
           <a:ext cx="265746" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5330,13 +5739,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>367515</xdr:colOff>
+      <xdr:colOff>565344</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>633261</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142360</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>207728</xdr:rowOff>
     </xdr:to>
@@ -5353,7 +5762,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1752970" y="5541728"/>
+          <a:off x="1942806" y="5527074"/>
           <a:ext cx="265746" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5387,13 +5796,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381967</xdr:colOff>
+      <xdr:colOff>579796</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>149921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>96218</xdr:colOff>
+      <xdr:colOff>294047</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>149921</xdr:rowOff>
     </xdr:to>
@@ -5410,8 +5819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1767422" y="4756557"/>
-          <a:ext cx="406978" cy="0"/>
+          <a:off x="1957258" y="4743902"/>
+          <a:ext cx="402981" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5443,16 +5852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3711</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>115042</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3710</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>238742</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534388</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>225134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5467,7 +5876,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4085854" y="8687542"/>
+          <a:off x="1895104" y="7694220"/>
           <a:ext cx="1360713" cy="613557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5530,16 +5939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11380</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>130134</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542059</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11379</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>237505</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542057</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>223898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5554,7 +5963,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4093523" y="10417134"/>
+          <a:off x="1902773" y="9423812"/>
           <a:ext cx="1360713" cy="842157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5617,16 +6026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>18059</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>117144</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99699</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>203612</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>370</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285253</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>231691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5641,8 +6050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6876059" y="10118394"/>
-          <a:ext cx="1557153" cy="835726"/>
+          <a:off x="4862199" y="9410822"/>
+          <a:ext cx="1546268" cy="862940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5704,16 +6113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>248639</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>225135</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>211527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>248639</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>116527</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5728,7 +6137,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5011139" y="9287492"/>
+          <a:off x="2820389" y="8294170"/>
           <a:ext cx="0" cy="1116035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5761,16 +6170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346610</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>10391</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196932</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>241712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346610</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196932</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5785,7 +6194,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4428753" y="9317677"/>
+          <a:off x="2238003" y="8324355"/>
           <a:ext cx="0" cy="1091787"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5818,16 +6227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29564</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25359</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560242</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25359</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11752</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5842,8 +6251,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515964" y="10740984"/>
-          <a:ext cx="1361086" cy="0"/>
+          <a:off x="3281671" y="10053823"/>
+          <a:ext cx="1576079" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5875,16 +6284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>34884</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540203</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>34884</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21277</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5899,8 +6308,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5495925" y="10274259"/>
-          <a:ext cx="1381125" cy="0"/>
+          <a:off x="3261632" y="9573491"/>
+          <a:ext cx="1568904" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5932,16 +6341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>191860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5956,8 +6365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="10696575"/>
-          <a:ext cx="1304925" cy="485775"/>
+          <a:off x="3276599" y="9989003"/>
+          <a:ext cx="1594757" cy="499382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5994,7 +6403,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>キャプチャ開始</a:t>
+            <a:t>コマンドの処理開始</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6003,16 +6412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>458560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>195941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6027,8 +6436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="9877425"/>
-          <a:ext cx="1304925" cy="485775"/>
+          <a:off x="3179989" y="9013370"/>
+          <a:ext cx="1827439" cy="647701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6065,7 +6474,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>キャプチャ完了</a:t>
+            <a:t>停止フラグの立った</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コマンドを処理した</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6074,16 +6499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635454</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568778</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6098,8 +6523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="9201150"/>
-          <a:ext cx="1304925" cy="485775"/>
+          <a:off x="2676525" y="8466364"/>
+          <a:ext cx="1294039" cy="499382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6145,16 +6570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431347</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364672</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6169,8 +6594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="9220200"/>
-          <a:ext cx="1304925" cy="485775"/>
+          <a:off x="1111704" y="8485414"/>
+          <a:ext cx="1294039" cy="499382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6216,16 +6641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126546</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6240,8 +6665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="8572500"/>
-          <a:ext cx="295275" cy="295275"/>
+          <a:off x="4599214" y="7824107"/>
+          <a:ext cx="289832" cy="302078"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6284,16 +6709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158709</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158709</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>559253</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145102</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6308,8 +6733,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5505450" y="8731209"/>
-          <a:ext cx="1381125" cy="0"/>
+          <a:off x="3271157" y="7982816"/>
+          <a:ext cx="1370239" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6341,16 +6766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>94008</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66794</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>217833</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190619</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>214993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6365,8 +6790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2843834" y="12288078"/>
-          <a:ext cx="811282" cy="430696"/>
+          <a:off x="1427508" y="11291207"/>
+          <a:ext cx="804182" cy="435429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6419,16 +6844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96610</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>214993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6443,8 +6868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="12182475"/>
-          <a:ext cx="809625" cy="428625"/>
+          <a:off x="2694214" y="11291207"/>
+          <a:ext cx="804182" cy="435429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6497,16 +6922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>612084</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584869</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50109</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22894</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>214993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6521,8 +6946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5424280" y="12288078"/>
-          <a:ext cx="812938" cy="430696"/>
+          <a:off x="3986655" y="11291207"/>
+          <a:ext cx="798739" cy="435429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6575,16 +7000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>218822</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>234909</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191608</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>221302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>675033</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>234909</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647819</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>221302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6599,7 +7024,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3656105" y="12484887"/>
+          <a:off x="2232679" y="11488016"/>
           <a:ext cx="456211" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6632,16 +7057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128541</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1753</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101326</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>233075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>603802</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1753</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576587</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>233075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6656,7 +7081,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4940737" y="12491927"/>
+          <a:off x="3503112" y="11499789"/>
           <a:ext cx="475261" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6687,137 +7112,1541 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>275723</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>36</xdr:col>
-          <xdr:colOff>25065</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>11530</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="図 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A116A3-81B4-DF9B-4113-56D3EBDE3BF1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Y$3:$AJ$5" spid="_x0000_s2077"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6617368" y="1684421"/>
-              <a:ext cx="3333750" cy="733425"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>164225</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>6568</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>192800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>18098</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="図 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747C2F86-F6AE-7735-AC15-7339D538FF8E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$3:$U$5" spid="_x0000_s2078"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="439949" y="2172252"/>
-              <a:ext cx="5267325" cy="733425"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>513523</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>366211</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E61D4FD-B39A-4F20-AE1F-82CA6070047B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11512827" y="8920369"/>
+          <a:ext cx="1915058" cy="1780761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>feedback</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>calculator</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>568661</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>136722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DF221E-9F2C-45F4-BED3-9C894074F8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="8906645"/>
+          <a:ext cx="1397336" cy="1707577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>sequencer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431289</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>565704</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C199F8-EAF8-4467-A284-5E9E9BB95772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9346689" y="9367040"/>
+          <a:ext cx="820215" cy="266876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> 0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428686</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>211858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>563101</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>92351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28EA885-1729-47C1-9180-22D24D36D00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344086" y="10213108"/>
+          <a:ext cx="820215" cy="356743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> 7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>339648</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>202508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160032</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AE13AD-9189-4B6E-AE00-B41283E6AD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14741448" y="8060633"/>
+          <a:ext cx="2563584" cy="2586245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HBM</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341657</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160031</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADC1539-FB17-4B49-AB15-91E5B8DFAC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14743457" y="8578298"/>
+          <a:ext cx="2561574" cy="411173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャユニット </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>344970</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163344</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>49637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5466D3CD-41B7-4207-8112-4B3A100D5DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14746770" y="9163464"/>
+          <a:ext cx="2561574" cy="411173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャユニット </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>340000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158374</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA887C9-6247-4FBD-9E79-3A9846A0B1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14741800" y="10110988"/>
+          <a:ext cx="2561574" cy="411172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャユニット </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャプチャデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49814</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>201148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>465128</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67500E43-BF55-44F9-9130-1FD3FE606339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15693707" y="9617530"/>
+          <a:ext cx="674327" cy="415314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426319</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560734</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>195055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5280D1-A16D-4061-84B2-C75B39745E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9341719" y="9691304"/>
+          <a:ext cx="820215" cy="266876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365567</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>227207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>227207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935B69A1-B5CD-40BA-A2A7-5DBFBA367A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13395767" y="9752207"/>
+          <a:ext cx="1358458" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508554</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212B2675-8759-4459-811E-82EC9D96CF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10172700" y="9492547"/>
+          <a:ext cx="1308654" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>43332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511867</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>43332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD25E48D-D283-4A93-BC42-670850DEFABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10182225" y="9806457"/>
+          <a:ext cx="1302442" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>506897</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E251CC-7227-453F-AC09-BA767162EC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10172700" y="10410260"/>
+          <a:ext cx="1306997" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446964</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>219910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA592E29-2DB0-49E5-8E97-1B9F050BD721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10560738" y="9956113"/>
+          <a:ext cx="676398" cy="329945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263518</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75987</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D39CE46-A43D-4A68-9B3A-60D78042F8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3018441" y="1701039"/>
+          <a:ext cx="501200" cy="270540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> 0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224105</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83498</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989BEEB5-6F05-4538-B6E1-AD22CBCA2822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2979028" y="2076592"/>
+          <a:ext cx="548124" cy="270539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> 7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC05AED-7BB7-44B4-96D8-933E0BDC550A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153649" y="9065078"/>
+          <a:ext cx="1343026" cy="336097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フィードバック値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E27EE4-4CDF-4657-8C24-B87095D959B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401674" y="9369878"/>
+          <a:ext cx="1343026" cy="336097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャプチャデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7121,7 +8950,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7133,438 +8962,1254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD61CAE-C273-4175-8812-B19C7AB731B2}">
-  <dimension ref="B2:BD14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD61CAE-C273-4175-8812-B19C7AB731B2}">
+  <dimension ref="B2:IT14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="FY1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HS3" sqref="HS3:IT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="185" width="3.625" customWidth="1"/>
+    <col min="1" max="433" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="44">
+    <row r="2" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="11">
         <v>15</v>
       </c>
-      <c r="AO2" s="39">
+      <c r="AN2" s="9">
         <v>14</v>
       </c>
-      <c r="AP2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="39">
+      <c r="AO2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="9">
         <v>1</v>
       </c>
-      <c r="BB2" s="43">
+      <c r="BA2" s="10">
         <v>0</v>
       </c>
-      <c r="BC2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD2" s="29"/>
+      <c r="BB2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" s="21"/>
     </row>
-    <row r="3" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
-      <c r="Y3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="3" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="34"/>
+      <c r="X3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BF3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CP3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="32"/>
+      <c r="DF3" s="32"/>
+      <c r="DG3" s="32"/>
+      <c r="DH3" s="32"/>
+      <c r="DI3" s="32"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="32"/>
+      <c r="DW3" s="32"/>
+      <c r="DX3" s="32"/>
+      <c r="DY3" s="32"/>
+      <c r="DZ3" s="32"/>
+      <c r="EA3" s="32"/>
+      <c r="EB3" s="32"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="32"/>
+      <c r="EE3" s="32"/>
+      <c r="EF3" s="32"/>
+      <c r="EG3" s="32"/>
+      <c r="EH3" s="32"/>
+      <c r="EI3" s="32"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="32"/>
+      <c r="EL3" s="32"/>
+      <c r="EM3" s="32"/>
+      <c r="EN3" s="32"/>
+      <c r="ER3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="ES3" s="32"/>
+      <c r="ET3" s="32"/>
+      <c r="EU3" s="32"/>
+      <c r="EV3" s="32"/>
+      <c r="EW3" s="32"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="32"/>
+      <c r="EZ3" s="32"/>
+      <c r="FA3" s="32"/>
+      <c r="FB3" s="32"/>
+      <c r="FC3" s="32"/>
+      <c r="FD3" s="32"/>
+      <c r="FE3" s="32"/>
+      <c r="FF3" s="32"/>
+      <c r="FG3" s="32"/>
+      <c r="FH3" s="32"/>
+      <c r="FI3" s="32"/>
+      <c r="FJ3" s="32"/>
+      <c r="FK3" s="32"/>
+      <c r="FL3" s="32"/>
+      <c r="FM3" s="32"/>
+      <c r="FN3" s="32"/>
+      <c r="FO3" s="32"/>
+      <c r="FP3" s="32"/>
+      <c r="FQ3" s="32"/>
+      <c r="FR3" s="32"/>
+      <c r="FS3" s="32"/>
+      <c r="FT3" s="32"/>
+      <c r="FU3" s="32"/>
+      <c r="FV3" s="32"/>
+      <c r="FW3" s="32"/>
+      <c r="FX3" s="32"/>
+      <c r="FY3" s="32"/>
+      <c r="FZ3" s="32"/>
+      <c r="GA3" s="32"/>
+      <c r="GB3" s="32"/>
+      <c r="GC3" s="32"/>
+      <c r="GD3" s="32"/>
+      <c r="GE3" s="32"/>
+      <c r="GF3" s="32"/>
+      <c r="GG3" s="32"/>
+      <c r="GH3" s="32"/>
+      <c r="GI3" s="32"/>
+      <c r="GJ3" s="32"/>
+      <c r="GK3" s="32"/>
+      <c r="GL3" s="32"/>
+      <c r="GM3" s="32"/>
+      <c r="GN3" s="32"/>
+      <c r="GO3" s="32"/>
+      <c r="GS3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="GT3" s="32"/>
+      <c r="GU3" s="32"/>
+      <c r="GV3" s="32"/>
+      <c r="GW3" s="32"/>
+      <c r="GX3" s="32"/>
+      <c r="GY3" s="32"/>
+      <c r="GZ3" s="32"/>
+      <c r="HA3" s="32"/>
+      <c r="HB3" s="32"/>
+      <c r="HC3" s="32"/>
+      <c r="HD3" s="32"/>
+      <c r="HE3" s="32"/>
+      <c r="HF3" s="32"/>
+      <c r="HG3" s="32"/>
+      <c r="HH3" s="32"/>
+      <c r="HI3" s="32"/>
+      <c r="HJ3" s="32"/>
+      <c r="HK3" s="32"/>
+      <c r="HL3" s="32"/>
+      <c r="HM3" s="32"/>
+      <c r="HN3" s="32"/>
+      <c r="HO3" s="32"/>
+      <c r="HP3" s="32"/>
+      <c r="HS3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="HT3" s="45"/>
+      <c r="HU3" s="45"/>
+      <c r="HV3" s="45"/>
+      <c r="HW3" s="45"/>
+      <c r="HX3" s="45"/>
+      <c r="HY3" s="45"/>
+      <c r="HZ3" s="45"/>
+      <c r="IA3" s="45"/>
+      <c r="IB3" s="45"/>
+      <c r="IC3" s="45"/>
+      <c r="ID3" s="45"/>
+      <c r="IE3" s="45"/>
+      <c r="IF3" s="45"/>
+      <c r="IG3" s="45"/>
+      <c r="IH3" s="45"/>
+      <c r="II3" s="45"/>
+      <c r="IJ3" s="45"/>
+      <c r="IK3" s="45"/>
+      <c r="IL3" s="45"/>
+      <c r="IM3" s="45"/>
+      <c r="IN3" s="45"/>
+      <c r="IO3" s="45"/>
+      <c r="IP3" s="45"/>
+      <c r="IQ3" s="45"/>
+      <c r="IR3" s="45"/>
+      <c r="IS3" s="45"/>
+      <c r="IT3" s="45"/>
+    </row>
+    <row r="4" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="C4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37"/>
+      <c r="X4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="25"/>
+      <c r="BF4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="37"/>
+      <c r="CP4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="47"/>
+      <c r="CR4" s="47"/>
+      <c r="CS4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="CT4" s="46"/>
+      <c r="CU4" s="46"/>
+      <c r="CV4" s="46"/>
+      <c r="CW4" s="46"/>
+      <c r="CX4" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY4" s="46"/>
+      <c r="CZ4" s="46"/>
+      <c r="DA4" s="46"/>
+      <c r="DB4" s="46"/>
+      <c r="DC4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD4" s="46"/>
+      <c r="DE4" s="46"/>
+      <c r="DF4" s="46"/>
+      <c r="DG4" s="46"/>
+      <c r="DH4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI4" s="46"/>
+      <c r="DJ4" s="46"/>
+      <c r="DK4" s="46"/>
+      <c r="DL4" s="46"/>
+      <c r="DM4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="47"/>
+      <c r="DO4" s="47"/>
+      <c r="DP4" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="DQ4" s="46"/>
+      <c r="DR4" s="46"/>
+      <c r="DS4" s="46"/>
+      <c r="DT4" s="46"/>
+      <c r="DU4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV4" s="47"/>
+      <c r="DW4" s="47"/>
+      <c r="DX4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="DY4" s="31"/>
+      <c r="DZ4" s="31"/>
+      <c r="EA4" s="31"/>
+      <c r="EB4" s="31"/>
+      <c r="EC4" s="31"/>
+      <c r="ED4" s="31"/>
+      <c r="EE4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="EF4" s="31"/>
+      <c r="EG4" s="31"/>
+      <c r="EH4" s="31"/>
+      <c r="EI4" s="31"/>
+      <c r="EJ4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="37"/>
+      <c r="ER4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES4" s="47"/>
+      <c r="ET4" s="47"/>
+      <c r="EU4" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="EV4" s="49"/>
+      <c r="EW4" s="49"/>
+      <c r="EX4" s="49"/>
+      <c r="EY4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="EZ4" s="49"/>
+      <c r="FA4" s="49"/>
+      <c r="FB4" s="49"/>
+      <c r="FC4" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="FD4" s="49"/>
+      <c r="FE4" s="49"/>
+      <c r="FF4" s="49"/>
+      <c r="FG4" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="FH4" s="49"/>
+      <c r="FI4" s="49"/>
+      <c r="FJ4" s="49"/>
+      <c r="FK4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="FL4" s="47"/>
+      <c r="FM4" s="47"/>
+      <c r="FN4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="FO4" s="46"/>
+      <c r="FP4" s="46"/>
+      <c r="FQ4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR4" s="47"/>
+      <c r="FS4" s="47"/>
+      <c r="FT4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="FU4" s="31"/>
+      <c r="FV4" s="31"/>
+      <c r="FW4" s="31"/>
+      <c r="FX4" s="31"/>
+      <c r="FY4" s="31"/>
+      <c r="FZ4" s="31"/>
+      <c r="GA4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="47"/>
+      <c r="GC4" s="47"/>
+      <c r="GD4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="GE4" s="49"/>
+      <c r="GF4" s="49"/>
+      <c r="GG4" s="49"/>
+      <c r="GH4" s="49"/>
+      <c r="GI4" s="49"/>
+      <c r="GJ4" s="49"/>
+      <c r="GK4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="GL4" s="36"/>
+      <c r="GM4" s="36"/>
+      <c r="GN4" s="36"/>
+      <c r="GO4" s="37"/>
+      <c r="GS4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="52"/>
+      <c r="GU4" s="52"/>
+      <c r="GV4" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="GW4" s="50"/>
+      <c r="GX4" s="50"/>
+      <c r="GY4" s="50"/>
+      <c r="GZ4" s="50"/>
+      <c r="HA4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB4" s="52"/>
+      <c r="HC4" s="52"/>
+      <c r="HD4" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="HE4" s="55"/>
+      <c r="HF4" s="55"/>
+      <c r="HG4" s="55"/>
+      <c r="HH4" s="55"/>
+      <c r="HI4" s="55"/>
+      <c r="HJ4" s="55"/>
+      <c r="HK4" s="56"/>
+      <c r="HL4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="HM4" s="36"/>
+      <c r="HN4" s="36"/>
+      <c r="HO4" s="36"/>
+      <c r="HP4" s="37"/>
+      <c r="HS4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="HT4" s="47"/>
+      <c r="HU4" s="47"/>
+      <c r="HV4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="HW4" s="31"/>
+      <c r="HX4" s="31"/>
+      <c r="HY4" s="31"/>
+      <c r="HZ4" s="31"/>
+      <c r="IA4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="IB4" s="31"/>
+      <c r="IC4" s="31"/>
+      <c r="ID4" s="31"/>
+      <c r="IE4" s="31"/>
+      <c r="IF4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="IG4" s="47"/>
+      <c r="IH4" s="47"/>
+      <c r="II4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="IJ4" s="49"/>
+      <c r="IK4" s="49"/>
+      <c r="IL4" s="49"/>
+      <c r="IM4" s="49"/>
+      <c r="IN4" s="49"/>
+      <c r="IO4" s="49"/>
+      <c r="IP4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="37"/>
     </row>
-    <row r="4" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="17"/>
-      <c r="Y4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="23"/>
-    </row>
-    <row r="5" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="C5" s="4" t="str">
+    <row r="5" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="C5" s="47" t="str">
         <f>128-1-7-16-8-8-64 &amp; "bits"</f>
         <v>24bits</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="4" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="19"/>
-      <c r="Y5" s="4" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
+      <c r="X5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4" t="s">
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4" t="s">
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="21" t="s">
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="25"/>
+      <c r="BF5" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="31"/>
+      <c r="CH5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI5" s="39"/>
+      <c r="CJ5" s="39"/>
+      <c r="CK5" s="39"/>
+      <c r="CL5" s="40"/>
+      <c r="CP5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="47"/>
+      <c r="CS5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="43"/>
+      <c r="CX5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="43"/>
+      <c r="DC5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42"/>
+      <c r="DG5" s="43"/>
+      <c r="DH5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="43"/>
+      <c r="DM5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN5" s="47"/>
+      <c r="DO5" s="47"/>
+      <c r="DP5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42"/>
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="43"/>
+      <c r="DU5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="DV5" s="47"/>
+      <c r="DW5" s="47"/>
+      <c r="DX5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="DY5" s="31"/>
+      <c r="DZ5" s="31"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="31"/>
+      <c r="EC5" s="31"/>
+      <c r="ED5" s="31"/>
+      <c r="EE5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="EF5" s="31"/>
+      <c r="EG5" s="31"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="31"/>
+      <c r="EJ5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="EK5" s="39"/>
+      <c r="EL5" s="39"/>
+      <c r="EM5" s="39"/>
+      <c r="EN5" s="40"/>
+      <c r="ER5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="ES5" s="47"/>
+      <c r="ET5" s="47"/>
+      <c r="EU5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="43"/>
+      <c r="EY5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="43"/>
+      <c r="FC5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="43"/>
+      <c r="FG5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="43"/>
+      <c r="FK5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="FL5" s="47"/>
+      <c r="FM5" s="47"/>
+      <c r="FN5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="43"/>
+      <c r="FQ5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="FR5" s="47"/>
+      <c r="FS5" s="47"/>
+      <c r="FT5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="FU5" s="31"/>
+      <c r="FV5" s="31"/>
+      <c r="FW5" s="31"/>
+      <c r="FX5" s="31"/>
+      <c r="FY5" s="31"/>
+      <c r="FZ5" s="31"/>
+      <c r="GA5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="GB5" s="47"/>
+      <c r="GC5" s="47"/>
+      <c r="GD5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="GE5" s="31"/>
+      <c r="GF5" s="31"/>
+      <c r="GG5" s="31"/>
+      <c r="GH5" s="31"/>
+      <c r="GI5" s="31"/>
+      <c r="GJ5" s="31"/>
+      <c r="GK5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="GL5" s="39"/>
+      <c r="GM5" s="39"/>
+      <c r="GN5" s="39"/>
+      <c r="GO5" s="40"/>
+      <c r="GS5" s="53" t="str">
+        <f>128-1-7-16-8-8-36 &amp; " bits"</f>
+        <v>52 bits</v>
+      </c>
+      <c r="GT5" s="53"/>
+      <c r="GU5" s="53"/>
+      <c r="GV5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="GW5" s="51"/>
+      <c r="GX5" s="51"/>
+      <c r="GY5" s="51"/>
+      <c r="GZ5" s="51"/>
+      <c r="HA5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="HB5" s="53"/>
+      <c r="HC5" s="53"/>
+      <c r="HD5" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="HE5" s="51"/>
+      <c r="HF5" s="51"/>
+      <c r="HG5" s="51"/>
+      <c r="HH5" s="51"/>
+      <c r="HI5" s="51"/>
+      <c r="HJ5" s="51"/>
+      <c r="HK5" s="51"/>
+      <c r="HL5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="HM5" s="39"/>
+      <c r="HN5" s="39"/>
+      <c r="HO5" s="39"/>
+      <c r="HP5" s="40"/>
+      <c r="HS5" s="47" t="str">
+        <f>128-1-7-16-8-8-36-32 &amp; " bits"</f>
+        <v>20 bits</v>
+      </c>
+      <c r="HT5" s="47"/>
+      <c r="HU5" s="47"/>
+      <c r="HV5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="HW5" s="31"/>
+      <c r="HX5" s="31"/>
+      <c r="HY5" s="31"/>
+      <c r="HZ5" s="31"/>
+      <c r="IA5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="IB5" s="31"/>
+      <c r="IC5" s="31"/>
+      <c r="ID5" s="31"/>
+      <c r="IE5" s="31"/>
+      <c r="IF5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="IG5" s="47"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="IJ5" s="31"/>
+      <c r="IK5" s="31"/>
+      <c r="IL5" s="31"/>
+      <c r="IM5" s="31"/>
+      <c r="IN5" s="31"/>
+      <c r="IO5" s="31"/>
+      <c r="IP5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="IQ5" s="39"/>
+      <c r="IR5" s="39"/>
+      <c r="IS5" s="39"/>
+      <c r="IT5" s="40"/>
+    </row>
+    <row r="6" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="1"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="23"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="3"/>
     </row>
-    <row r="6" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="25"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="27" t="s">
+    <row r="7" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AO7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="25"/>
+      <c r="AP7" s="13"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="13"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY7" s="26"/>
     </row>
-    <row r="7" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AP7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ7" s="37"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="37"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ7" s="34"/>
+    <row r="10" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
     </row>
-    <row r="10" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
+    <row r="11" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="6"/>
     </row>
-    <row r="11" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="30"/>
+    <row r="12" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="6"/>
     </row>
-    <row r="12" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="30"/>
+    <row r="13" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="6"/>
     </row>
-    <row r="13" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="30"/>
-    </row>
-    <row r="14" spans="2:56" x14ac:dyDescent="0.4">
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="30"/>
-      <c r="BC14" s="30"/>
+    <row r="14" spans="2:254" x14ac:dyDescent="0.4">
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AT6:AV7"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP5:AZ5"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AP12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="AP4:AZ4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="Y3:AJ3"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AN3:BB3"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AJ5"/>
+  <mergeCells count="132">
+    <mergeCell ref="II5:IO5"/>
+    <mergeCell ref="IP4:IT4"/>
+    <mergeCell ref="IP5:IT5"/>
+    <mergeCell ref="HL4:HP4"/>
+    <mergeCell ref="HL5:HP5"/>
+    <mergeCell ref="HS3:IT3"/>
+    <mergeCell ref="HS4:HU4"/>
+    <mergeCell ref="HV4:HZ4"/>
+    <mergeCell ref="IA4:IE4"/>
+    <mergeCell ref="IF4:IH4"/>
+    <mergeCell ref="II4:IO4"/>
+    <mergeCell ref="HS5:HU5"/>
+    <mergeCell ref="HV5:HZ5"/>
+    <mergeCell ref="IA5:IE5"/>
+    <mergeCell ref="IF5:IH5"/>
+    <mergeCell ref="ER3:GO3"/>
+    <mergeCell ref="GS3:HP3"/>
+    <mergeCell ref="GS4:GU4"/>
+    <mergeCell ref="GV4:GZ4"/>
+    <mergeCell ref="HA4:HC4"/>
+    <mergeCell ref="HD4:HK4"/>
+    <mergeCell ref="GS5:GU5"/>
+    <mergeCell ref="GV5:GZ5"/>
+    <mergeCell ref="HA5:HC5"/>
+    <mergeCell ref="HD5:HK5"/>
+    <mergeCell ref="GK5:GO5"/>
+    <mergeCell ref="GA4:GC4"/>
+    <mergeCell ref="GA5:GC5"/>
+    <mergeCell ref="FK5:FM5"/>
+    <mergeCell ref="FN5:FP5"/>
+    <mergeCell ref="FQ5:FS5"/>
+    <mergeCell ref="FT5:FZ5"/>
+    <mergeCell ref="GD5:GJ5"/>
+    <mergeCell ref="ER5:ET5"/>
+    <mergeCell ref="EU5:EX5"/>
+    <mergeCell ref="EY5:FB5"/>
+    <mergeCell ref="FC5:FF5"/>
+    <mergeCell ref="FG5:FJ5"/>
+    <mergeCell ref="ER4:ET4"/>
+    <mergeCell ref="EU4:EX4"/>
+    <mergeCell ref="EY4:FB4"/>
+    <mergeCell ref="FC4:FF4"/>
+    <mergeCell ref="FG4:FJ4"/>
+    <mergeCell ref="FK4:FM4"/>
+    <mergeCell ref="FN4:FP4"/>
+    <mergeCell ref="FQ4:FS4"/>
+    <mergeCell ref="FT4:FZ4"/>
+    <mergeCell ref="GD4:GJ4"/>
+    <mergeCell ref="GK4:GO4"/>
+    <mergeCell ref="EE5:EI5"/>
+    <mergeCell ref="EJ5:EN5"/>
+    <mergeCell ref="DU4:DW4"/>
+    <mergeCell ref="DU5:DW5"/>
+    <mergeCell ref="DM4:DO4"/>
+    <mergeCell ref="DM5:DO5"/>
+    <mergeCell ref="CP5:CR5"/>
+    <mergeCell ref="DC5:DG5"/>
+    <mergeCell ref="DH5:DL5"/>
+    <mergeCell ref="DP5:DT5"/>
+    <mergeCell ref="DX5:ED5"/>
+    <mergeCell ref="CS5:CW5"/>
+    <mergeCell ref="CX5:DB5"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="DC4:DG4"/>
+    <mergeCell ref="DH4:DL4"/>
+    <mergeCell ref="DP4:DT4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EI4"/>
+    <mergeCell ref="EJ4:EN4"/>
+    <mergeCell ref="CS4:CW4"/>
+    <mergeCell ref="CX4:DB4"/>
+    <mergeCell ref="CP3:EN3"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="BZ5:CG5"/>
+    <mergeCell ref="CH5:CL5"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BW5:BY5"/>
+    <mergeCell ref="BN4:BR4"/>
+    <mergeCell ref="BN5:BR5"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BS4:BV4"/>
+    <mergeCell ref="BZ4:CG4"/>
+    <mergeCell ref="CH4:CL4"/>
+    <mergeCell ref="BF3:CL3"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="X3:AI3"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AM3:BA3"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AO2:AY2"/>
+    <mergeCell ref="AS6:AU7"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AO5:AY5"/>
+    <mergeCell ref="AM11:BA11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:AY12"/>
+    <mergeCell ref="AZ12:BA12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="AT13:AV13"/>
+    <mergeCell ref="AW13:AY13"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AM5:AN5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/manuals/feedback_figures/figures.xlsx
+++ b/manuals/feedback_figures/figures.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\koike\proj\e7awg_sw\manuals\feedback_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E684882-38EE-4D0B-968E-0AED68979E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E54B1A-FE04-40E4-A727-6D591E99BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2265" windowWidth="28305" windowHeight="19575" activeTab="1" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
+    <workbookView xWindow="-28095" yWindow="-1230" windowWidth="25650" windowHeight="19425" activeTab="4" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="168">
   <si>
     <t>AWG スタートコマンド</t>
     <phoneticPr fontId="1"/>
@@ -195,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AWG パラメータ設定コマンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィードバックチャネル ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,6 +297,739 @@
   </si>
   <si>
     <t>データオフセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16 bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWG スタートコマンドエラーレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャ終了フェンスコマンドエラーレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リードエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形パラメータ設定コマンド</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形パラメータ設定コマンドエラー</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャパラメータ設定コマンドエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャアドレス設定コマンドエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック値計算コマンドエラーレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンサ制御レジスタ</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジスタ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンサのバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : フィードバックシステム全体のリセットを解除します
+1 : フィードバックシステム全体にリセットをかけます</t>
+    <rPh sb="15" eb="17">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 から 1 になったとき, シーケンサが RUNNING 状態になり，コマンド処理を開始します</t>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terminate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 から 1 になったとき, シーケンサが IDLE 状態になりコマンドの処理を中断します
+処理中のコマンドは中止され，このコマンドのエラーレポートが発行されます
+未処理のコマンドはそのまま残ります</t>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmd clr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 のとき未実行のコマンドをクリアします
+クリア中に新しいコマンドを受け取った場合の動作は不定です</t>
+    <rPh sb="5" eb="8">
+      <t>ミジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err report clr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 のとき未送信のコマンドエラーレポートをクリアします
+コマンドエラーレポートの送信を無効にしてから 1 にして下さい</t>
+    <rPh sb="40" eb="42">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done clr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 から 1 になったとき, ステータスレジスタの done フィールドを 0 にします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err report send en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : シーケンサのコマンドエラーレポートの送信を無効にします
+1 : シーケンサのコマンドエラーレポートの送信を有効にします
+無効にしてもコマンドエラーレポートは生成され、シーケンサ内部の FIFO に格納されます</t>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先UDP ポート</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[15:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dest udp port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンサから送信する UDP パケットの宛先ポート番号</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:16]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先 IP アドレス</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dest ip port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドエラーレポートの宛先 IP アドレス</t>
+    <rPh sb="12" eb="14">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>wakeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : フィードバックシステムの中にリセット中のモジュールがあります
+1 : フィードバックシステムの中にリセット中のモジュールはありません</t>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>busy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>0 : シーケンサは RUNNING 状態ではありません
+1 : シーケンサは RUNNING 状態です</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : シーケンサはコマンドの処理を終えていません
+1 : シーケンサはコマンドの処理を終え，IDLE 状態です
+シーケンサのコマンドの処理を中断した場合も 1 になります</t>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err report active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : コマンドエラーレポートの送信が無効になっています
+1 : コマンドエラーレポートの送信が有効になっています</t>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmd fifo overflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : シーケンサは コマンド FIFO オーバーフローを起こしていません
+1 : シーケンサは コマンド FIFO オーバーフローを起こしています
+フィードバックシステム全体をリセットすると 0 に戻ります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err fifo overflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 : シーケンサは エラーレポート FIFO オーバーフローを起こしていません
+1 : シーケンサは エラーレポート FIFO オーバーフローを起こしています
+フィードバックシステム全体をリセットすると 0 に戻ります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未処理のコマンド数</t>
+    <rPh sb="0" eb="3">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num unproced cmds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功コマンド数</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x1C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num successful cmds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗コマンド数</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num err cmds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド FIFO 空き領域</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd fifo free space </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド FIFO の空き領域 (単位 : Bytes)</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドエラーレポート数</t>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num cmd err reports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行後，未送信のコマンドエラーレポートの数</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理に失敗したコマンドの数
+シーケンサが RUNNING に遷移する度に 0 に戻ります</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理に成功したコマンドの数
+シーケンサが RUNNING に遷移する度に 0 に戻ります</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte 0</t>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス (A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[39:32]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[31:24]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[23:16]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[15:8]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byte 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジスタ値 1</t>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -354,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +1111,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -728,13 +1490,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,9 +1769,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,121 +1889,313 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5854,14 +7146,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>534390</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101434</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>534388</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>225134</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5876,8 +7168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895104" y="7694220"/>
-          <a:ext cx="1360713" cy="613557"/>
+          <a:off x="1909303" y="7207911"/>
+          <a:ext cx="1374911" cy="604092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6027,15 +7319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>99699</xdr:colOff>
+      <xdr:colOff>522112</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>103536</xdr:rowOff>
+      <xdr:rowOff>111819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285253</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20210</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>231691</xdr:rowOff>
+      <xdr:rowOff>239974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6050,8 +7342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4862199" y="9410822"/>
-          <a:ext cx="1546268" cy="862940"/>
+          <a:off x="5334308" y="9239254"/>
+          <a:ext cx="1560467" cy="848742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6115,8 +7407,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>98960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>211527</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -6136,9 +7428,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2820389" y="8294170"/>
-          <a:ext cx="0" cy="1116035"/>
+        <a:xfrm flipV="1">
+          <a:off x="2848786" y="7818783"/>
+          <a:ext cx="0" cy="1411571"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6172,8 +7464,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>196932</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>241712</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -6194,8 +7486,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238003" y="8324355"/>
-          <a:ext cx="0" cy="1091787"/>
+          <a:off x="2259302" y="7802217"/>
+          <a:ext cx="0" cy="1434074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6234,7 +7526,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>496956</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>11752</xdr:rowOff>
     </xdr:to>
@@ -6251,8 +7543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3281671" y="10053823"/>
-          <a:ext cx="1576079" cy="0"/>
+          <a:off x="3310068" y="9859774"/>
+          <a:ext cx="1999084" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6291,7 +7583,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
+      <xdr:colOff>488674</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>21277</xdr:rowOff>
     </xdr:to>
@@ -6308,8 +7600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3261632" y="9573491"/>
-          <a:ext cx="1568904" cy="0"/>
+          <a:off x="3290029" y="9388907"/>
+          <a:ext cx="2010841" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6341,14 +7633,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>555170</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66495</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>191860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
+      <xdr:colOff>307638</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>201385</xdr:rowOff>
     </xdr:to>
@@ -6365,8 +7657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276599" y="9989003"/>
-          <a:ext cx="1594757" cy="499382"/>
+          <a:off x="3503778" y="9799686"/>
+          <a:ext cx="1616056" cy="489916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6413,15 +7705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>458560</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>195941</xdr:rowOff>
+      <xdr:colOff>234928</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>224812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6436,8 +7728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179989" y="9013370"/>
-          <a:ext cx="1827439" cy="647701"/>
+          <a:off x="2984754" y="8547651"/>
+          <a:ext cx="2730246" cy="1044791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6474,7 +7766,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>停止フラグの立った</a:t>
+            <a:t>停止フラグの立ったコマンドを処理した</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -6485,13 +7777,29 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>コマンドを処理した</a:t>
+            <a:t>コマンドの処理を中断した</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6500,15 +7808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>635454</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>138793</xdr:rowOff>
+      <xdr:colOff>652019</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>568778</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>148317</xdr:rowOff>
+      <xdr:colOff>585343</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123469</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6523,8 +7831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2676525" y="8466364"/>
-          <a:ext cx="1294039" cy="499382"/>
+          <a:off x="2714389" y="7800206"/>
+          <a:ext cx="1308237" cy="489915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6571,15 +7879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>431347</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>157843</xdr:rowOff>
+      <xdr:colOff>447912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>364672</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167367</xdr:rowOff>
+      <xdr:colOff>381237</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6594,8 +7902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111704" y="8485414"/>
-          <a:ext cx="1294039" cy="499382"/>
+          <a:off x="1135369" y="7819256"/>
+          <a:ext cx="1308238" cy="489915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6643,14 +7951,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>126546</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6665,8 +7973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4599214" y="7824107"/>
-          <a:ext cx="289832" cy="302078"/>
+          <a:off x="4641810" y="7337798"/>
+          <a:ext cx="296932" cy="292613"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6711,14 +8019,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>549728</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145102</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>559253</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145102</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45710</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6733,8 +8041,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3271157" y="7982816"/>
-          <a:ext cx="1370239" cy="0"/>
+          <a:off x="3299554" y="7491775"/>
+          <a:ext cx="1384438" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6766,16 +8074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66794</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50716</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190619</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>214993</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174542</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6790,8 +8098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1427508" y="11291207"/>
-          <a:ext cx="804182" cy="435429"/>
+          <a:off x="2101392" y="11361436"/>
+          <a:ext cx="807385" cy="420951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,16 +8152,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633167</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>96610</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>214993</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80532</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6868,8 +8176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2694214" y="11291207"/>
-          <a:ext cx="804182" cy="435429"/>
+          <a:off x="3367402" y="11361436"/>
+          <a:ext cx="814483" cy="420951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6922,16 +8230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584869</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605714</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:rowOff>215585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22894</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>214993</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47637</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6946,8 +8254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3986655" y="11291207"/>
-          <a:ext cx="798739" cy="435429"/>
+          <a:off x="4707067" y="11040467"/>
+          <a:ext cx="809041" cy="416219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6991,7 +8299,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>終了</a:t>
+            <a:t>成功</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7000,16 +8308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>191608</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>221302</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175531</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647819</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>221302</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627843</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22519</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7024,8 +8332,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2232679" y="11488016"/>
-          <a:ext cx="456211" cy="0"/>
+          <a:off x="2909766" y="11553372"/>
+          <a:ext cx="452312" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7057,16 +8365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101326</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>233075</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85248</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>576587</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>233075</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605714</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7077,12 +8385,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="643" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3503112" y="11499789"/>
-          <a:ext cx="475261" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4186601" y="11248575"/>
+          <a:ext cx="520466" cy="316570"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8645,6 +9955,144 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622043</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>191091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63966</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>136663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13FD00C-3086-4820-82F4-DB54794C606B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4723396" y="11721944"/>
+          <a:ext cx="809041" cy="416219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80532</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622043</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>163878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79158C6-9C8F-4705-89ED-4BD71E14C62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="642" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181885" y="11574278"/>
+          <a:ext cx="541511" cy="355776"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8949,8 +10397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32464CC0-44C2-4C2E-BBF8-ABA83C5B22DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8962,11 +10410,2489 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F52D48F-DB58-4926-846D-7E5D1B242A37}">
+  <dimension ref="L3:BC47"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG36" sqref="BG36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="191" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L3" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+    </row>
+    <row r="4" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L4" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+    </row>
+    <row r="5" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L5" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+    </row>
+    <row r="6" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+    </row>
+    <row r="7" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="76"/>
+    </row>
+    <row r="8" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="85"/>
+    </row>
+    <row r="9" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="85"/>
+    </row>
+    <row r="10" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="95"/>
+    </row>
+    <row r="11" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="95"/>
+    </row>
+    <row r="12" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="85"/>
+    </row>
+    <row r="13" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="102"/>
+      <c r="BC13" s="103"/>
+    </row>
+    <row r="14" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="85"/>
+    </row>
+    <row r="15" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="102"/>
+      <c r="AO15" s="102"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="102"/>
+      <c r="AS15" s="102"/>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="102"/>
+      <c r="AW15" s="102"/>
+      <c r="AX15" s="102"/>
+      <c r="AY15" s="102"/>
+      <c r="AZ15" s="102"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="102"/>
+      <c r="BC15" s="103"/>
+    </row>
+    <row r="16" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="108"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="108"/>
+      <c r="AP16" s="108"/>
+      <c r="AQ16" s="108"/>
+      <c r="AR16" s="108"/>
+      <c r="AS16" s="108"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="108"/>
+      <c r="AW16" s="108"/>
+      <c r="AX16" s="108"/>
+      <c r="AY16" s="108"/>
+      <c r="AZ16" s="108"/>
+      <c r="BA16" s="108"/>
+      <c r="BB16" s="108"/>
+      <c r="BC16" s="109"/>
+    </row>
+    <row r="17" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="84"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="85"/>
+    </row>
+    <row r="18" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="95"/>
+    </row>
+    <row r="19" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="102"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="102"/>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="102"/>
+      <c r="AV19" s="102"/>
+      <c r="AW19" s="102"/>
+      <c r="AX19" s="102"/>
+      <c r="AY19" s="102"/>
+      <c r="AZ19" s="102"/>
+      <c r="BA19" s="102"/>
+      <c r="BB19" s="102"/>
+      <c r="BC19" s="103"/>
+    </row>
+    <row r="20" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="118"/>
+      <c r="BA20" s="118"/>
+      <c r="BB20" s="118"/>
+      <c r="BC20" s="118"/>
+    </row>
+    <row r="21" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L21" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BA21" s="84"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="85"/>
+    </row>
+    <row r="22" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L22" s="110"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="118"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
+      <c r="AY22" s="118"/>
+      <c r="AZ22" s="118"/>
+      <c r="BA22" s="118"/>
+      <c r="BB22" s="118"/>
+      <c r="BC22" s="118"/>
+    </row>
+    <row r="23" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L23" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="85"/>
+    </row>
+    <row r="24" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L24" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="76"/>
+      <c r="BC24" s="76"/>
+    </row>
+    <row r="25" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L25" s="91"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+    </row>
+    <row r="26" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L26" s="91"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="76"/>
+      <c r="BB26" s="76"/>
+      <c r="BC26" s="76"/>
+    </row>
+    <row r="27" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L27" s="91"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
+      <c r="BC27" s="76"/>
+    </row>
+    <row r="28" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L28" s="91"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+    </row>
+    <row r="29" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L29" s="91"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="76"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="76"/>
+      <c r="AZ29" s="76"/>
+      <c r="BA29" s="76"/>
+      <c r="BB29" s="76"/>
+      <c r="BC29" s="76"/>
+    </row>
+    <row r="30" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L30" s="91"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="76"/>
+    </row>
+    <row r="31" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L31" s="91"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="AY31" s="76"/>
+      <c r="AZ31" s="76"/>
+      <c r="BA31" s="76"/>
+      <c r="BB31" s="76"/>
+      <c r="BC31" s="76"/>
+    </row>
+    <row r="32" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L32" s="91"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="76"/>
+      <c r="BB32" s="76"/>
+      <c r="BC32" s="76"/>
+    </row>
+    <row r="33" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L33" s="91"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="115"/>
+      <c r="AF33" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
+      <c r="AS33" s="118"/>
+      <c r="AT33" s="118"/>
+      <c r="AU33" s="118"/>
+      <c r="AV33" s="118"/>
+      <c r="AW33" s="118"/>
+      <c r="AX33" s="118"/>
+      <c r="AY33" s="118"/>
+      <c r="AZ33" s="118"/>
+      <c r="BA33" s="118"/>
+      <c r="BB33" s="118"/>
+      <c r="BC33" s="118"/>
+    </row>
+    <row r="34" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L34" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI34" s="76"/>
+      <c r="AJ34" s="76"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="76"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="76"/>
+      <c r="AQ34" s="76"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="76"/>
+      <c r="AV34" s="76"/>
+      <c r="AW34" s="76"/>
+      <c r="AX34" s="76"/>
+      <c r="AY34" s="76"/>
+      <c r="AZ34" s="76"/>
+      <c r="BA34" s="76"/>
+      <c r="BB34" s="76"/>
+      <c r="BC34" s="76"/>
+    </row>
+    <row r="35" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L35" s="91"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="89"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="76"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
+      <c r="AX35" s="76"/>
+      <c r="AY35" s="76"/>
+      <c r="AZ35" s="76"/>
+      <c r="BA35" s="76"/>
+      <c r="BB35" s="76"/>
+      <c r="BC35" s="76"/>
+    </row>
+    <row r="36" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L36" s="91"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="98"/>
+      <c r="AC36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+    </row>
+    <row r="37" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L37" s="91"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG37" s="87"/>
+      <c r="AH37" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="76"/>
+      <c r="BA37" s="76"/>
+      <c r="BB37" s="76"/>
+      <c r="BC37" s="76"/>
+    </row>
+    <row r="38" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L38" s="91"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="89"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="92"/>
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
+    </row>
+    <row r="39" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L39" s="91"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="98"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
+      <c r="AZ39" s="76"/>
+      <c r="BA39" s="76"/>
+      <c r="BB39" s="76"/>
+      <c r="BC39" s="76"/>
+    </row>
+    <row r="40" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L40" s="99"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="110"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA40" s="114"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG40" s="117"/>
+      <c r="AH40" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="118"/>
+      <c r="AJ40" s="118"/>
+      <c r="AK40" s="118"/>
+      <c r="AL40" s="118"/>
+      <c r="AM40" s="118"/>
+      <c r="AN40" s="118"/>
+      <c r="AO40" s="118"/>
+      <c r="AP40" s="118"/>
+      <c r="AQ40" s="118"/>
+      <c r="AR40" s="118"/>
+      <c r="AS40" s="118"/>
+      <c r="AT40" s="118"/>
+      <c r="AU40" s="118"/>
+      <c r="AV40" s="118"/>
+      <c r="AW40" s="118"/>
+      <c r="AX40" s="118"/>
+      <c r="AY40" s="118"/>
+      <c r="AZ40" s="118"/>
+      <c r="BA40" s="118"/>
+      <c r="BB40" s="118"/>
+      <c r="BC40" s="118"/>
+    </row>
+    <row r="41" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L41" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="V41" s="120"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA41" s="124"/>
+      <c r="AB41" s="124"/>
+      <c r="AC41" s="124"/>
+      <c r="AD41" s="124"/>
+      <c r="AE41" s="125"/>
+      <c r="AF41" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="84"/>
+      <c r="AK41" s="84"/>
+      <c r="AL41" s="84"/>
+      <c r="AM41" s="84"/>
+      <c r="AN41" s="84"/>
+      <c r="AO41" s="84"/>
+      <c r="AP41" s="84"/>
+      <c r="AQ41" s="84"/>
+      <c r="AR41" s="84"/>
+      <c r="AS41" s="84"/>
+      <c r="AT41" s="84"/>
+      <c r="AU41" s="84"/>
+      <c r="AV41" s="84"/>
+      <c r="AW41" s="84"/>
+      <c r="AX41" s="84"/>
+      <c r="AY41" s="84"/>
+      <c r="AZ41" s="84"/>
+      <c r="BA41" s="84"/>
+      <c r="BB41" s="84"/>
+      <c r="BC41" s="85"/>
+    </row>
+    <row r="42" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L42" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA42" s="124"/>
+      <c r="AB42" s="124"/>
+      <c r="AC42" s="124"/>
+      <c r="AD42" s="124"/>
+      <c r="AE42" s="125"/>
+      <c r="AF42" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG42" s="87"/>
+      <c r="AH42" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI42" s="84"/>
+      <c r="AJ42" s="84"/>
+      <c r="AK42" s="84"/>
+      <c r="AL42" s="84"/>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="84"/>
+      <c r="AO42" s="84"/>
+      <c r="AP42" s="84"/>
+      <c r="AQ42" s="84"/>
+      <c r="AR42" s="84"/>
+      <c r="AS42" s="84"/>
+      <c r="AT42" s="84"/>
+      <c r="AU42" s="84"/>
+      <c r="AV42" s="84"/>
+      <c r="AW42" s="84"/>
+      <c r="AX42" s="84"/>
+      <c r="AY42" s="84"/>
+      <c r="AZ42" s="84"/>
+      <c r="BA42" s="84"/>
+      <c r="BB42" s="84"/>
+      <c r="BC42" s="85"/>
+    </row>
+    <row r="43" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L43" s="99"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="127"/>
+      <c r="AE43" s="128"/>
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="100"/>
+      <c r="AH43" s="101"/>
+      <c r="AI43" s="102"/>
+      <c r="AJ43" s="102"/>
+      <c r="AK43" s="102"/>
+      <c r="AL43" s="102"/>
+      <c r="AM43" s="102"/>
+      <c r="AN43" s="102"/>
+      <c r="AO43" s="102"/>
+      <c r="AP43" s="102"/>
+      <c r="AQ43" s="102"/>
+      <c r="AR43" s="102"/>
+      <c r="AS43" s="102"/>
+      <c r="AT43" s="102"/>
+      <c r="AU43" s="102"/>
+      <c r="AV43" s="102"/>
+      <c r="AW43" s="102"/>
+      <c r="AX43" s="102"/>
+      <c r="AY43" s="102"/>
+      <c r="AZ43" s="102"/>
+      <c r="BA43" s="102"/>
+      <c r="BB43" s="102"/>
+      <c r="BC43" s="103"/>
+    </row>
+    <row r="44" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L44" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA44" s="124"/>
+      <c r="AB44" s="124"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="125"/>
+      <c r="AF44" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG44" s="87"/>
+      <c r="AH44" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI44" s="84"/>
+      <c r="AJ44" s="84"/>
+      <c r="AK44" s="84"/>
+      <c r="AL44" s="84"/>
+      <c r="AM44" s="84"/>
+      <c r="AN44" s="84"/>
+      <c r="AO44" s="84"/>
+      <c r="AP44" s="84"/>
+      <c r="AQ44" s="84"/>
+      <c r="AR44" s="84"/>
+      <c r="AS44" s="84"/>
+      <c r="AT44" s="84"/>
+      <c r="AU44" s="84"/>
+      <c r="AV44" s="84"/>
+      <c r="AW44" s="84"/>
+      <c r="AX44" s="84"/>
+      <c r="AY44" s="84"/>
+      <c r="AZ44" s="84"/>
+      <c r="BA44" s="84"/>
+      <c r="BB44" s="84"/>
+      <c r="BC44" s="85"/>
+    </row>
+    <row r="45" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L45" s="99"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="122"/>
+      <c r="T45" s="100"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="122"/>
+      <c r="W45" s="122"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="100"/>
+      <c r="Z45" s="126"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="100"/>
+      <c r="AH45" s="101"/>
+      <c r="AI45" s="102"/>
+      <c r="AJ45" s="102"/>
+      <c r="AK45" s="102"/>
+      <c r="AL45" s="102"/>
+      <c r="AM45" s="102"/>
+      <c r="AN45" s="102"/>
+      <c r="AO45" s="102"/>
+      <c r="AP45" s="102"/>
+      <c r="AQ45" s="102"/>
+      <c r="AR45" s="102"/>
+      <c r="AS45" s="102"/>
+      <c r="AT45" s="102"/>
+      <c r="AU45" s="102"/>
+      <c r="AV45" s="102"/>
+      <c r="AW45" s="102"/>
+      <c r="AX45" s="102"/>
+      <c r="AY45" s="102"/>
+      <c r="AZ45" s="102"/>
+      <c r="BA45" s="102"/>
+      <c r="BB45" s="102"/>
+      <c r="BC45" s="103"/>
+    </row>
+    <row r="46" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L46" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="V46" s="120"/>
+      <c r="W46" s="120"/>
+      <c r="X46" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA46" s="120"/>
+      <c r="AB46" s="120"/>
+      <c r="AC46" s="120"/>
+      <c r="AD46" s="120"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG46" s="87"/>
+      <c r="AH46" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI46" s="84"/>
+      <c r="AJ46" s="84"/>
+      <c r="AK46" s="84"/>
+      <c r="AL46" s="84"/>
+      <c r="AM46" s="84"/>
+      <c r="AN46" s="84"/>
+      <c r="AO46" s="84"/>
+      <c r="AP46" s="84"/>
+      <c r="AQ46" s="84"/>
+      <c r="AR46" s="84"/>
+      <c r="AS46" s="84"/>
+      <c r="AT46" s="84"/>
+      <c r="AU46" s="84"/>
+      <c r="AV46" s="84"/>
+      <c r="AW46" s="84"/>
+      <c r="AX46" s="84"/>
+      <c r="AY46" s="84"/>
+      <c r="AZ46" s="84"/>
+      <c r="BA46" s="84"/>
+      <c r="BB46" s="84"/>
+      <c r="BC46" s="85"/>
+    </row>
+    <row r="47" spans="12:55" x14ac:dyDescent="0.4">
+      <c r="L47" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="69"/>
+      <c r="AF47" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG47" s="69"/>
+      <c r="AH47" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI47" s="108"/>
+      <c r="AJ47" s="108"/>
+      <c r="AK47" s="108"/>
+      <c r="AL47" s="108"/>
+      <c r="AM47" s="108"/>
+      <c r="AN47" s="108"/>
+      <c r="AO47" s="108"/>
+      <c r="AP47" s="108"/>
+      <c r="AQ47" s="108"/>
+      <c r="AR47" s="108"/>
+      <c r="AS47" s="108"/>
+      <c r="AT47" s="108"/>
+      <c r="AU47" s="108"/>
+      <c r="AV47" s="108"/>
+      <c r="AW47" s="108"/>
+      <c r="AX47" s="108"/>
+      <c r="AY47" s="108"/>
+      <c r="AZ47" s="108"/>
+      <c r="BA47" s="108"/>
+      <c r="BB47" s="108"/>
+      <c r="BC47" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="129">
+    <mergeCell ref="L47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:BC47"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:BC46"/>
+    <mergeCell ref="L44:T45"/>
+    <mergeCell ref="U44:W45"/>
+    <mergeCell ref="X44:Y45"/>
+    <mergeCell ref="Z44:AE45"/>
+    <mergeCell ref="AF44:AG45"/>
+    <mergeCell ref="AH44:BC45"/>
+    <mergeCell ref="L42:T43"/>
+    <mergeCell ref="U42:W43"/>
+    <mergeCell ref="X42:Y43"/>
+    <mergeCell ref="Z42:AE43"/>
+    <mergeCell ref="AF42:AG43"/>
+    <mergeCell ref="AH42:BC43"/>
+    <mergeCell ref="L41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:BC41"/>
+    <mergeCell ref="X37:Y39"/>
+    <mergeCell ref="Z37:AE39"/>
+    <mergeCell ref="AF37:AG39"/>
+    <mergeCell ref="AH37:BC39"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:BC40"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:BC33"/>
+    <mergeCell ref="L34:T40"/>
+    <mergeCell ref="U34:W40"/>
+    <mergeCell ref="X34:Y36"/>
+    <mergeCell ref="Z34:AE36"/>
+    <mergeCell ref="AF34:AG36"/>
+    <mergeCell ref="AH34:BC36"/>
+    <mergeCell ref="X28:Y30"/>
+    <mergeCell ref="Z28:AE30"/>
+    <mergeCell ref="AF28:AG30"/>
+    <mergeCell ref="AH28:BC30"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AE32"/>
+    <mergeCell ref="AF31:AG32"/>
+    <mergeCell ref="AH31:BC32"/>
+    <mergeCell ref="L24:T33"/>
+    <mergeCell ref="U24:W33"/>
+    <mergeCell ref="X24:Y25"/>
+    <mergeCell ref="Z24:AE25"/>
+    <mergeCell ref="AF24:AG25"/>
+    <mergeCell ref="AH24:BC25"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="Z26:AE27"/>
+    <mergeCell ref="AF26:AG27"/>
+    <mergeCell ref="AH26:BC27"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:BC23"/>
+    <mergeCell ref="L21:T22"/>
+    <mergeCell ref="U21:W22"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:BC22"/>
+    <mergeCell ref="X17:Y19"/>
+    <mergeCell ref="Z17:AE19"/>
+    <mergeCell ref="AF17:AG19"/>
+    <mergeCell ref="AH17:BC19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AE15"/>
+    <mergeCell ref="AF14:AG15"/>
+    <mergeCell ref="AH14:BC15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Z9:AE11"/>
+    <mergeCell ref="AF9:AG11"/>
+    <mergeCell ref="AH9:BC11"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AE13"/>
+    <mergeCell ref="AF12:AG13"/>
+    <mergeCell ref="AH12:BC13"/>
+    <mergeCell ref="L6:T20"/>
+    <mergeCell ref="U6:W20"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:AE7"/>
+    <mergeCell ref="AF6:AG7"/>
+    <mergeCell ref="AH6:BC7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:BC5"/>
+    <mergeCell ref="L3:BC3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:BC4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD61CAE-C273-4175-8812-B19C7AB731B2}">
   <dimension ref="B2:IT14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="FY1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="HS3" sqref="HS3:IT3"/>
+    <sheetView showGridLines="0" topLeftCell="BT1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CP8" sqref="CP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8982,982 +12908,982 @@
       <c r="AN2" s="9">
         <v>14</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AO2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="16"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="50"/>
       <c r="AZ2" s="9">
         <v>1</v>
       </c>
       <c r="BA2" s="10">
         <v>0</v>
       </c>
-      <c r="BB2" s="12" t="s">
+      <c r="BB2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BC2" s="21"/>
+      <c r="BC2" s="39"/>
     </row>
     <row r="3" spans="2:254" x14ac:dyDescent="0.4">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="34"/>
-      <c r="X3" s="32" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="35"/>
+      <c r="X3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
       <c r="AL3" s="4"/>
-      <c r="AM3" s="34" t="s">
+      <c r="AM3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BF3" s="32" t="s">
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BF3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="32"/>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="32"/>
-      <c r="BZ3" s="32"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="32"/>
-      <c r="CG3" s="32"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="32"/>
-      <c r="CJ3" s="32"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="32"/>
-      <c r="CP3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="32"/>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="32"/>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="32"/>
-      <c r="CX3" s="32"/>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="32"/>
-      <c r="DA3" s="32"/>
-      <c r="DB3" s="32"/>
-      <c r="DC3" s="32"/>
-      <c r="DD3" s="32"/>
-      <c r="DE3" s="32"/>
-      <c r="DF3" s="32"/>
-      <c r="DG3" s="32"/>
-      <c r="DH3" s="32"/>
-      <c r="DI3" s="32"/>
-      <c r="DJ3" s="32"/>
-      <c r="DK3" s="32"/>
-      <c r="DL3" s="32"/>
-      <c r="DM3" s="32"/>
-      <c r="DN3" s="32"/>
-      <c r="DO3" s="32"/>
-      <c r="DP3" s="32"/>
-      <c r="DQ3" s="32"/>
-      <c r="DR3" s="32"/>
-      <c r="DS3" s="32"/>
-      <c r="DT3" s="32"/>
-      <c r="DU3" s="32"/>
-      <c r="DV3" s="32"/>
-      <c r="DW3" s="32"/>
-      <c r="DX3" s="32"/>
-      <c r="DY3" s="32"/>
-      <c r="DZ3" s="32"/>
-      <c r="EA3" s="32"/>
-      <c r="EB3" s="32"/>
-      <c r="EC3" s="32"/>
-      <c r="ED3" s="32"/>
-      <c r="EE3" s="32"/>
-      <c r="EF3" s="32"/>
-      <c r="EG3" s="32"/>
-      <c r="EH3" s="32"/>
-      <c r="EI3" s="32"/>
-      <c r="EJ3" s="32"/>
-      <c r="EK3" s="32"/>
-      <c r="EL3" s="32"/>
-      <c r="EM3" s="32"/>
-      <c r="EN3" s="32"/>
-      <c r="ER3" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="ES3" s="32"/>
-      <c r="ET3" s="32"/>
-      <c r="EU3" s="32"/>
-      <c r="EV3" s="32"/>
-      <c r="EW3" s="32"/>
-      <c r="EX3" s="32"/>
-      <c r="EY3" s="32"/>
-      <c r="EZ3" s="32"/>
-      <c r="FA3" s="32"/>
-      <c r="FB3" s="32"/>
-      <c r="FC3" s="32"/>
-      <c r="FD3" s="32"/>
-      <c r="FE3" s="32"/>
-      <c r="FF3" s="32"/>
-      <c r="FG3" s="32"/>
-      <c r="FH3" s="32"/>
-      <c r="FI3" s="32"/>
-      <c r="FJ3" s="32"/>
-      <c r="FK3" s="32"/>
-      <c r="FL3" s="32"/>
-      <c r="FM3" s="32"/>
-      <c r="FN3" s="32"/>
-      <c r="FO3" s="32"/>
-      <c r="FP3" s="32"/>
-      <c r="FQ3" s="32"/>
-      <c r="FR3" s="32"/>
-      <c r="FS3" s="32"/>
-      <c r="FT3" s="32"/>
-      <c r="FU3" s="32"/>
-      <c r="FV3" s="32"/>
-      <c r="FW3" s="32"/>
-      <c r="FX3" s="32"/>
-      <c r="FY3" s="32"/>
-      <c r="FZ3" s="32"/>
-      <c r="GA3" s="32"/>
-      <c r="GB3" s="32"/>
-      <c r="GC3" s="32"/>
-      <c r="GD3" s="32"/>
-      <c r="GE3" s="32"/>
-      <c r="GF3" s="32"/>
-      <c r="GG3" s="32"/>
-      <c r="GH3" s="32"/>
-      <c r="GI3" s="32"/>
-      <c r="GJ3" s="32"/>
-      <c r="GK3" s="32"/>
-      <c r="GL3" s="32"/>
-      <c r="GM3" s="32"/>
-      <c r="GN3" s="32"/>
-      <c r="GO3" s="32"/>
-      <c r="GS3" s="32" t="s">
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CP3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
+      <c r="CX3" s="24"/>
+      <c r="CY3" s="24"/>
+      <c r="CZ3" s="24"/>
+      <c r="DA3" s="24"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="24"/>
+      <c r="DD3" s="24"/>
+      <c r="DE3" s="24"/>
+      <c r="DF3" s="24"/>
+      <c r="DG3" s="24"/>
+      <c r="DH3" s="24"/>
+      <c r="DI3" s="24"/>
+      <c r="DJ3" s="24"/>
+      <c r="DK3" s="24"/>
+      <c r="DL3" s="24"/>
+      <c r="DM3" s="24"/>
+      <c r="DN3" s="24"/>
+      <c r="DO3" s="24"/>
+      <c r="DP3" s="24"/>
+      <c r="DQ3" s="24"/>
+      <c r="DR3" s="24"/>
+      <c r="DS3" s="24"/>
+      <c r="DT3" s="24"/>
+      <c r="DU3" s="24"/>
+      <c r="DV3" s="24"/>
+      <c r="DW3" s="24"/>
+      <c r="DX3" s="24"/>
+      <c r="DY3" s="24"/>
+      <c r="DZ3" s="24"/>
+      <c r="EA3" s="24"/>
+      <c r="EB3" s="24"/>
+      <c r="EC3" s="24"/>
+      <c r="ED3" s="24"/>
+      <c r="EE3" s="24"/>
+      <c r="EF3" s="24"/>
+      <c r="EG3" s="24"/>
+      <c r="EH3" s="24"/>
+      <c r="EI3" s="24"/>
+      <c r="EJ3" s="24"/>
+      <c r="EK3" s="24"/>
+      <c r="EL3" s="24"/>
+      <c r="EM3" s="24"/>
+      <c r="EN3" s="24"/>
+      <c r="ER3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="ES3" s="24"/>
+      <c r="ET3" s="24"/>
+      <c r="EU3" s="24"/>
+      <c r="EV3" s="24"/>
+      <c r="EW3" s="24"/>
+      <c r="EX3" s="24"/>
+      <c r="EY3" s="24"/>
+      <c r="EZ3" s="24"/>
+      <c r="FA3" s="24"/>
+      <c r="FB3" s="24"/>
+      <c r="FC3" s="24"/>
+      <c r="FD3" s="24"/>
+      <c r="FE3" s="24"/>
+      <c r="FF3" s="24"/>
+      <c r="FG3" s="24"/>
+      <c r="FH3" s="24"/>
+      <c r="FI3" s="24"/>
+      <c r="FJ3" s="24"/>
+      <c r="FK3" s="24"/>
+      <c r="FL3" s="24"/>
+      <c r="FM3" s="24"/>
+      <c r="FN3" s="24"/>
+      <c r="FO3" s="24"/>
+      <c r="FP3" s="24"/>
+      <c r="FQ3" s="24"/>
+      <c r="FR3" s="24"/>
+      <c r="FS3" s="24"/>
+      <c r="FT3" s="24"/>
+      <c r="FU3" s="24"/>
+      <c r="FV3" s="24"/>
+      <c r="FW3" s="24"/>
+      <c r="FX3" s="24"/>
+      <c r="FY3" s="24"/>
+      <c r="FZ3" s="24"/>
+      <c r="GA3" s="24"/>
+      <c r="GB3" s="24"/>
+      <c r="GC3" s="24"/>
+      <c r="GD3" s="24"/>
+      <c r="GE3" s="24"/>
+      <c r="GF3" s="24"/>
+      <c r="GG3" s="24"/>
+      <c r="GH3" s="24"/>
+      <c r="GI3" s="24"/>
+      <c r="GJ3" s="24"/>
+      <c r="GK3" s="24"/>
+      <c r="GL3" s="24"/>
+      <c r="GM3" s="24"/>
+      <c r="GN3" s="24"/>
+      <c r="GO3" s="24"/>
+      <c r="GS3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="GT3" s="24"/>
+      <c r="GU3" s="24"/>
+      <c r="GV3" s="24"/>
+      <c r="GW3" s="24"/>
+      <c r="GX3" s="24"/>
+      <c r="GY3" s="24"/>
+      <c r="GZ3" s="24"/>
+      <c r="HA3" s="24"/>
+      <c r="HB3" s="24"/>
+      <c r="HC3" s="24"/>
+      <c r="HD3" s="24"/>
+      <c r="HE3" s="24"/>
+      <c r="HF3" s="24"/>
+      <c r="HG3" s="24"/>
+      <c r="HH3" s="24"/>
+      <c r="HI3" s="24"/>
+      <c r="HJ3" s="24"/>
+      <c r="HK3" s="24"/>
+      <c r="HL3" s="24"/>
+      <c r="HM3" s="24"/>
+      <c r="HN3" s="24"/>
+      <c r="HO3" s="24"/>
+      <c r="HP3" s="24"/>
+      <c r="HS3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="GT3" s="32"/>
-      <c r="GU3" s="32"/>
-      <c r="GV3" s="32"/>
-      <c r="GW3" s="32"/>
-      <c r="GX3" s="32"/>
-      <c r="GY3" s="32"/>
-      <c r="GZ3" s="32"/>
-      <c r="HA3" s="32"/>
-      <c r="HB3" s="32"/>
-      <c r="HC3" s="32"/>
-      <c r="HD3" s="32"/>
-      <c r="HE3" s="32"/>
-      <c r="HF3" s="32"/>
-      <c r="HG3" s="32"/>
-      <c r="HH3" s="32"/>
-      <c r="HI3" s="32"/>
-      <c r="HJ3" s="32"/>
-      <c r="HK3" s="32"/>
-      <c r="HL3" s="32"/>
-      <c r="HM3" s="32"/>
-      <c r="HN3" s="32"/>
-      <c r="HO3" s="32"/>
-      <c r="HP3" s="32"/>
-      <c r="HS3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="HT3" s="45"/>
-      <c r="HU3" s="45"/>
-      <c r="HV3" s="45"/>
-      <c r="HW3" s="45"/>
-      <c r="HX3" s="45"/>
-      <c r="HY3" s="45"/>
-      <c r="HZ3" s="45"/>
-      <c r="IA3" s="45"/>
-      <c r="IB3" s="45"/>
-      <c r="IC3" s="45"/>
-      <c r="ID3" s="45"/>
-      <c r="IE3" s="45"/>
-      <c r="IF3" s="45"/>
-      <c r="IG3" s="45"/>
-      <c r="IH3" s="45"/>
-      <c r="II3" s="45"/>
-      <c r="IJ3" s="45"/>
-      <c r="IK3" s="45"/>
-      <c r="IL3" s="45"/>
-      <c r="IM3" s="45"/>
-      <c r="IN3" s="45"/>
-      <c r="IO3" s="45"/>
-      <c r="IP3" s="45"/>
-      <c r="IQ3" s="45"/>
-      <c r="IR3" s="45"/>
-      <c r="IS3" s="45"/>
-      <c r="IT3" s="45"/>
+      <c r="HT3" s="20"/>
+      <c r="HU3" s="20"/>
+      <c r="HV3" s="20"/>
+      <c r="HW3" s="20"/>
+      <c r="HX3" s="20"/>
+      <c r="HY3" s="20"/>
+      <c r="HZ3" s="20"/>
+      <c r="IA3" s="20"/>
+      <c r="IB3" s="20"/>
+      <c r="IC3" s="20"/>
+      <c r="ID3" s="20"/>
+      <c r="IE3" s="20"/>
+      <c r="IF3" s="20"/>
+      <c r="IG3" s="20"/>
+      <c r="IH3" s="20"/>
+      <c r="II3" s="20"/>
+      <c r="IJ3" s="20"/>
+      <c r="IK3" s="20"/>
+      <c r="IL3" s="20"/>
+      <c r="IM3" s="20"/>
+      <c r="IN3" s="20"/>
+      <c r="IO3" s="20"/>
+      <c r="IP3" s="20"/>
+      <c r="IQ3" s="20"/>
+      <c r="IR3" s="20"/>
+      <c r="IS3" s="20"/>
+      <c r="IT3" s="20"/>
     </row>
     <row r="4" spans="2:254" x14ac:dyDescent="0.4">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="31" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="35" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="37"/>
-      <c r="X4" s="31" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="X4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31" t="s">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
       <c r="AL4" s="4"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="31" t="s">
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="25"/>
-      <c r="BF4" s="47" t="s">
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="46"/>
+      <c r="BF4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="46" t="s">
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46" t="s">
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46" t="s">
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="47" t="s">
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BX4" s="47"/>
-      <c r="BY4" s="47"/>
-      <c r="BZ4" s="31" t="s">
+      <c r="BX4" s="21"/>
+      <c r="BY4" s="21"/>
+      <c r="BZ4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="35" t="s">
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="37"/>
-      <c r="CP4" s="47" t="s">
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="15"/>
+      <c r="CP4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="CQ4" s="47"/>
-      <c r="CR4" s="47"/>
-      <c r="CS4" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46" t="s">
+      <c r="CQ4" s="21"/>
+      <c r="CR4" s="21"/>
+      <c r="CS4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
-      <c r="DA4" s="46"/>
-      <c r="DB4" s="46"/>
-      <c r="DC4" s="46" t="s">
+      <c r="CT4" s="34"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="34"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="DD4" s="46"/>
-      <c r="DE4" s="46"/>
-      <c r="DF4" s="46"/>
-      <c r="DG4" s="46"/>
-      <c r="DH4" s="46" t="s">
+      <c r="CY4" s="34"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="34"/>
+      <c r="DC4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="DI4" s="46"/>
-      <c r="DJ4" s="46"/>
-      <c r="DK4" s="46"/>
-      <c r="DL4" s="46"/>
-      <c r="DM4" s="47" t="s">
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="34"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="DI4" s="34"/>
+      <c r="DJ4" s="34"/>
+      <c r="DK4" s="34"/>
+      <c r="DL4" s="34"/>
+      <c r="DM4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="DN4" s="47"/>
-      <c r="DO4" s="47"/>
-      <c r="DP4" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="DQ4" s="46"/>
-      <c r="DR4" s="46"/>
-      <c r="DS4" s="46"/>
-      <c r="DT4" s="46"/>
-      <c r="DU4" s="47" t="s">
+      <c r="DN4" s="21"/>
+      <c r="DO4" s="21"/>
+      <c r="DP4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="DQ4" s="34"/>
+      <c r="DR4" s="34"/>
+      <c r="DS4" s="34"/>
+      <c r="DT4" s="34"/>
+      <c r="DU4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="DV4" s="47"/>
-      <c r="DW4" s="47"/>
-      <c r="DX4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="DY4" s="31"/>
-      <c r="DZ4" s="31"/>
-      <c r="EA4" s="31"/>
-      <c r="EB4" s="31"/>
-      <c r="EC4" s="31"/>
-      <c r="ED4" s="31"/>
-      <c r="EE4" s="31" t="s">
+      <c r="DV4" s="21"/>
+      <c r="DW4" s="21"/>
+      <c r="DX4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12"/>
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="EF4" s="31"/>
-      <c r="EG4" s="31"/>
-      <c r="EH4" s="31"/>
-      <c r="EI4" s="31"/>
-      <c r="EJ4" s="35" t="s">
+      <c r="EF4" s="12"/>
+      <c r="EG4" s="12"/>
+      <c r="EH4" s="12"/>
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="37"/>
-      <c r="ER4" s="47" t="s">
+      <c r="EK4" s="14"/>
+      <c r="EL4" s="14"/>
+      <c r="EM4" s="14"/>
+      <c r="EN4" s="15"/>
+      <c r="ER4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="ES4" s="47"/>
-      <c r="ET4" s="47"/>
-      <c r="EU4" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="EV4" s="49"/>
-      <c r="EW4" s="49"/>
-      <c r="EX4" s="49"/>
-      <c r="EY4" s="49" t="s">
+      <c r="ES4" s="21"/>
+      <c r="ET4" s="21"/>
+      <c r="EU4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="EZ4" s="49"/>
-      <c r="FA4" s="49"/>
-      <c r="FB4" s="49"/>
-      <c r="FC4" s="49" t="s">
+      <c r="EV4" s="23"/>
+      <c r="EW4" s="23"/>
+      <c r="EX4" s="23"/>
+      <c r="EY4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="FD4" s="49"/>
-      <c r="FE4" s="49"/>
-      <c r="FF4" s="49"/>
-      <c r="FG4" s="49" t="s">
+      <c r="EZ4" s="23"/>
+      <c r="FA4" s="23"/>
+      <c r="FB4" s="23"/>
+      <c r="FC4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="FH4" s="49"/>
-      <c r="FI4" s="49"/>
-      <c r="FJ4" s="49"/>
-      <c r="FK4" s="47" t="s">
+      <c r="FD4" s="23"/>
+      <c r="FE4" s="23"/>
+      <c r="FF4" s="23"/>
+      <c r="FG4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="FH4" s="23"/>
+      <c r="FI4" s="23"/>
+      <c r="FJ4" s="23"/>
+      <c r="FK4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="FL4" s="47"/>
-      <c r="FM4" s="47"/>
-      <c r="FN4" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="FO4" s="46"/>
-      <c r="FP4" s="46"/>
-      <c r="FQ4" s="47" t="s">
+      <c r="FL4" s="21"/>
+      <c r="FM4" s="21"/>
+      <c r="FN4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO4" s="34"/>
+      <c r="FP4" s="34"/>
+      <c r="FQ4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="FR4" s="47"/>
-      <c r="FS4" s="47"/>
-      <c r="FT4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="FU4" s="31"/>
-      <c r="FV4" s="31"/>
-      <c r="FW4" s="31"/>
-      <c r="FX4" s="31"/>
-      <c r="FY4" s="31"/>
-      <c r="FZ4" s="31"/>
-      <c r="GA4" s="47" t="s">
+      <c r="FR4" s="21"/>
+      <c r="FS4" s="21"/>
+      <c r="FT4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="FU4" s="12"/>
+      <c r="FV4" s="12"/>
+      <c r="FW4" s="12"/>
+      <c r="FX4" s="12"/>
+      <c r="FY4" s="12"/>
+      <c r="FZ4" s="12"/>
+      <c r="GA4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="GB4" s="47"/>
-      <c r="GC4" s="47"/>
-      <c r="GD4" s="48" t="s">
+      <c r="GB4" s="21"/>
+      <c r="GC4" s="21"/>
+      <c r="GD4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="GE4" s="49"/>
-      <c r="GF4" s="49"/>
-      <c r="GG4" s="49"/>
-      <c r="GH4" s="49"/>
-      <c r="GI4" s="49"/>
-      <c r="GJ4" s="49"/>
-      <c r="GK4" s="35" t="s">
+      <c r="GE4" s="23"/>
+      <c r="GF4" s="23"/>
+      <c r="GG4" s="23"/>
+      <c r="GH4" s="23"/>
+      <c r="GI4" s="23"/>
+      <c r="GJ4" s="23"/>
+      <c r="GK4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="GL4" s="36"/>
-      <c r="GM4" s="36"/>
-      <c r="GN4" s="36"/>
-      <c r="GO4" s="37"/>
-      <c r="GS4" s="52" t="s">
+      <c r="GL4" s="14"/>
+      <c r="GM4" s="14"/>
+      <c r="GN4" s="14"/>
+      <c r="GO4" s="15"/>
+      <c r="GS4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="GT4" s="52"/>
-      <c r="GU4" s="52"/>
-      <c r="GV4" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="GW4" s="50"/>
-      <c r="GX4" s="50"/>
-      <c r="GY4" s="50"/>
-      <c r="GZ4" s="50"/>
-      <c r="HA4" s="52" t="s">
+      <c r="GT4" s="25"/>
+      <c r="GU4" s="25"/>
+      <c r="GV4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="GW4" s="26"/>
+      <c r="GX4" s="26"/>
+      <c r="GY4" s="26"/>
+      <c r="GZ4" s="26"/>
+      <c r="HA4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="HB4" s="52"/>
-      <c r="HC4" s="52"/>
-      <c r="HD4" s="54" t="s">
+      <c r="HB4" s="25"/>
+      <c r="HC4" s="25"/>
+      <c r="HD4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="HE4" s="55"/>
-      <c r="HF4" s="55"/>
-      <c r="HG4" s="55"/>
-      <c r="HH4" s="55"/>
-      <c r="HI4" s="55"/>
-      <c r="HJ4" s="55"/>
-      <c r="HK4" s="56"/>
-      <c r="HL4" s="35" t="s">
+      <c r="HE4" s="28"/>
+      <c r="HF4" s="28"/>
+      <c r="HG4" s="28"/>
+      <c r="HH4" s="28"/>
+      <c r="HI4" s="28"/>
+      <c r="HJ4" s="28"/>
+      <c r="HK4" s="29"/>
+      <c r="HL4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="HM4" s="36"/>
-      <c r="HN4" s="36"/>
-      <c r="HO4" s="36"/>
-      <c r="HP4" s="37"/>
-      <c r="HS4" s="47" t="s">
+      <c r="HM4" s="14"/>
+      <c r="HN4" s="14"/>
+      <c r="HO4" s="14"/>
+      <c r="HP4" s="15"/>
+      <c r="HS4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="HT4" s="47"/>
-      <c r="HU4" s="47"/>
-      <c r="HV4" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="HW4" s="31"/>
-      <c r="HX4" s="31"/>
-      <c r="HY4" s="31"/>
-      <c r="HZ4" s="31"/>
-      <c r="IA4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="IB4" s="31"/>
-      <c r="IC4" s="31"/>
-      <c r="ID4" s="31"/>
-      <c r="IE4" s="31"/>
-      <c r="IF4" s="47" t="s">
+      <c r="HT4" s="21"/>
+      <c r="HU4" s="21"/>
+      <c r="HV4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="HW4" s="12"/>
+      <c r="HX4" s="12"/>
+      <c r="HY4" s="12"/>
+      <c r="HZ4" s="12"/>
+      <c r="IA4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="IB4" s="12"/>
+      <c r="IC4" s="12"/>
+      <c r="ID4" s="12"/>
+      <c r="IE4" s="12"/>
+      <c r="IF4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="IG4" s="47"/>
-      <c r="IH4" s="47"/>
-      <c r="II4" s="48" t="s">
+      <c r="IG4" s="21"/>
+      <c r="IH4" s="21"/>
+      <c r="II4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="IJ4" s="49"/>
-      <c r="IK4" s="49"/>
-      <c r="IL4" s="49"/>
-      <c r="IM4" s="49"/>
-      <c r="IN4" s="49"/>
-      <c r="IO4" s="49"/>
-      <c r="IP4" s="35" t="s">
+      <c r="IJ4" s="23"/>
+      <c r="IK4" s="23"/>
+      <c r="IL4" s="23"/>
+      <c r="IM4" s="23"/>
+      <c r="IN4" s="23"/>
+      <c r="IO4" s="23"/>
+      <c r="IP4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
+      <c r="IQ4" s="14"/>
+      <c r="IR4" s="14"/>
+      <c r="IS4" s="14"/>
+      <c r="IT4" s="15"/>
     </row>
     <row r="5" spans="2:254" x14ac:dyDescent="0.4">
-      <c r="C5" s="47" t="str">
+      <c r="C5" s="21" t="str">
         <f>128-1-7-16-8-8-64 &amp; "bits"</f>
         <v>24bits</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="41" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="31" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="38" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
-      <c r="X5" s="31" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+      <c r="X5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31" t="s">
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="23" t="s">
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="25"/>
-      <c r="BF5" s="47" t="s">
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46"/>
+      <c r="BF5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="42" t="s">
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="42" t="s">
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="42"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="42" t="s">
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="42"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="47" t="s">
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="31" t="s">
+      <c r="BX5" s="21"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="38" t="s">
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CI5" s="39"/>
-      <c r="CJ5" s="39"/>
-      <c r="CK5" s="39"/>
-      <c r="CL5" s="40"/>
-      <c r="CP5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="42" t="s">
+      <c r="CI5" s="17"/>
+      <c r="CJ5" s="17"/>
+      <c r="CK5" s="17"/>
+      <c r="CL5" s="18"/>
+      <c r="CP5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="CT5" s="42"/>
-      <c r="CU5" s="42"/>
-      <c r="CV5" s="42"/>
-      <c r="CW5" s="43"/>
-      <c r="CX5" s="42" t="s">
+      <c r="CQ5" s="21"/>
+      <c r="CR5" s="21"/>
+      <c r="CS5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="33"/>
+      <c r="DH5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="33"/>
+      <c r="DM5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="DN5" s="21"/>
+      <c r="DO5" s="21"/>
+      <c r="DP5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="DQ5" s="32"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="32"/>
+      <c r="DT5" s="33"/>
+      <c r="DU5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="DV5" s="21"/>
+      <c r="DW5" s="21"/>
+      <c r="DX5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="DY5" s="12"/>
+      <c r="DZ5" s="12"/>
+      <c r="EA5" s="12"/>
+      <c r="EB5" s="12"/>
+      <c r="EC5" s="12"/>
+      <c r="ED5" s="12"/>
+      <c r="EE5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="EF5" s="12"/>
+      <c r="EG5" s="12"/>
+      <c r="EH5" s="12"/>
+      <c r="EI5" s="12"/>
+      <c r="EJ5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="EK5" s="17"/>
+      <c r="EL5" s="17"/>
+      <c r="EM5" s="17"/>
+      <c r="EN5" s="18"/>
+      <c r="ER5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="CY5" s="42"/>
-      <c r="CZ5" s="42"/>
-      <c r="DA5" s="42"/>
-      <c r="DB5" s="43"/>
-      <c r="DC5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD5" s="42"/>
-      <c r="DE5" s="42"/>
-      <c r="DF5" s="42"/>
-      <c r="DG5" s="43"/>
-      <c r="DH5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="DI5" s="42"/>
-      <c r="DJ5" s="42"/>
-      <c r="DK5" s="42"/>
-      <c r="DL5" s="43"/>
-      <c r="DM5" s="47" t="s">
+      <c r="ES5" s="21"/>
+      <c r="ET5" s="21"/>
+      <c r="EU5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="DQ5" s="42"/>
-      <c r="DR5" s="42"/>
-      <c r="DS5" s="42"/>
-      <c r="DT5" s="43"/>
-      <c r="DU5" s="47" t="s">
+      <c r="EV5" s="32"/>
+      <c r="EW5" s="32"/>
+      <c r="EX5" s="33"/>
+      <c r="EY5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="EZ5" s="32"/>
+      <c r="FA5" s="32"/>
+      <c r="FB5" s="33"/>
+      <c r="FC5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD5" s="32"/>
+      <c r="FE5" s="32"/>
+      <c r="FF5" s="33"/>
+      <c r="FG5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="33"/>
+      <c r="FK5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="FL5" s="21"/>
+      <c r="FM5" s="21"/>
+      <c r="FN5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="FO5" s="32"/>
+      <c r="FP5" s="33"/>
+      <c r="FQ5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="DV5" s="47"/>
-      <c r="DW5" s="47"/>
-      <c r="DX5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="31"/>
-      <c r="EE5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="38" t="s">
+      <c r="FR5" s="21"/>
+      <c r="FS5" s="21"/>
+      <c r="FT5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="FU5" s="12"/>
+      <c r="FV5" s="12"/>
+      <c r="FW5" s="12"/>
+      <c r="FX5" s="12"/>
+      <c r="FY5" s="12"/>
+      <c r="FZ5" s="12"/>
+      <c r="GA5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="GB5" s="21"/>
+      <c r="GC5" s="21"/>
+      <c r="GD5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="GE5" s="12"/>
+      <c r="GF5" s="12"/>
+      <c r="GG5" s="12"/>
+      <c r="GH5" s="12"/>
+      <c r="GI5" s="12"/>
+      <c r="GJ5" s="12"/>
+      <c r="GK5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="EK5" s="39"/>
-      <c r="EL5" s="39"/>
-      <c r="EM5" s="39"/>
-      <c r="EN5" s="40"/>
-      <c r="ER5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="ES5" s="47"/>
-      <c r="ET5" s="47"/>
-      <c r="EU5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="EV5" s="42"/>
-      <c r="EW5" s="42"/>
-      <c r="EX5" s="43"/>
-      <c r="EY5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="EZ5" s="42"/>
-      <c r="FA5" s="42"/>
-      <c r="FB5" s="43"/>
-      <c r="FC5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="FD5" s="42"/>
-      <c r="FE5" s="42"/>
-      <c r="FF5" s="43"/>
-      <c r="FG5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="FH5" s="42"/>
-      <c r="FI5" s="42"/>
-      <c r="FJ5" s="43"/>
-      <c r="FK5" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="FL5" s="47"/>
-      <c r="FM5" s="47"/>
-      <c r="FN5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="FO5" s="42"/>
-      <c r="FP5" s="43"/>
-      <c r="FQ5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="FR5" s="47"/>
-      <c r="FS5" s="47"/>
-      <c r="FT5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="31"/>
-      <c r="GA5" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="GB5" s="47"/>
-      <c r="GC5" s="47"/>
-      <c r="GD5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="GL5" s="39"/>
-      <c r="GM5" s="39"/>
-      <c r="GN5" s="39"/>
-      <c r="GO5" s="40"/>
-      <c r="GS5" s="53" t="str">
+      <c r="GL5" s="17"/>
+      <c r="GM5" s="17"/>
+      <c r="GN5" s="17"/>
+      <c r="GO5" s="18"/>
+      <c r="GS5" s="30" t="str">
         <f>128-1-7-16-8-8-36 &amp; " bits"</f>
         <v>52 bits</v>
       </c>
-      <c r="GT5" s="53"/>
-      <c r="GU5" s="53"/>
-      <c r="GV5" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="GW5" s="51"/>
-      <c r="GX5" s="51"/>
-      <c r="GY5" s="51"/>
-      <c r="GZ5" s="51"/>
-      <c r="HA5" s="53" t="s">
+      <c r="GT5" s="30"/>
+      <c r="GU5" s="30"/>
+      <c r="GV5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="GW5" s="31"/>
+      <c r="GX5" s="31"/>
+      <c r="GY5" s="31"/>
+      <c r="GZ5" s="31"/>
+      <c r="HA5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="HB5" s="53"/>
-      <c r="HC5" s="53"/>
-      <c r="HD5" s="51" t="s">
+      <c r="HB5" s="30"/>
+      <c r="HC5" s="30"/>
+      <c r="HD5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="HE5" s="51"/>
-      <c r="HF5" s="51"/>
-      <c r="HG5" s="51"/>
-      <c r="HH5" s="51"/>
-      <c r="HI5" s="51"/>
-      <c r="HJ5" s="51"/>
-      <c r="HK5" s="51"/>
-      <c r="HL5" s="38" t="s">
+      <c r="HE5" s="31"/>
+      <c r="HF5" s="31"/>
+      <c r="HG5" s="31"/>
+      <c r="HH5" s="31"/>
+      <c r="HI5" s="31"/>
+      <c r="HJ5" s="31"/>
+      <c r="HK5" s="31"/>
+      <c r="HL5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="HM5" s="39"/>
-      <c r="HN5" s="39"/>
-      <c r="HO5" s="39"/>
-      <c r="HP5" s="40"/>
-      <c r="HS5" s="47" t="str">
+      <c r="HM5" s="17"/>
+      <c r="HN5" s="17"/>
+      <c r="HO5" s="17"/>
+      <c r="HP5" s="18"/>
+      <c r="HS5" s="21" t="str">
         <f>128-1-7-16-8-8-36-32 &amp; " bits"</f>
         <v>20 bits</v>
       </c>
-      <c r="HT5" s="47"/>
-      <c r="HU5" s="47"/>
-      <c r="HV5" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="HW5" s="31"/>
-      <c r="HX5" s="31"/>
-      <c r="HY5" s="31"/>
-      <c r="HZ5" s="31"/>
-      <c r="IA5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="IB5" s="31"/>
-      <c r="IC5" s="31"/>
-      <c r="ID5" s="31"/>
-      <c r="IE5" s="31"/>
-      <c r="IF5" s="47" t="s">
+      <c r="HT5" s="21"/>
+      <c r="HU5" s="21"/>
+      <c r="HV5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="HW5" s="12"/>
+      <c r="HX5" s="12"/>
+      <c r="HY5" s="12"/>
+      <c r="HZ5" s="12"/>
+      <c r="IA5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="IB5" s="12"/>
+      <c r="IC5" s="12"/>
+      <c r="ID5" s="12"/>
+      <c r="IE5" s="12"/>
+      <c r="IF5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="IG5" s="47"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="31" t="s">
+      <c r="IG5" s="21"/>
+      <c r="IH5" s="21"/>
+      <c r="II5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="IJ5" s="31"/>
-      <c r="IK5" s="31"/>
-      <c r="IL5" s="31"/>
-      <c r="IM5" s="31"/>
-      <c r="IN5" s="31"/>
-      <c r="IO5" s="31"/>
-      <c r="IP5" s="38" t="s">
+      <c r="IJ5" s="12"/>
+      <c r="IK5" s="12"/>
+      <c r="IL5" s="12"/>
+      <c r="IM5" s="12"/>
+      <c r="IN5" s="12"/>
+      <c r="IO5" s="12"/>
+      <c r="IP5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="IQ5" s="39"/>
-      <c r="IR5" s="39"/>
-      <c r="IS5" s="39"/>
-      <c r="IT5" s="40"/>
+      <c r="IQ5" s="17"/>
+      <c r="IR5" s="17"/>
+      <c r="IS5" s="17"/>
+      <c r="IT5" s="18"/>
     </row>
     <row r="6" spans="2:254" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="3"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="27" t="s">
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="18" t="s">
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="17" t="s">
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="18">
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="43">
         <v>1</v>
       </c>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="18">
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="43">
         <v>0</v>
       </c>
-      <c r="AY6" s="28"/>
+      <c r="AY6" s="44"/>
       <c r="AZ6" s="5" t="s">
         <v>19</v>
       </c>
@@ -9965,19 +13891,19 @@
       <c r="BB6" s="3"/>
     </row>
     <row r="7" spans="2:254" x14ac:dyDescent="0.4">
-      <c r="AO7" s="12" t="s">
+      <c r="AO7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AP7" s="13"/>
+      <c r="AP7" s="47"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="13"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="47"/>
       <c r="AW7" s="8"/>
-      <c r="AX7" s="21" t="s">
+      <c r="AX7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AY7" s="26"/>
+      <c r="AY7" s="40"/>
     </row>
     <row r="10" spans="2:254" x14ac:dyDescent="0.4">
       <c r="AL10" s="6"/>
@@ -10000,65 +13926,65 @@
     </row>
     <row r="11" spans="2:254" x14ac:dyDescent="0.4">
       <c r="AL11" s="6"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
       <c r="BB11" s="6"/>
     </row>
     <row r="12" spans="2:254" x14ac:dyDescent="0.4">
       <c r="AL12" s="6"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
       <c r="BB12" s="6"/>
     </row>
     <row r="13" spans="2:254" x14ac:dyDescent="0.4">
       <c r="AL13" s="6"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
       <c r="BB13" s="6"/>
     </row>
     <row r="14" spans="2:254" x14ac:dyDescent="0.4">
       <c r="AL14" s="6"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="6"/>
       <c r="AQ14" s="6"/>
@@ -10076,21 +14002,99 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="II5:IO5"/>
-    <mergeCell ref="IP4:IT4"/>
-    <mergeCell ref="IP5:IT5"/>
-    <mergeCell ref="HL4:HP4"/>
-    <mergeCell ref="HL5:HP5"/>
-    <mergeCell ref="HS3:IT3"/>
-    <mergeCell ref="HS4:HU4"/>
-    <mergeCell ref="HV4:HZ4"/>
-    <mergeCell ref="IA4:IE4"/>
-    <mergeCell ref="IF4:IH4"/>
-    <mergeCell ref="II4:IO4"/>
-    <mergeCell ref="HS5:HU5"/>
-    <mergeCell ref="HV5:HZ5"/>
-    <mergeCell ref="IA5:IE5"/>
-    <mergeCell ref="IF5:IH5"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AO5:AY5"/>
+    <mergeCell ref="AM11:BA11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:AY12"/>
+    <mergeCell ref="AZ12:BA12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="AT13:AV13"/>
+    <mergeCell ref="AW13:AY13"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AO2:AY2"/>
+    <mergeCell ref="AS6:AU7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="X3:AI3"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AM3:BA3"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BS4:BV4"/>
+    <mergeCell ref="BZ4:CG4"/>
+    <mergeCell ref="CH4:CL4"/>
+    <mergeCell ref="BF3:CL3"/>
+    <mergeCell ref="CP3:EN3"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="BZ5:CG5"/>
+    <mergeCell ref="CH5:CL5"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BW5:BY5"/>
+    <mergeCell ref="BN4:BR4"/>
+    <mergeCell ref="BN5:BR5"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="GK4:GO4"/>
+    <mergeCell ref="EE5:EI5"/>
+    <mergeCell ref="EJ5:EN5"/>
+    <mergeCell ref="DU4:DW4"/>
+    <mergeCell ref="DU5:DW5"/>
+    <mergeCell ref="DM4:DO4"/>
+    <mergeCell ref="DM5:DO5"/>
+    <mergeCell ref="CP5:CR5"/>
+    <mergeCell ref="DC5:DG5"/>
+    <mergeCell ref="DH5:DL5"/>
+    <mergeCell ref="DP5:DT5"/>
+    <mergeCell ref="DX5:ED5"/>
+    <mergeCell ref="CS5:CW5"/>
+    <mergeCell ref="CX5:DB5"/>
+    <mergeCell ref="CP4:CR4"/>
+    <mergeCell ref="DC4:DG4"/>
+    <mergeCell ref="DH4:DL4"/>
+    <mergeCell ref="DP4:DT4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EI4"/>
+    <mergeCell ref="EJ4:EN4"/>
+    <mergeCell ref="CS4:CW4"/>
+    <mergeCell ref="CX4:DB4"/>
+    <mergeCell ref="EU4:EX4"/>
+    <mergeCell ref="EY4:FB4"/>
+    <mergeCell ref="FC4:FF4"/>
+    <mergeCell ref="FG4:FJ4"/>
+    <mergeCell ref="FK4:FM4"/>
+    <mergeCell ref="FN4:FP4"/>
+    <mergeCell ref="FQ4:FS4"/>
+    <mergeCell ref="FT4:FZ4"/>
+    <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="ER3:GO3"/>
     <mergeCell ref="GS3:HP3"/>
     <mergeCell ref="GS4:GU4"/>
@@ -10115,99 +14119,929 @@
     <mergeCell ref="FC5:FF5"/>
     <mergeCell ref="FG5:FJ5"/>
     <mergeCell ref="ER4:ET4"/>
-    <mergeCell ref="EU4:EX4"/>
-    <mergeCell ref="EY4:FB4"/>
-    <mergeCell ref="FC4:FF4"/>
-    <mergeCell ref="FG4:FJ4"/>
-    <mergeCell ref="FK4:FM4"/>
-    <mergeCell ref="FN4:FP4"/>
-    <mergeCell ref="FQ4:FS4"/>
-    <mergeCell ref="FT4:FZ4"/>
-    <mergeCell ref="GD4:GJ4"/>
-    <mergeCell ref="GK4:GO4"/>
-    <mergeCell ref="EE5:EI5"/>
-    <mergeCell ref="EJ5:EN5"/>
-    <mergeCell ref="DU4:DW4"/>
-    <mergeCell ref="DU5:DW5"/>
-    <mergeCell ref="DM4:DO4"/>
-    <mergeCell ref="DM5:DO5"/>
-    <mergeCell ref="CP5:CR5"/>
-    <mergeCell ref="DC5:DG5"/>
+    <mergeCell ref="II5:IO5"/>
+    <mergeCell ref="IP4:IT4"/>
+    <mergeCell ref="IP5:IT5"/>
+    <mergeCell ref="HL4:HP4"/>
+    <mergeCell ref="HL5:HP5"/>
+    <mergeCell ref="HS3:IT3"/>
+    <mergeCell ref="HS4:HU4"/>
+    <mergeCell ref="HV4:HZ4"/>
+    <mergeCell ref="IA4:IE4"/>
+    <mergeCell ref="IF4:IH4"/>
+    <mergeCell ref="II4:IO4"/>
+    <mergeCell ref="HS5:HU5"/>
+    <mergeCell ref="HV5:HZ5"/>
+    <mergeCell ref="IA5:IE5"/>
+    <mergeCell ref="IF5:IH5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C6584-A140-46FB-9B22-984E9B48BC21}">
+  <dimension ref="C3:DL5"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DL15" sqref="DL15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="67" width="3.625" customWidth="1"/>
+    <col min="68" max="81" width="3.625" style="63" customWidth="1"/>
+    <col min="82" max="358" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:116" x14ac:dyDescent="0.4">
+      <c r="C3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="R3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AH3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AZ3" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CJ3" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="DA3" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="64"/>
+      <c r="DH3" s="64"/>
+      <c r="DI3" s="64"/>
+      <c r="DJ3" s="64"/>
+      <c r="DK3" s="64"/>
+      <c r="DL3" s="64"/>
+    </row>
+    <row r="4" spans="3:116" x14ac:dyDescent="0.4">
+      <c r="C4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="R4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AH4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AZ4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="62"/>
+      <c r="BQ4" s="62"/>
+      <c r="BR4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="21"/>
+      <c r="BT4" s="21"/>
+      <c r="BU4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CJ4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="21"/>
+      <c r="CL4" s="21"/>
+      <c r="CM4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="21"/>
+      <c r="CS4" s="21"/>
+      <c r="CT4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="DA4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="21"/>
+      <c r="DC4" s="21"/>
+      <c r="DD4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="60"/>
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+    </row>
+    <row r="5" spans="3:116" x14ac:dyDescent="0.4">
+      <c r="C5" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="R5" s="21" t="str">
+        <f>128-16-24 &amp; " bits"</f>
+        <v>88 bits</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AH5" s="21" t="str">
+        <f>128-8-24 &amp; " bits"</f>
+        <v>96 bits</v>
+      </c>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AZ5" s="21" t="str">
+        <f>128-24-1-1 &amp; " bits"</f>
+        <v>102 bits</v>
+      </c>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD5" s="60"/>
+      <c r="BE5" s="60"/>
+      <c r="BF5" s="60"/>
+      <c r="BG5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH5" s="60"/>
+      <c r="BI5" s="60"/>
+      <c r="BJ5" s="60"/>
+      <c r="BK5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL5" s="60"/>
+      <c r="BM5" s="60"/>
+      <c r="BN5" s="60"/>
+      <c r="BO5" s="60"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="21" t="str">
+        <f>128-24-1-1 &amp; " bits"</f>
+        <v>102 bits</v>
+      </c>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="21"/>
+      <c r="BU5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV5" s="60"/>
+      <c r="BW5" s="60"/>
+      <c r="BX5" s="60"/>
+      <c r="BY5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ5" s="60"/>
+      <c r="CA5" s="60"/>
+      <c r="CB5" s="60"/>
+      <c r="CC5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD5" s="60"/>
+      <c r="CE5" s="60"/>
+      <c r="CF5" s="60"/>
+      <c r="CG5" s="60"/>
+      <c r="CJ5" s="21" t="str">
+        <f>128-24-1-1 &amp; " bits"</f>
+        <v>102 bits</v>
+      </c>
+      <c r="CK5" s="21"/>
+      <c r="CL5" s="21"/>
+      <c r="CM5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN5" s="60"/>
+      <c r="CO5" s="60"/>
+      <c r="CP5" s="60"/>
+      <c r="CQ5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR5" s="21"/>
+      <c r="CS5" s="21"/>
+      <c r="CT5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU5" s="60"/>
+      <c r="CV5" s="60"/>
+      <c r="CW5" s="60"/>
+      <c r="CX5" s="60"/>
+      <c r="DA5" s="21" t="str">
+        <f>128-24-1 &amp; " bits"</f>
+        <v>103 bits</v>
+      </c>
+      <c r="DB5" s="21"/>
+      <c r="DC5" s="21"/>
+      <c r="DD5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="DE5" s="60"/>
+      <c r="DF5" s="60"/>
+      <c r="DG5" s="60"/>
+      <c r="DH5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="DI5" s="60"/>
+      <c r="DJ5" s="60"/>
+      <c r="DK5" s="60"/>
+      <c r="DL5" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="DA4:DC4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DL4"/>
+    <mergeCell ref="DA5:DC5"/>
+    <mergeCell ref="DD5:DG5"/>
     <mergeCell ref="DH5:DL5"/>
-    <mergeCell ref="DP5:DT5"/>
-    <mergeCell ref="DX5:ED5"/>
-    <mergeCell ref="CS5:CW5"/>
-    <mergeCell ref="CX5:DB5"/>
-    <mergeCell ref="CP4:CR4"/>
-    <mergeCell ref="DC4:DG4"/>
-    <mergeCell ref="DH4:DL4"/>
-    <mergeCell ref="DP4:DT4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EI4"/>
-    <mergeCell ref="EJ4:EN4"/>
-    <mergeCell ref="CS4:CW4"/>
-    <mergeCell ref="CX4:DB4"/>
-    <mergeCell ref="CP3:EN3"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="BZ5:CG5"/>
-    <mergeCell ref="CH5:CL5"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="BW5:BY5"/>
-    <mergeCell ref="BN4:BR4"/>
-    <mergeCell ref="BN5:BR5"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BS4:BV4"/>
-    <mergeCell ref="BZ4:CG4"/>
-    <mergeCell ref="CH4:CL4"/>
-    <mergeCell ref="BF3:CL3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="X3:AI3"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AM3:BA3"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AO2:AY2"/>
-    <mergeCell ref="AS6:AU7"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO5:AY5"/>
-    <mergeCell ref="AM11:BA11"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AY12"/>
-    <mergeCell ref="AZ12:BA12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="AT13:AV13"/>
-    <mergeCell ref="AW13:AY13"/>
-    <mergeCell ref="AZ13:BA13"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CQ4:CS4"/>
+    <mergeCell ref="CT4:CX4"/>
+    <mergeCell ref="CJ5:CL5"/>
+    <mergeCell ref="CM5:CP5"/>
+    <mergeCell ref="CQ5:CS5"/>
+    <mergeCell ref="CT5:CX5"/>
+    <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CC4:CG4"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="BU5:BX5"/>
+    <mergeCell ref="BY5:CB5"/>
+    <mergeCell ref="CC5:CG5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
+    <mergeCell ref="BG5:BJ5"/>
+    <mergeCell ref="BK5:BO5"/>
+    <mergeCell ref="BR3:CG3"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BF4"/>
+    <mergeCell ref="BG4:BJ4"/>
+    <mergeCell ref="BK4:BO4"/>
+    <mergeCell ref="AZ3:BO3"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="AH3:AW3"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AR4"/>
+    <mergeCell ref="AS4:AW4"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="R3:AD3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="CJ3:CX3"/>
+    <mergeCell ref="DA3:DL3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4A6BD7-D5DE-4DEB-9699-4B92272781E1}">
+  <dimension ref="D4:AS10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="197" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="4"/>
+      <c r="G4" s="129" t="str">
+        <f>"+0"</f>
+        <v>+0</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="129" t="str">
+        <f>"+1"</f>
+        <v>+1</v>
+      </c>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="129" t="str">
+        <f>"+2"</f>
+        <v>+2</v>
+      </c>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="129" t="str">
+        <f>"+3"</f>
+        <v>+3</v>
+      </c>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="40"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="129" t="str">
+        <f>"+0"</f>
+        <v>+0</v>
+      </c>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="129" t="str">
+        <f>"+1"</f>
+        <v>+1</v>
+      </c>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="129" t="str">
+        <f>"+2"</f>
+        <v>+2</v>
+      </c>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="129" t="str">
+        <f>"+3"</f>
+        <v>+3</v>
+      </c>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="40"/>
+    </row>
+    <row r="5" spans="4:45" x14ac:dyDescent="0.4">
+      <c r="D5" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="131"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="137"/>
+      <c r="Z5" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="137"/>
+    </row>
+    <row r="6" spans="4:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="142"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="138"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="142"/>
+    </row>
+    <row r="7" spans="4:45" x14ac:dyDescent="0.4">
+      <c r="D7" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="137"/>
+      <c r="Z7" s="149" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM7" s="136"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="136"/>
+      <c r="AP7" s="136"/>
+      <c r="AQ7" s="136"/>
+      <c r="AR7" s="136"/>
+      <c r="AS7" s="137"/>
+    </row>
+    <row r="8" spans="4:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="147"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI8" s="146"/>
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM8" s="146"/>
+      <c r="AN8" s="146"/>
+      <c r="AO8" s="146"/>
+      <c r="AP8" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ8" s="146"/>
+      <c r="AR8" s="146"/>
+      <c r="AS8" s="146"/>
+    </row>
+    <row r="9" spans="4:45" x14ac:dyDescent="0.4">
+      <c r="Z9" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="151"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="151"/>
+      <c r="AQ9" s="151"/>
+      <c r="AR9" s="151"/>
+      <c r="AS9" s="152"/>
+    </row>
+    <row r="10" spans="4:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI10" s="146"/>
+      <c r="AJ10" s="146"/>
+      <c r="AK10" s="146"/>
+      <c r="AL10" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM10" s="146"/>
+      <c r="AN10" s="146"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ10" s="146"/>
+      <c r="AR10" s="146"/>
+      <c r="AS10" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="Z9:AB10"/>
+    <mergeCell ref="AD9:AS9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="Z7:AB8"/>
+    <mergeCell ref="AD7:AK7"/>
+    <mergeCell ref="AL7:AS7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="Z5:AB6"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AS5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:V5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/manuals/feedback_figures/figures.xlsx
+++ b/manuals/feedback_figures/figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw\manuals\feedback_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11FEF2-1C94-481E-A66F-7DDEDA4F883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B95189-C38C-4973-AA52-2DAA170215BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="900" windowWidth="21900" windowHeight="19575" activeTab="1" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
+    <workbookView xWindow="-25410" yWindow="-720" windowWidth="23805" windowHeight="19530" activeTab="5" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="444">
   <si>
     <t>AWG スタートコマンド</t>
     <phoneticPr fontId="1"/>
@@ -940,14 +940,6 @@
     <t>Byte 0</t>
   </si>
   <si>
-    <t>タイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドレス (A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[39:32]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -979,19 +971,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Byte 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x21</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1002,21 +982,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンド数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[47:40]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1074,14 +1039,6 @@
   </si>
   <si>
     <t>Byte 16N + 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x27</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3181,6 +3138,59 @@
   </si>
   <si>
     <t>num unprocessed cmds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 20h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 21h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス [= A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数 [= 0004h]</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 22h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 23h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 24h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 25h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ [= 27h]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド数 [= N]</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト数 [= 16N+8]</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3333,7 +3343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -4362,13 +4372,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5197,6 +5231,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5212,10 +5252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5227,16 +5267,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5277,6 +5320,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14571,7 +14623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F52D48F-DB58-4926-846D-7E5D1B242A37}">
   <dimension ref="L3:DP73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BG62" sqref="BG62"/>
     </sheetView>
   </sheetViews>
@@ -14848,7 +14900,7 @@
       <c r="BB7" s="173"/>
       <c r="BC7" s="173"/>
       <c r="BV7" s="40" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="BW7" s="40"/>
       <c r="BX7" s="40"/>
@@ -14911,7 +14963,7 @@
       <c r="BB8" s="150"/>
       <c r="BC8" s="151"/>
       <c r="BM8" s="103" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="BN8" s="104"/>
       <c r="BO8" s="104"/>
@@ -15043,7 +15095,7 @@
       <c r="BS10" s="110"/>
       <c r="BT10" s="111"/>
       <c r="CN10" s="40" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="CO10" s="40"/>
       <c r="CP10" s="40"/>
@@ -15098,7 +15150,7 @@
       <c r="BB11" s="153"/>
       <c r="BC11" s="154"/>
       <c r="BM11" s="112" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="BN11" s="113"/>
       <c r="BO11" s="113"/>
@@ -15112,7 +15164,7 @@
         <v>2080000</v>
       </c>
       <c r="CE11" s="114" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="CF11" s="115"/>
       <c r="CG11" s="115"/>
@@ -15326,7 +15378,7 @@
       <c r="BW14" s="40"/>
       <c r="BX14" s="40"/>
       <c r="CE14" s="116" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="CF14" s="117"/>
       <c r="CG14" s="117"/>
@@ -15528,7 +15580,7 @@
       <c r="BB17" s="150"/>
       <c r="BC17" s="151"/>
       <c r="BM17" s="125" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="BN17" s="107"/>
       <c r="BO17" s="107"/>
@@ -15733,7 +15785,7 @@
       <c r="BB20" s="177"/>
       <c r="BC20" s="177"/>
       <c r="CE20" s="126" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="CF20" s="127"/>
       <c r="CG20" s="127"/>
@@ -15899,7 +15951,7 @@
       </c>
       <c r="Y23" s="140"/>
       <c r="Z23" s="139" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AA23" s="143"/>
       <c r="AB23" s="143"/>
@@ -16039,7 +16091,7 @@
       <c r="BB25" s="173"/>
       <c r="BC25" s="173"/>
       <c r="DJ25" s="40" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="DK25" s="40"/>
       <c r="DL25" s="40"/>
@@ -16142,7 +16194,7 @@
       <c r="CO26" s="39"/>
       <c r="CP26" s="39"/>
       <c r="CQ26" s="39" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="CR26" s="39"/>
       <c r="CS26" s="39"/>
@@ -16150,7 +16202,7 @@
       <c r="CU26" s="39"/>
       <c r="CV26" s="39"/>
       <c r="CW26" s="93" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="CX26" s="93"/>
       <c r="CY26" s="93"/>
@@ -16158,7 +16210,7 @@
       <c r="DA26" s="93"/>
       <c r="DB26" s="93"/>
       <c r="DC26" s="38" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="DD26" s="38"/>
       <c r="DE26" s="38"/>
@@ -16342,7 +16394,7 @@
       <c r="BB28" s="173"/>
       <c r="BC28" s="173"/>
       <c r="BM28" s="34" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="BN28" s="34"/>
       <c r="BO28" s="34"/>
@@ -16350,7 +16402,7 @@
       <c r="BQ28" s="34"/>
       <c r="BR28" s="34"/>
       <c r="BS28" s="34" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="BT28" s="34"/>
       <c r="BU28" s="34"/>
@@ -16358,7 +16410,7 @@
       <c r="BW28" s="34"/>
       <c r="BX28" s="34"/>
       <c r="BY28" s="39" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="BZ28" s="39"/>
       <c r="CA28" s="39"/>
@@ -16366,7 +16418,7 @@
       <c r="CC28" s="39"/>
       <c r="CD28" s="39"/>
       <c r="CE28" s="38" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="CF28" s="38"/>
       <c r="CG28" s="38"/>
@@ -16374,7 +16426,7 @@
       <c r="CI28" s="38"/>
       <c r="CJ28" s="38"/>
       <c r="CK28" s="34" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="CL28" s="34"/>
       <c r="CM28" s="34"/>
@@ -16382,7 +16434,7 @@
       <c r="CO28" s="34"/>
       <c r="CP28" s="34"/>
       <c r="CQ28" s="34" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="CR28" s="34"/>
       <c r="CS28" s="34"/>
@@ -16390,7 +16442,7 @@
       <c r="CU28" s="34"/>
       <c r="CV28" s="34"/>
       <c r="CW28" s="39" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="CX28" s="39"/>
       <c r="CY28" s="39"/>
@@ -16398,7 +16450,7 @@
       <c r="DA28" s="39"/>
       <c r="DB28" s="39"/>
       <c r="DC28" s="38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="DD28" s="38"/>
       <c r="DE28" s="38"/>
@@ -16458,7 +16510,7 @@
       <c r="BB29" s="173"/>
       <c r="BC29" s="173"/>
       <c r="BM29" s="34" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="BN29" s="34"/>
       <c r="BO29" s="34"/>
@@ -16466,7 +16518,7 @@
       <c r="BQ29" s="34"/>
       <c r="BR29" s="34"/>
       <c r="BS29" s="34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="BT29" s="34"/>
       <c r="BU29" s="34"/>
@@ -16474,7 +16526,7 @@
       <c r="BW29" s="34"/>
       <c r="BX29" s="34"/>
       <c r="BY29" s="39" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="BZ29" s="39"/>
       <c r="CA29" s="39"/>
@@ -16482,7 +16534,7 @@
       <c r="CC29" s="39"/>
       <c r="CD29" s="39"/>
       <c r="CE29" s="38" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="CF29" s="38"/>
       <c r="CG29" s="38"/>
@@ -16490,7 +16542,7 @@
       <c r="CI29" s="38"/>
       <c r="CJ29" s="38"/>
       <c r="CK29" s="34" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="CL29" s="34"/>
       <c r="CM29" s="34"/>
@@ -16498,7 +16550,7 @@
       <c r="CO29" s="34"/>
       <c r="CP29" s="34"/>
       <c r="CQ29" s="34" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="CR29" s="34"/>
       <c r="CS29" s="34"/>
@@ -16506,7 +16558,7 @@
       <c r="CU29" s="34"/>
       <c r="CV29" s="34"/>
       <c r="CW29" s="39" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="CX29" s="39"/>
       <c r="CY29" s="39"/>
@@ -16514,7 +16566,7 @@
       <c r="DA29" s="39"/>
       <c r="DB29" s="39"/>
       <c r="DC29" s="38" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="DD29" s="38"/>
       <c r="DE29" s="38"/>
@@ -16574,7 +16626,7 @@
       <c r="BB30" s="173"/>
       <c r="BC30" s="173"/>
       <c r="BM30" s="34" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="BN30" s="34"/>
       <c r="BO30" s="34"/>
@@ -16582,7 +16634,7 @@
       <c r="BQ30" s="34"/>
       <c r="BR30" s="34"/>
       <c r="BS30" s="34" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="BT30" s="34"/>
       <c r="BU30" s="34"/>
@@ -16590,7 +16642,7 @@
       <c r="BW30" s="34"/>
       <c r="BX30" s="34"/>
       <c r="BY30" s="39" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="BZ30" s="39"/>
       <c r="CA30" s="39"/>
@@ -16598,7 +16650,7 @@
       <c r="CC30" s="39"/>
       <c r="CD30" s="39"/>
       <c r="CE30" s="38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="CF30" s="38"/>
       <c r="CG30" s="38"/>
@@ -16606,7 +16658,7 @@
       <c r="CI30" s="38"/>
       <c r="CJ30" s="38"/>
       <c r="CK30" s="34" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="CL30" s="34"/>
       <c r="CM30" s="34"/>
@@ -16614,7 +16666,7 @@
       <c r="CO30" s="34"/>
       <c r="CP30" s="34"/>
       <c r="CQ30" s="34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="CR30" s="34"/>
       <c r="CS30" s="34"/>
@@ -16622,7 +16674,7 @@
       <c r="CU30" s="34"/>
       <c r="CV30" s="34"/>
       <c r="CW30" s="39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="CX30" s="39"/>
       <c r="CY30" s="39"/>
@@ -16630,7 +16682,7 @@
       <c r="DA30" s="39"/>
       <c r="DB30" s="39"/>
       <c r="DC30" s="38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="DD30" s="38"/>
       <c r="DE30" s="38"/>
@@ -16698,7 +16750,7 @@
       <c r="BB31" s="173"/>
       <c r="BC31" s="173"/>
       <c r="BM31" s="34" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="BN31" s="34"/>
       <c r="BO31" s="34"/>
@@ -16706,7 +16758,7 @@
       <c r="BQ31" s="34"/>
       <c r="BR31" s="34"/>
       <c r="BS31" s="34" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="BT31" s="34"/>
       <c r="BU31" s="34"/>
@@ -16714,7 +16766,7 @@
       <c r="BW31" s="34"/>
       <c r="BX31" s="34"/>
       <c r="BY31" s="39" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="BZ31" s="39"/>
       <c r="CA31" s="39"/>
@@ -16722,7 +16774,7 @@
       <c r="CC31" s="39"/>
       <c r="CD31" s="39"/>
       <c r="CE31" s="38" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="CF31" s="38"/>
       <c r="CG31" s="38"/>
@@ -16730,7 +16782,7 @@
       <c r="CI31" s="38"/>
       <c r="CJ31" s="38"/>
       <c r="CK31" s="34" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="CL31" s="34"/>
       <c r="CM31" s="34"/>
@@ -16738,7 +16790,7 @@
       <c r="CO31" s="34"/>
       <c r="CP31" s="34"/>
       <c r="CQ31" s="34" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="CR31" s="34"/>
       <c r="CS31" s="34"/>
@@ -16746,7 +16798,7 @@
       <c r="CU31" s="34"/>
       <c r="CV31" s="34"/>
       <c r="CW31" s="39" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="CX31" s="39"/>
       <c r="CY31" s="39"/>
@@ -16754,7 +16806,7 @@
       <c r="DA31" s="39"/>
       <c r="DB31" s="39"/>
       <c r="DC31" s="38" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="DD31" s="38"/>
       <c r="DE31" s="38"/>
@@ -16763,7 +16815,7 @@
       <c r="DH31" s="38"/>
       <c r="DI31" s="9"/>
       <c r="DJ31" s="40" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="DK31" s="40"/>
       <c r="DL31" s="40"/>
@@ -16814,7 +16866,7 @@
       <c r="BB32" s="173"/>
       <c r="BC32" s="173"/>
       <c r="BM32" s="34" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BN32" s="34"/>
       <c r="BO32" s="34"/>
@@ -16822,7 +16874,7 @@
       <c r="BQ32" s="34"/>
       <c r="BR32" s="34"/>
       <c r="BS32" s="34" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="BT32" s="34"/>
       <c r="BU32" s="34"/>
@@ -16830,7 +16882,7 @@
       <c r="BW32" s="34"/>
       <c r="BX32" s="34"/>
       <c r="BY32" s="39" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="BZ32" s="39"/>
       <c r="CA32" s="39"/>
@@ -16838,7 +16890,7 @@
       <c r="CC32" s="39"/>
       <c r="CD32" s="39"/>
       <c r="CE32" s="38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="CF32" s="38"/>
       <c r="CG32" s="38"/>
@@ -16846,7 +16898,7 @@
       <c r="CI32" s="38"/>
       <c r="CJ32" s="38"/>
       <c r="CK32" s="34" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="CL32" s="34"/>
       <c r="CM32" s="34"/>
@@ -16854,7 +16906,7 @@
       <c r="CO32" s="34"/>
       <c r="CP32" s="34"/>
       <c r="CQ32" s="34" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="CR32" s="34"/>
       <c r="CS32" s="34"/>
@@ -16862,7 +16914,7 @@
       <c r="CU32" s="34"/>
       <c r="CV32" s="34"/>
       <c r="CW32" s="39" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="CX32" s="39"/>
       <c r="CY32" s="39"/>
@@ -16870,7 +16922,7 @@
       <c r="DA32" s="39"/>
       <c r="DB32" s="39"/>
       <c r="DC32" s="38" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="DD32" s="38"/>
       <c r="DE32" s="38"/>
@@ -16879,7 +16931,7 @@
       <c r="DH32" s="38"/>
       <c r="DI32" s="9"/>
       <c r="DJ32" s="40" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="DK32" s="40"/>
       <c r="DL32" s="40"/>
@@ -16938,7 +16990,7 @@
       <c r="BB33" s="177"/>
       <c r="BC33" s="177"/>
       <c r="BM33" s="34" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="BN33" s="34"/>
       <c r="BO33" s="34"/>
@@ -16946,7 +16998,7 @@
       <c r="BQ33" s="34"/>
       <c r="BR33" s="34"/>
       <c r="BS33" s="34" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="BT33" s="34"/>
       <c r="BU33" s="34"/>
@@ -16954,7 +17006,7 @@
       <c r="BW33" s="34"/>
       <c r="BX33" s="34"/>
       <c r="BY33" s="39" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BZ33" s="39"/>
       <c r="CA33" s="39"/>
@@ -16962,7 +17014,7 @@
       <c r="CC33" s="39"/>
       <c r="CD33" s="39"/>
       <c r="CE33" s="38" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="CF33" s="38"/>
       <c r="CG33" s="38"/>
@@ -16970,7 +17022,7 @@
       <c r="CI33" s="38"/>
       <c r="CJ33" s="38"/>
       <c r="CK33" s="34" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="CL33" s="34"/>
       <c r="CM33" s="34"/>
@@ -16978,7 +17030,7 @@
       <c r="CO33" s="34"/>
       <c r="CP33" s="34"/>
       <c r="CQ33" s="34" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="CR33" s="34"/>
       <c r="CS33" s="34"/>
@@ -16986,7 +17038,7 @@
       <c r="CU33" s="34"/>
       <c r="CV33" s="34"/>
       <c r="CW33" s="39" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="CX33" s="39"/>
       <c r="CY33" s="39"/>
@@ -16994,7 +17046,7 @@
       <c r="DA33" s="39"/>
       <c r="DB33" s="39"/>
       <c r="DC33" s="38" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="DD33" s="38"/>
       <c r="DE33" s="38"/>
@@ -17003,7 +17055,7 @@
       <c r="DH33" s="38"/>
       <c r="DI33" s="9"/>
       <c r="DJ33" s="40" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="DK33" s="40"/>
       <c r="DL33" s="40"/>
@@ -17066,7 +17118,7 @@
       <c r="BB34" s="173"/>
       <c r="BC34" s="173"/>
       <c r="BM34" s="34" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="BN34" s="34"/>
       <c r="BO34" s="34"/>
@@ -17074,7 +17126,7 @@
       <c r="BQ34" s="34"/>
       <c r="BR34" s="34"/>
       <c r="BS34" s="34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="BT34" s="34"/>
       <c r="BU34" s="34"/>
@@ -17082,7 +17134,7 @@
       <c r="BW34" s="34"/>
       <c r="BX34" s="34"/>
       <c r="BY34" s="39" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="BZ34" s="39"/>
       <c r="CA34" s="39"/>
@@ -17090,7 +17142,7 @@
       <c r="CC34" s="39"/>
       <c r="CD34" s="39"/>
       <c r="CE34" s="38" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="CF34" s="38"/>
       <c r="CG34" s="38"/>
@@ -17098,7 +17150,7 @@
       <c r="CI34" s="38"/>
       <c r="CJ34" s="38"/>
       <c r="CK34" s="34" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="CL34" s="34"/>
       <c r="CM34" s="34"/>
@@ -17106,7 +17158,7 @@
       <c r="CO34" s="34"/>
       <c r="CP34" s="34"/>
       <c r="CQ34" s="34" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="CR34" s="34"/>
       <c r="CS34" s="34"/>
@@ -17114,7 +17166,7 @@
       <c r="CU34" s="34"/>
       <c r="CV34" s="34"/>
       <c r="CW34" s="39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="CX34" s="39"/>
       <c r="CY34" s="39"/>
@@ -17122,7 +17174,7 @@
       <c r="DA34" s="39"/>
       <c r="DB34" s="39"/>
       <c r="DC34" s="38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="DD34" s="38"/>
       <c r="DE34" s="38"/>
@@ -17182,7 +17234,7 @@
       <c r="BB35" s="173"/>
       <c r="BC35" s="173"/>
       <c r="BM35" s="34" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="BN35" s="34"/>
       <c r="BO35" s="34"/>
@@ -17190,7 +17242,7 @@
       <c r="BQ35" s="34"/>
       <c r="BR35" s="34"/>
       <c r="BS35" s="34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BT35" s="34"/>
       <c r="BU35" s="34"/>
@@ -17198,7 +17250,7 @@
       <c r="BW35" s="34"/>
       <c r="BX35" s="34"/>
       <c r="BY35" s="39" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="BZ35" s="39"/>
       <c r="CA35" s="39"/>
@@ -17206,7 +17258,7 @@
       <c r="CC35" s="39"/>
       <c r="CD35" s="39"/>
       <c r="CE35" s="38" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="CF35" s="38"/>
       <c r="CG35" s="38"/>
@@ -17214,7 +17266,7 @@
       <c r="CI35" s="38"/>
       <c r="CJ35" s="38"/>
       <c r="CK35" s="34" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="CL35" s="34"/>
       <c r="CM35" s="34"/>
@@ -17222,7 +17274,7 @@
       <c r="CO35" s="34"/>
       <c r="CP35" s="34"/>
       <c r="CQ35" s="34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="CR35" s="34"/>
       <c r="CS35" s="34"/>
@@ -17230,7 +17282,7 @@
       <c r="CU35" s="34"/>
       <c r="CV35" s="34"/>
       <c r="CW35" s="39" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="CX35" s="39"/>
       <c r="CY35" s="39"/>
@@ -17238,7 +17290,7 @@
       <c r="DA35" s="39"/>
       <c r="DB35" s="39"/>
       <c r="DC35" s="38" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="DD35" s="38"/>
       <c r="DE35" s="38"/>
@@ -17298,7 +17350,7 @@
       <c r="BB36" s="173"/>
       <c r="BC36" s="173"/>
       <c r="BM36" s="38" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="BN36" s="38"/>
       <c r="BO36" s="38"/>
@@ -17571,7 +17623,7 @@
       </c>
       <c r="Y41" s="146"/>
       <c r="Z41" s="188" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AA41" s="189"/>
       <c r="AB41" s="189"/>
@@ -17668,7 +17720,7 @@
       <c r="BB42" s="150"/>
       <c r="BC42" s="151"/>
       <c r="BM42" s="70" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="BN42" s="71"/>
       <c r="BO42" s="71"/>
@@ -17679,7 +17731,7 @@
       <c r="BT42" s="72"/>
       <c r="BU42" s="3"/>
       <c r="BV42" s="40" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="BW42" s="40"/>
       <c r="BX42" s="40"/>
@@ -17860,7 +17912,7 @@
       <c r="BB45" s="161"/>
       <c r="BC45" s="162"/>
       <c r="BM45" s="79" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="BN45" s="80"/>
       <c r="BO45" s="80"/>
@@ -17870,10 +17922,10 @@
       <c r="BS45" s="80"/>
       <c r="BT45" s="81"/>
       <c r="BV45" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="CC45" s="82" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="CD45" s="74"/>
       <c r="CE45" s="74"/>
@@ -18062,7 +18114,7 @@
       <c r="BW48" s="40"/>
       <c r="BX48" s="40"/>
       <c r="CC48" s="46" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="CD48" s="86"/>
       <c r="CE48" s="86"/>
@@ -18146,7 +18198,7 @@
     </row>
     <row r="51" spans="65:118" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BM51" s="46" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="BN51" s="47"/>
       <c r="BO51" s="47"/>
@@ -18156,7 +18208,7 @@
       <c r="BS51" s="47"/>
       <c r="BT51" s="48"/>
       <c r="BV51" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="CC51" s="55" t="s">
         <v>14</v>
@@ -18190,7 +18242,7 @@
       <c r="CI52" s="59"/>
       <c r="CJ52" s="60"/>
       <c r="CS52" s="98" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="CT52" s="98"/>
       <c r="CU52" s="98"/>
@@ -18240,7 +18292,7 @@
     </row>
     <row r="54" spans="65:118" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="CC54" s="61" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="CD54" s="62"/>
       <c r="CE54" s="62"/>
@@ -18278,7 +18330,7 @@
       <c r="CI55" s="65"/>
       <c r="CJ55" s="66"/>
       <c r="CV55" s="100" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="CW55" s="101"/>
       <c r="CX55" s="101"/>
@@ -18433,7 +18485,7 @@
       <c r="CO63" s="41"/>
       <c r="CP63" s="41"/>
       <c r="CQ63" s="39" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="CR63" s="39"/>
       <c r="CS63" s="39"/>
@@ -18441,7 +18493,7 @@
       <c r="CU63" s="39"/>
       <c r="CV63" s="35"/>
       <c r="CW63" s="94" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="CX63" s="95"/>
       <c r="CY63" s="95"/>
@@ -18449,7 +18501,7 @@
       <c r="DA63" s="95"/>
       <c r="DB63" s="96"/>
       <c r="DC63" s="97" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="DD63" s="38"/>
       <c r="DE63" s="38"/>
@@ -18537,7 +18589,7 @@
     </row>
     <row r="65" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM65" s="34" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="BN65" s="34"/>
       <c r="BO65" s="34"/>
@@ -18545,7 +18597,7 @@
       <c r="BQ65" s="34"/>
       <c r="BR65" s="34"/>
       <c r="BS65" s="34" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="BT65" s="34"/>
       <c r="BU65" s="34"/>
@@ -18553,7 +18605,7 @@
       <c r="BW65" s="34"/>
       <c r="BX65" s="34"/>
       <c r="BY65" s="35" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="BZ65" s="36"/>
       <c r="CA65" s="36"/>
@@ -18561,7 +18613,7 @@
       <c r="CC65" s="36"/>
       <c r="CD65" s="37"/>
       <c r="CE65" s="38" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="CF65" s="38"/>
       <c r="CG65" s="38"/>
@@ -18569,7 +18621,7 @@
       <c r="CI65" s="38"/>
       <c r="CJ65" s="38"/>
       <c r="CK65" s="34" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="CL65" s="34"/>
       <c r="CM65" s="34"/>
@@ -18577,7 +18629,7 @@
       <c r="CO65" s="34"/>
       <c r="CP65" s="34"/>
       <c r="CQ65" s="34" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="CR65" s="34"/>
       <c r="CS65" s="34"/>
@@ -18585,7 +18637,7 @@
       <c r="CU65" s="34"/>
       <c r="CV65" s="34"/>
       <c r="CW65" s="39" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="CX65" s="39"/>
       <c r="CY65" s="39"/>
@@ -18593,7 +18645,7 @@
       <c r="DA65" s="39"/>
       <c r="DB65" s="39"/>
       <c r="DC65" s="38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="DD65" s="38"/>
       <c r="DE65" s="38"/>
@@ -18602,14 +18654,14 @@
       <c r="DH65" s="38"/>
       <c r="DI65" s="9"/>
       <c r="DJ65" s="40" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="DK65" s="40"/>
       <c r="DL65" s="40"/>
     </row>
     <row r="66" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM66" s="34" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="BN66" s="34"/>
       <c r="BO66" s="34"/>
@@ -18617,7 +18669,7 @@
       <c r="BQ66" s="34"/>
       <c r="BR66" s="34"/>
       <c r="BS66" s="34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="BT66" s="34"/>
       <c r="BU66" s="34"/>
@@ -18625,7 +18677,7 @@
       <c r="BW66" s="34"/>
       <c r="BX66" s="34"/>
       <c r="BY66" s="35" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="BZ66" s="36"/>
       <c r="CA66" s="36"/>
@@ -18633,7 +18685,7 @@
       <c r="CC66" s="36"/>
       <c r="CD66" s="37"/>
       <c r="CE66" s="38" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="CF66" s="38"/>
       <c r="CG66" s="38"/>
@@ -18641,7 +18693,7 @@
       <c r="CI66" s="38"/>
       <c r="CJ66" s="38"/>
       <c r="CK66" s="34" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="CL66" s="34"/>
       <c r="CM66" s="34"/>
@@ -18649,7 +18701,7 @@
       <c r="CO66" s="34"/>
       <c r="CP66" s="34"/>
       <c r="CQ66" s="34" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="CR66" s="34"/>
       <c r="CS66" s="34"/>
@@ -18657,7 +18709,7 @@
       <c r="CU66" s="34"/>
       <c r="CV66" s="34"/>
       <c r="CW66" s="39" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="CX66" s="39"/>
       <c r="CY66" s="39"/>
@@ -18665,7 +18717,7 @@
       <c r="DA66" s="39"/>
       <c r="DB66" s="39"/>
       <c r="DC66" s="38" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="DD66" s="38"/>
       <c r="DE66" s="38"/>
@@ -18674,14 +18726,14 @@
       <c r="DH66" s="38"/>
       <c r="DI66" s="9"/>
       <c r="DJ66" s="40" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="DK66" s="40"/>
       <c r="DL66" s="40"/>
     </row>
     <row r="67" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM67" s="34" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="BN67" s="34"/>
       <c r="BO67" s="34"/>
@@ -18689,7 +18741,7 @@
       <c r="BQ67" s="34"/>
       <c r="BR67" s="34"/>
       <c r="BS67" s="34" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="BT67" s="34"/>
       <c r="BU67" s="34"/>
@@ -18697,7 +18749,7 @@
       <c r="BW67" s="34"/>
       <c r="BX67" s="34"/>
       <c r="BY67" s="35" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="BZ67" s="36"/>
       <c r="CA67" s="36"/>
@@ -18705,7 +18757,7 @@
       <c r="CC67" s="36"/>
       <c r="CD67" s="37"/>
       <c r="CE67" s="38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="CF67" s="38"/>
       <c r="CG67" s="38"/>
@@ -18713,7 +18765,7 @@
       <c r="CI67" s="38"/>
       <c r="CJ67" s="38"/>
       <c r="CK67" s="34" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="CL67" s="34"/>
       <c r="CM67" s="34"/>
@@ -18721,7 +18773,7 @@
       <c r="CO67" s="34"/>
       <c r="CP67" s="34"/>
       <c r="CQ67" s="34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="CR67" s="34"/>
       <c r="CS67" s="34"/>
@@ -18729,7 +18781,7 @@
       <c r="CU67" s="34"/>
       <c r="CV67" s="34"/>
       <c r="CW67" s="39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="CX67" s="39"/>
       <c r="CY67" s="39"/>
@@ -18737,7 +18789,7 @@
       <c r="DA67" s="39"/>
       <c r="DB67" s="39"/>
       <c r="DC67" s="38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="DD67" s="38"/>
       <c r="DE67" s="38"/>
@@ -18746,14 +18798,14 @@
       <c r="DH67" s="38"/>
       <c r="DI67" s="9"/>
       <c r="DJ67" s="40" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="DK67" s="40"/>
       <c r="DL67" s="40"/>
     </row>
     <row r="68" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM68" s="34" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="BN68" s="34"/>
       <c r="BO68" s="34"/>
@@ -18761,7 +18813,7 @@
       <c r="BQ68" s="34"/>
       <c r="BR68" s="34"/>
       <c r="BS68" s="34" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="BT68" s="34"/>
       <c r="BU68" s="34"/>
@@ -18769,7 +18821,7 @@
       <c r="BW68" s="34"/>
       <c r="BX68" s="34"/>
       <c r="BY68" s="35" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="BZ68" s="36"/>
       <c r="CA68" s="36"/>
@@ -18777,7 +18829,7 @@
       <c r="CC68" s="36"/>
       <c r="CD68" s="37"/>
       <c r="CE68" s="38" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="CF68" s="38"/>
       <c r="CG68" s="38"/>
@@ -18785,7 +18837,7 @@
       <c r="CI68" s="38"/>
       <c r="CJ68" s="38"/>
       <c r="CK68" s="34" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="CL68" s="34"/>
       <c r="CM68" s="34"/>
@@ -18793,7 +18845,7 @@
       <c r="CO68" s="34"/>
       <c r="CP68" s="34"/>
       <c r="CQ68" s="34" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="CR68" s="34"/>
       <c r="CS68" s="34"/>
@@ -18801,7 +18853,7 @@
       <c r="CU68" s="34"/>
       <c r="CV68" s="34"/>
       <c r="CW68" s="39" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="CX68" s="39"/>
       <c r="CY68" s="39"/>
@@ -18809,7 +18861,7 @@
       <c r="DA68" s="39"/>
       <c r="DB68" s="39"/>
       <c r="DC68" s="38" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="DD68" s="38"/>
       <c r="DE68" s="38"/>
@@ -18818,14 +18870,14 @@
       <c r="DH68" s="38"/>
       <c r="DI68" s="9"/>
       <c r="DJ68" s="40" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="DK68" s="40"/>
       <c r="DL68" s="40"/>
     </row>
     <row r="69" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM69" s="34" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BN69" s="34"/>
       <c r="BO69" s="34"/>
@@ -18833,7 +18885,7 @@
       <c r="BQ69" s="34"/>
       <c r="BR69" s="34"/>
       <c r="BS69" s="34" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="BT69" s="34"/>
       <c r="BU69" s="34"/>
@@ -18841,7 +18893,7 @@
       <c r="BW69" s="34"/>
       <c r="BX69" s="34"/>
       <c r="BY69" s="35" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="BZ69" s="36"/>
       <c r="CA69" s="36"/>
@@ -18849,7 +18901,7 @@
       <c r="CC69" s="36"/>
       <c r="CD69" s="37"/>
       <c r="CE69" s="38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="CF69" s="38"/>
       <c r="CG69" s="38"/>
@@ -18857,7 +18909,7 @@
       <c r="CI69" s="38"/>
       <c r="CJ69" s="38"/>
       <c r="CK69" s="34" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="CL69" s="34"/>
       <c r="CM69" s="34"/>
@@ -18865,7 +18917,7 @@
       <c r="CO69" s="34"/>
       <c r="CP69" s="34"/>
       <c r="CQ69" s="34" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="CR69" s="34"/>
       <c r="CS69" s="34"/>
@@ -18873,7 +18925,7 @@
       <c r="CU69" s="34"/>
       <c r="CV69" s="34"/>
       <c r="CW69" s="39" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="CX69" s="39"/>
       <c r="CY69" s="39"/>
@@ -18881,7 +18933,7 @@
       <c r="DA69" s="39"/>
       <c r="DB69" s="39"/>
       <c r="DC69" s="38" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="DD69" s="38"/>
       <c r="DE69" s="38"/>
@@ -18890,14 +18942,14 @@
       <c r="DH69" s="38"/>
       <c r="DI69" s="9"/>
       <c r="DJ69" s="40" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="DK69" s="40"/>
       <c r="DL69" s="40"/>
     </row>
     <row r="70" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM70" s="34" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="BN70" s="34"/>
       <c r="BO70" s="34"/>
@@ -18905,7 +18957,7 @@
       <c r="BQ70" s="34"/>
       <c r="BR70" s="34"/>
       <c r="BS70" s="34" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="BT70" s="34"/>
       <c r="BU70" s="34"/>
@@ -18913,7 +18965,7 @@
       <c r="BW70" s="34"/>
       <c r="BX70" s="34"/>
       <c r="BY70" s="35" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BZ70" s="36"/>
       <c r="CA70" s="36"/>
@@ -18921,7 +18973,7 @@
       <c r="CC70" s="36"/>
       <c r="CD70" s="37"/>
       <c r="CE70" s="38" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="CF70" s="38"/>
       <c r="CG70" s="38"/>
@@ -18929,7 +18981,7 @@
       <c r="CI70" s="38"/>
       <c r="CJ70" s="38"/>
       <c r="CK70" s="34" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="CL70" s="34"/>
       <c r="CM70" s="34"/>
@@ -18937,7 +18989,7 @@
       <c r="CO70" s="34"/>
       <c r="CP70" s="34"/>
       <c r="CQ70" s="34" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="CR70" s="34"/>
       <c r="CS70" s="34"/>
@@ -18945,7 +18997,7 @@
       <c r="CU70" s="34"/>
       <c r="CV70" s="34"/>
       <c r="CW70" s="39" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="CX70" s="39"/>
       <c r="CY70" s="39"/>
@@ -18953,7 +19005,7 @@
       <c r="DA70" s="39"/>
       <c r="DB70" s="39"/>
       <c r="DC70" s="38" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="DD70" s="38"/>
       <c r="DE70" s="38"/>
@@ -18962,14 +19014,14 @@
       <c r="DH70" s="38"/>
       <c r="DI70" s="9"/>
       <c r="DJ70" s="40" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="DK70" s="40"/>
       <c r="DL70" s="40"/>
     </row>
     <row r="71" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM71" s="34" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="BN71" s="34"/>
       <c r="BO71" s="34"/>
@@ -18977,7 +19029,7 @@
       <c r="BQ71" s="34"/>
       <c r="BR71" s="34"/>
       <c r="BS71" s="34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="BT71" s="34"/>
       <c r="BU71" s="34"/>
@@ -18985,7 +19037,7 @@
       <c r="BW71" s="34"/>
       <c r="BX71" s="34"/>
       <c r="BY71" s="35" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="BZ71" s="36"/>
       <c r="CA71" s="36"/>
@@ -18993,7 +19045,7 @@
       <c r="CC71" s="36"/>
       <c r="CD71" s="37"/>
       <c r="CE71" s="38" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="CF71" s="38"/>
       <c r="CG71" s="38"/>
@@ -19001,7 +19053,7 @@
       <c r="CI71" s="38"/>
       <c r="CJ71" s="38"/>
       <c r="CK71" s="34" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="CL71" s="34"/>
       <c r="CM71" s="34"/>
@@ -19009,7 +19061,7 @@
       <c r="CO71" s="34"/>
       <c r="CP71" s="34"/>
       <c r="CQ71" s="34" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="CR71" s="34"/>
       <c r="CS71" s="34"/>
@@ -19017,7 +19069,7 @@
       <c r="CU71" s="34"/>
       <c r="CV71" s="34"/>
       <c r="CW71" s="39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="CX71" s="39"/>
       <c r="CY71" s="39"/>
@@ -19025,7 +19077,7 @@
       <c r="DA71" s="39"/>
       <c r="DB71" s="39"/>
       <c r="DC71" s="38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="DD71" s="38"/>
       <c r="DE71" s="38"/>
@@ -19034,14 +19086,14 @@
       <c r="DH71" s="38"/>
       <c r="DI71" s="9"/>
       <c r="DJ71" s="40" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="DK71" s="40"/>
       <c r="DL71" s="40"/>
     </row>
     <row r="72" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM72" s="34" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="BN72" s="34"/>
       <c r="BO72" s="34"/>
@@ -19049,7 +19101,7 @@
       <c r="BQ72" s="34"/>
       <c r="BR72" s="34"/>
       <c r="BS72" s="34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BT72" s="34"/>
       <c r="BU72" s="34"/>
@@ -19057,7 +19109,7 @@
       <c r="BW72" s="34"/>
       <c r="BX72" s="34"/>
       <c r="BY72" s="35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="BZ72" s="36"/>
       <c r="CA72" s="36"/>
@@ -19065,7 +19117,7 @@
       <c r="CC72" s="36"/>
       <c r="CD72" s="37"/>
       <c r="CE72" s="38" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="CF72" s="38"/>
       <c r="CG72" s="38"/>
@@ -19073,7 +19125,7 @@
       <c r="CI72" s="38"/>
       <c r="CJ72" s="38"/>
       <c r="CK72" s="34" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="CL72" s="34"/>
       <c r="CM72" s="34"/>
@@ -19081,7 +19133,7 @@
       <c r="CO72" s="34"/>
       <c r="CP72" s="34"/>
       <c r="CQ72" s="34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="CR72" s="34"/>
       <c r="CS72" s="34"/>
@@ -19089,7 +19141,7 @@
       <c r="CU72" s="34"/>
       <c r="CV72" s="34"/>
       <c r="CW72" s="39" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="CX72" s="39"/>
       <c r="CY72" s="39"/>
@@ -19097,7 +19149,7 @@
       <c r="DA72" s="39"/>
       <c r="DB72" s="39"/>
       <c r="DC72" s="38" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="DD72" s="38"/>
       <c r="DE72" s="38"/>
@@ -19106,14 +19158,14 @@
       <c r="DH72" s="38"/>
       <c r="DI72" s="9"/>
       <c r="DJ72" s="40" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="DK72" s="40"/>
       <c r="DL72" s="40"/>
     </row>
     <row r="73" spans="65:116" x14ac:dyDescent="0.4">
       <c r="BM73" s="26" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="BN73" s="27"/>
       <c r="BO73" s="27"/>
@@ -19555,7 +19607,7 @@
     </row>
     <row r="3" spans="7:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G3" s="114" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
@@ -19566,7 +19618,7 @@
       <c r="N3" s="114"/>
       <c r="O3" s="114"/>
       <c r="Q3" s="40" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
@@ -19596,7 +19648,7 @@
     </row>
     <row r="6" spans="7:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G6" s="114" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
@@ -19607,7 +19659,7 @@
       <c r="N6" s="114"/>
       <c r="O6" s="114"/>
       <c r="Q6" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
@@ -19675,7 +19727,7 @@
       <c r="N10" s="115"/>
       <c r="O10" s="115"/>
       <c r="AH10" s="98" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AI10" s="98"/>
       <c r="AJ10" s="98"/>
@@ -19714,7 +19766,7 @@
     </row>
     <row r="12" spans="7:49" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G12" s="206" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H12" s="207"/>
       <c r="I12" s="207"/>
@@ -19725,7 +19777,7 @@
       <c r="N12" s="207"/>
       <c r="O12" s="208"/>
       <c r="Q12" s="40" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
@@ -19754,7 +19806,7 @@
       <c r="N13" s="114"/>
       <c r="O13" s="210"/>
       <c r="AL13" s="203" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AM13" s="204"/>
       <c r="AN13" s="204"/>
@@ -19858,7 +19910,7 @@
     </row>
     <row r="20" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C20" s="34" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -19866,7 +19918,7 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
@@ -19874,7 +19926,7 @@
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
       <c r="O20" s="34" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -19882,7 +19934,7 @@
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
@@ -19906,7 +19958,7 @@
       <c r="AK20" s="34"/>
       <c r="AL20" s="194"/>
       <c r="AM20" s="195" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN20" s="196"/>
       <c r="AO20" s="196"/>
@@ -19914,7 +19966,7 @@
       <c r="AQ20" s="196"/>
       <c r="AR20" s="197"/>
       <c r="AS20" s="198" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AT20" s="199"/>
       <c r="AU20" s="199"/>
@@ -19930,7 +19982,7 @@
     </row>
     <row r="21" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C21" s="201" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D21" s="201"/>
       <c r="E21" s="201"/>
@@ -19988,7 +20040,7 @@
     </row>
     <row r="22" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C22" s="38" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -19996,7 +20048,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -20004,7 +20056,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -20012,7 +20064,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="V22" s="38"/>
       <c r="W22" s="38"/>
@@ -20020,7 +20072,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="38" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
@@ -20028,7 +20080,7 @@
       <c r="AE22" s="38"/>
       <c r="AF22" s="38"/>
       <c r="AG22" s="38" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
@@ -20036,7 +20088,7 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="38" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="38"/>
@@ -20044,7 +20096,7 @@
       <c r="AQ22" s="38"/>
       <c r="AR22" s="38"/>
       <c r="AS22" s="38" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="38"/>
@@ -20053,7 +20105,7 @@
       <c r="AX22" s="38"/>
       <c r="AY22" s="9"/>
       <c r="AZ22" s="40" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="BA22" s="40"/>
       <c r="BB22" s="40"/>
@@ -20118,7 +20170,7 @@
     </row>
     <row r="24" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C24" s="38" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -20126,7 +20178,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -20134,7 +20186,7 @@
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -20142,7 +20194,7 @@
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
@@ -20150,7 +20202,7 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
@@ -20158,7 +20210,7 @@
       <c r="AE24" s="38"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="38" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
@@ -20166,7 +20218,7 @@
       <c r="AK24" s="38"/>
       <c r="AL24" s="38"/>
       <c r="AM24" s="38" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AN24" s="38"/>
       <c r="AO24" s="38"/>
@@ -20174,7 +20226,7 @@
       <c r="AQ24" s="38"/>
       <c r="AR24" s="38"/>
       <c r="AS24" s="38" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AT24" s="38"/>
       <c r="AU24" s="38"/>
@@ -20183,14 +20235,14 @@
       <c r="AX24" s="38"/>
       <c r="AY24" s="9"/>
       <c r="AZ24" s="214" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="BA24" s="214"/>
       <c r="BB24" s="214"/>
     </row>
     <row r="25" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C25" s="38" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -20198,7 +20250,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -20206,7 +20258,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
@@ -20214,7 +20266,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="38" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
@@ -20222,7 +20274,7 @@
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AB25" s="38"/>
       <c r="AC25" s="38"/>
@@ -20230,7 +20282,7 @@
       <c r="AE25" s="38"/>
       <c r="AF25" s="38"/>
       <c r="AG25" s="38" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
@@ -20238,7 +20290,7 @@
       <c r="AK25" s="38"/>
       <c r="AL25" s="38"/>
       <c r="AM25" s="38" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AN25" s="38"/>
       <c r="AO25" s="38"/>
@@ -20246,7 +20298,7 @@
       <c r="AQ25" s="38"/>
       <c r="AR25" s="38"/>
       <c r="AS25" s="38" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
@@ -20255,7 +20307,7 @@
       <c r="AX25" s="38"/>
       <c r="AY25" s="9"/>
       <c r="AZ25" s="214" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="BA25" s="214"/>
       <c r="BB25" s="214"/>
@@ -20320,7 +20372,7 @@
     </row>
     <row r="27" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C27" s="38" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -20328,7 +20380,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -20336,7 +20388,7 @@
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
       <c r="O27" s="38" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
@@ -20344,7 +20396,7 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
@@ -20352,7 +20404,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
       <c r="AA27" s="38" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AB27" s="38"/>
       <c r="AC27" s="38"/>
@@ -20360,7 +20412,7 @@
       <c r="AE27" s="38"/>
       <c r="AF27" s="38"/>
       <c r="AG27" s="38" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
@@ -20368,7 +20420,7 @@
       <c r="AK27" s="38"/>
       <c r="AL27" s="38"/>
       <c r="AM27" s="38" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AN27" s="38"/>
       <c r="AO27" s="38"/>
@@ -20376,7 +20428,7 @@
       <c r="AQ27" s="38"/>
       <c r="AR27" s="38"/>
       <c r="AS27" s="38" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AT27" s="38"/>
       <c r="AU27" s="38"/>
@@ -20385,14 +20437,14 @@
       <c r="AX27" s="38"/>
       <c r="AY27" s="9"/>
       <c r="AZ27" s="214" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="BA27" s="214"/>
       <c r="BB27" s="214"/>
     </row>
     <row r="28" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C28" s="38" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -20400,7 +20452,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -20408,7 +20460,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
       <c r="O28" s="38" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
@@ -20416,7 +20468,7 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="38" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
@@ -20424,7 +20476,7 @@
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
       <c r="AA28" s="38" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB28" s="38"/>
       <c r="AC28" s="38"/>
@@ -20432,7 +20484,7 @@
       <c r="AE28" s="38"/>
       <c r="AF28" s="38"/>
       <c r="AG28" s="38" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
@@ -20440,7 +20492,7 @@
       <c r="AK28" s="38"/>
       <c r="AL28" s="38"/>
       <c r="AM28" s="38" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AN28" s="38"/>
       <c r="AO28" s="38"/>
@@ -20448,7 +20500,7 @@
       <c r="AQ28" s="38"/>
       <c r="AR28" s="38"/>
       <c r="AS28" s="38" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AT28" s="38"/>
       <c r="AU28" s="38"/>
@@ -20457,14 +20509,14 @@
       <c r="AX28" s="38"/>
       <c r="AY28" s="9"/>
       <c r="AZ28" s="214" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="BA28" s="214"/>
       <c r="BB28" s="214"/>
     </row>
     <row r="29" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C29" s="38" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -20472,7 +20524,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -20480,7 +20532,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
@@ -20488,7 +20540,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="38" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
@@ -20496,7 +20548,7 @@
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
       <c r="AA29" s="38" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AB29" s="38"/>
       <c r="AC29" s="38"/>
@@ -20504,7 +20556,7 @@
       <c r="AE29" s="38"/>
       <c r="AF29" s="38"/>
       <c r="AG29" s="38" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
@@ -20512,7 +20564,7 @@
       <c r="AK29" s="38"/>
       <c r="AL29" s="38"/>
       <c r="AM29" s="38" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN29" s="38"/>
       <c r="AO29" s="38"/>
@@ -20520,7 +20572,7 @@
       <c r="AQ29" s="38"/>
       <c r="AR29" s="38"/>
       <c r="AS29" s="38" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AT29" s="38"/>
       <c r="AU29" s="38"/>
@@ -20529,14 +20581,14 @@
       <c r="AX29" s="38"/>
       <c r="AY29" s="9"/>
       <c r="AZ29" s="214" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="BA29" s="214"/>
       <c r="BB29" s="214"/>
     </row>
     <row r="30" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C30" s="38" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -20544,7 +20596,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -20552,7 +20604,7 @@
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
@@ -20560,7 +20612,7 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="38" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
@@ -20568,7 +20620,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="38" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AB30" s="38"/>
       <c r="AC30" s="38"/>
@@ -20576,7 +20628,7 @@
       <c r="AE30" s="38"/>
       <c r="AF30" s="38"/>
       <c r="AG30" s="38" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
@@ -20584,7 +20636,7 @@
       <c r="AK30" s="38"/>
       <c r="AL30" s="38"/>
       <c r="AM30" s="38" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AN30" s="38"/>
       <c r="AO30" s="38"/>
@@ -20592,7 +20644,7 @@
       <c r="AQ30" s="38"/>
       <c r="AR30" s="38"/>
       <c r="AS30" s="38" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AT30" s="38"/>
       <c r="AU30" s="38"/>
@@ -20601,14 +20653,14 @@
       <c r="AX30" s="38"/>
       <c r="AY30" s="9"/>
       <c r="AZ30" s="214" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="BA30" s="214"/>
       <c r="BB30" s="214"/>
     </row>
     <row r="31" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C31" s="38" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -20616,7 +20668,7 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -20624,7 +20676,7 @@
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
@@ -20632,7 +20684,7 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="38" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
@@ -20640,7 +20692,7 @@
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
       <c r="AA31" s="38" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
@@ -20648,7 +20700,7 @@
       <c r="AE31" s="38"/>
       <c r="AF31" s="38"/>
       <c r="AG31" s="38" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
@@ -20656,7 +20708,7 @@
       <c r="AK31" s="38"/>
       <c r="AL31" s="38"/>
       <c r="AM31" s="38" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AN31" s="38"/>
       <c r="AO31" s="38"/>
@@ -20664,7 +20716,7 @@
       <c r="AQ31" s="38"/>
       <c r="AR31" s="38"/>
       <c r="AS31" s="38" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AT31" s="38"/>
       <c r="AU31" s="38"/>
@@ -20673,14 +20725,14 @@
       <c r="AX31" s="38"/>
       <c r="AY31" s="9"/>
       <c r="AZ31" s="214" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="BA31" s="214"/>
       <c r="BB31" s="214"/>
     </row>
     <row r="32" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C32" s="201" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D32" s="201"/>
       <c r="E32" s="201"/>
@@ -20738,7 +20790,7 @@
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C33" s="38" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -20746,7 +20798,7 @@
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
@@ -20754,7 +20806,7 @@
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
@@ -20762,7 +20814,7 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="38" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V33" s="38"/>
       <c r="W33" s="38"/>
@@ -20770,7 +20822,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
       <c r="AA33" s="38" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AB33" s="38"/>
       <c r="AC33" s="38"/>
@@ -20778,7 +20830,7 @@
       <c r="AE33" s="38"/>
       <c r="AF33" s="38"/>
       <c r="AG33" s="38" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
@@ -20786,7 +20838,7 @@
       <c r="AK33" s="38"/>
       <c r="AL33" s="38"/>
       <c r="AM33" s="38" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AN33" s="38"/>
       <c r="AO33" s="38"/>
@@ -20794,7 +20846,7 @@
       <c r="AQ33" s="38"/>
       <c r="AR33" s="38"/>
       <c r="AS33" s="38" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AT33" s="38"/>
       <c r="AU33" s="38"/>
@@ -20803,14 +20855,14 @@
       <c r="AX33" s="38"/>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="214" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="BA33" s="214"/>
       <c r="BB33" s="214"/>
     </row>
     <row r="34" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C34" s="38" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -20818,7 +20870,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -20826,7 +20878,7 @@
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -20834,7 +20886,7 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="38" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
@@ -20842,7 +20894,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
       <c r="AA34" s="38" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AB34" s="38"/>
       <c r="AC34" s="38"/>
@@ -20850,7 +20902,7 @@
       <c r="AE34" s="38"/>
       <c r="AF34" s="38"/>
       <c r="AG34" s="38" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AH34" s="38"/>
       <c r="AI34" s="38"/>
@@ -20858,7 +20910,7 @@
       <c r="AK34" s="38"/>
       <c r="AL34" s="38"/>
       <c r="AM34" s="38" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AN34" s="38"/>
       <c r="AO34" s="38"/>
@@ -20866,7 +20918,7 @@
       <c r="AQ34" s="38"/>
       <c r="AR34" s="38"/>
       <c r="AS34" s="38" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AT34" s="38"/>
       <c r="AU34" s="38"/>
@@ -20875,14 +20927,14 @@
       <c r="AX34" s="38"/>
       <c r="AY34" s="9"/>
       <c r="AZ34" s="214" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="BA34" s="214"/>
       <c r="BB34" s="214"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C35" s="201" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D35" s="201"/>
       <c r="E35" s="201"/>
@@ -20935,7 +20987,7 @@
     </row>
     <row r="36" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C36" s="38" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -20943,7 +20995,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
@@ -20951,7 +21003,7 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="38" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
@@ -20959,7 +21011,7 @@
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
       <c r="U36" s="38" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
@@ -20967,7 +21019,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
       <c r="AA36" s="38" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AB36" s="38"/>
       <c r="AC36" s="38"/>
@@ -20975,7 +21027,7 @@
       <c r="AE36" s="38"/>
       <c r="AF36" s="38"/>
       <c r="AG36" s="38" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AH36" s="38"/>
       <c r="AI36" s="38"/>
@@ -20983,7 +21035,7 @@
       <c r="AK36" s="38"/>
       <c r="AL36" s="38"/>
       <c r="AM36" s="38" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AN36" s="38"/>
       <c r="AO36" s="38"/>
@@ -20991,7 +21043,7 @@
       <c r="AQ36" s="38"/>
       <c r="AR36" s="38"/>
       <c r="AS36" s="38" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AT36" s="38"/>
       <c r="AU36" s="38"/>
@@ -21000,7 +21052,7 @@
       <c r="AX36" s="38"/>
       <c r="AY36" s="9"/>
       <c r="AZ36" s="214" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="BA36" s="214"/>
       <c r="BB36" s="214"/>
@@ -21065,7 +21117,7 @@
     </row>
     <row r="38" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C38" s="38" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -21073,7 +21125,7 @@
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -21081,7 +21133,7 @@
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
       <c r="O38" s="38" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
@@ -21089,7 +21141,7 @@
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
       <c r="U38" s="38" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
@@ -21097,7 +21149,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
       <c r="AA38" s="38" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AB38" s="38"/>
       <c r="AC38" s="38"/>
@@ -21105,7 +21157,7 @@
       <c r="AE38" s="38"/>
       <c r="AF38" s="38"/>
       <c r="AG38" s="38" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AH38" s="38"/>
       <c r="AI38" s="38"/>
@@ -21113,7 +21165,7 @@
       <c r="AK38" s="38"/>
       <c r="AL38" s="38"/>
       <c r="AM38" s="38" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN38" s="38"/>
       <c r="AO38" s="38"/>
@@ -21121,7 +21173,7 @@
       <c r="AQ38" s="38"/>
       <c r="AR38" s="38"/>
       <c r="AS38" s="38" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AT38" s="38"/>
       <c r="AU38" s="38"/>
@@ -21130,14 +21182,14 @@
       <c r="AX38" s="38"/>
       <c r="AY38" s="9"/>
       <c r="AZ38" s="214" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="BA38" s="214"/>
       <c r="BB38" s="214"/>
     </row>
     <row r="39" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C39" s="38" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -21145,7 +21197,7 @@
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
@@ -21153,7 +21205,7 @@
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
@@ -21161,7 +21213,7 @@
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
@@ -21169,7 +21221,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
       <c r="AA39" s="38" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AB39" s="38"/>
       <c r="AC39" s="38"/>
@@ -21177,7 +21229,7 @@
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
       <c r="AG39" s="38" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AH39" s="38"/>
       <c r="AI39" s="38"/>
@@ -21185,7 +21237,7 @@
       <c r="AK39" s="38"/>
       <c r="AL39" s="38"/>
       <c r="AM39" s="38" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AN39" s="38"/>
       <c r="AO39" s="38"/>
@@ -21193,7 +21245,7 @@
       <c r="AQ39" s="38"/>
       <c r="AR39" s="38"/>
       <c r="AS39" s="38" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AT39" s="38"/>
       <c r="AU39" s="38"/>
@@ -21202,7 +21254,7 @@
       <c r="AX39" s="38"/>
       <c r="AY39" s="9"/>
       <c r="AZ39" s="214" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="BA39" s="214"/>
       <c r="BB39" s="214"/>
@@ -21267,7 +21319,7 @@
     </row>
     <row r="41" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C41" s="38" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -21275,7 +21327,7 @@
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
@@ -21283,7 +21335,7 @@
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
@@ -21291,7 +21343,7 @@
       <c r="S41" s="38"/>
       <c r="T41" s="38"/>
       <c r="U41" s="38" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="V41" s="38"/>
       <c r="W41" s="38"/>
@@ -21299,7 +21351,7 @@
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
       <c r="AA41" s="38" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AB41" s="38"/>
       <c r="AC41" s="38"/>
@@ -21307,7 +21359,7 @@
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
       <c r="AG41" s="38" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AH41" s="38"/>
       <c r="AI41" s="38"/>
@@ -21315,7 +21367,7 @@
       <c r="AK41" s="38"/>
       <c r="AL41" s="38"/>
       <c r="AM41" s="38" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AN41" s="38"/>
       <c r="AO41" s="38"/>
@@ -21323,7 +21375,7 @@
       <c r="AQ41" s="38"/>
       <c r="AR41" s="38"/>
       <c r="AS41" s="38" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AT41" s="38"/>
       <c r="AU41" s="38"/>
@@ -21332,7 +21384,7 @@
       <c r="AX41" s="38"/>
       <c r="AY41" s="9"/>
       <c r="AZ41" s="214" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="BA41" s="214"/>
       <c r="BB41" s="214"/>
@@ -21355,7 +21407,7 @@
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
       <c r="O42" s="38" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
@@ -21363,7 +21415,7 @@
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
       <c r="U42" s="38" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
@@ -21371,7 +21423,7 @@
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="38" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB42" s="38"/>
       <c r="AC42" s="38"/>
@@ -21379,7 +21431,7 @@
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
       <c r="AG42" s="38" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="AH42" s="38"/>
       <c r="AI42" s="38"/>
@@ -21387,7 +21439,7 @@
       <c r="AK42" s="38"/>
       <c r="AL42" s="38"/>
       <c r="AM42" s="38" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="AN42" s="38"/>
       <c r="AO42" s="38"/>
@@ -21395,7 +21447,7 @@
       <c r="AQ42" s="38"/>
       <c r="AR42" s="38"/>
       <c r="AS42" s="38" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="AT42" s="38"/>
       <c r="AU42" s="38"/>
@@ -21404,14 +21456,14 @@
       <c r="AX42" s="38"/>
       <c r="AY42" s="9"/>
       <c r="AZ42" s="214" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="BA42" s="214"/>
       <c r="BB42" s="214"/>
     </row>
     <row r="43" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C43" s="201" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D43" s="201"/>
       <c r="E43" s="201"/>
@@ -21735,7 +21787,7 @@
       <c r="AN3" s="231"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="228" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="AS3" s="231"/>
       <c r="AT3" s="231"/>
@@ -21944,7 +21996,7 @@
       <c r="IT3" s="227"/>
       <c r="IU3" s="227"/>
       <c r="IY3" s="226" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="IZ3" s="227"/>
       <c r="JA3" s="227"/>
@@ -22096,25 +22148,25 @@
       <c r="CV4" s="201"/>
       <c r="CW4" s="201"/>
       <c r="CX4" s="217" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="CY4" s="217"/>
       <c r="CZ4" s="217"/>
       <c r="DA4" s="217"/>
       <c r="DB4" s="217" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="DC4" s="217"/>
       <c r="DD4" s="217"/>
       <c r="DE4" s="217"/>
       <c r="DF4" s="217" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="DG4" s="217"/>
       <c r="DH4" s="217"/>
       <c r="DI4" s="217"/>
       <c r="DJ4" s="217" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="DK4" s="217"/>
       <c r="DL4" s="217"/>
@@ -22165,25 +22217,25 @@
       <c r="ET4" s="201"/>
       <c r="EU4" s="201"/>
       <c r="EV4" s="230" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="EW4" s="230"/>
       <c r="EX4" s="230"/>
       <c r="EY4" s="230"/>
       <c r="EZ4" s="230" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="FA4" s="230"/>
       <c r="FB4" s="230"/>
       <c r="FC4" s="230"/>
       <c r="FD4" s="230" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="FE4" s="230"/>
       <c r="FF4" s="230"/>
       <c r="FG4" s="230"/>
       <c r="FH4" s="230" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="FI4" s="230"/>
       <c r="FJ4" s="230"/>
@@ -22971,7 +23023,7 @@
       <c r="AC3" s="256"/>
       <c r="AD3" s="256"/>
       <c r="AG3" s="256" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="AH3" s="256"/>
       <c r="AI3" s="256"/>
@@ -23269,7 +23321,7 @@
       <c r="DY4" s="115"/>
       <c r="DZ4" s="115"/>
       <c r="EC4" s="255" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="ED4" s="255"/>
       <c r="EE4" s="255"/>
@@ -23633,8 +23685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4A6BD7-D5DE-4DEB-9699-4B92272781E1}">
   <dimension ref="D4:ID27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="ES1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="HE32" sqref="HE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23642,33 +23694,34 @@
     <col min="1" max="90" width="3.625" customWidth="1"/>
     <col min="91" max="91" width="4.25" customWidth="1"/>
     <col min="92" max="174" width="3.625" customWidth="1"/>
-    <col min="175" max="238" width="2.625" customWidth="1"/>
+    <col min="175" max="178" width="3.375" customWidth="1"/>
+    <col min="179" max="238" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
-      <c r="G4" s="280" t="str">
+      <c r="G4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="244"/>
-      <c r="K4" s="280" t="str">
+      <c r="K4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="244"/>
-      <c r="O4" s="280" t="str">
+      <c r="O4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="244"/>
-      <c r="S4" s="280" t="str">
+      <c r="S4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
@@ -23679,28 +23732,28 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="280" t="str">
+      <c r="AD4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="244"/>
-      <c r="AH4" s="280" t="str">
+      <c r="AH4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="AI4" s="29"/>
       <c r="AJ4" s="29"/>
       <c r="AK4" s="244"/>
-      <c r="AL4" s="280" t="str">
+      <c r="AL4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="AM4" s="29"/>
       <c r="AN4" s="29"/>
       <c r="AO4" s="244"/>
-      <c r="AP4" s="280" t="str">
+      <c r="AP4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
@@ -23711,28 +23764,28 @@
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="280" t="str">
+      <c r="AZ4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="BA4" s="29"/>
       <c r="BB4" s="29"/>
       <c r="BC4" s="244"/>
-      <c r="BD4" s="280" t="str">
+      <c r="BD4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="BE4" s="29"/>
       <c r="BF4" s="29"/>
       <c r="BG4" s="244"/>
-      <c r="BH4" s="280" t="str">
+      <c r="BH4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="BI4" s="29"/>
       <c r="BJ4" s="29"/>
       <c r="BK4" s="244"/>
-      <c r="BL4" s="280" t="str">
+      <c r="BL4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
@@ -23740,28 +23793,28 @@
       <c r="BN4" s="29"/>
       <c r="BO4" s="244"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="280" t="str">
+      <c r="BU4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="BV4" s="29"/>
       <c r="BW4" s="29"/>
       <c r="BX4" s="244"/>
-      <c r="BY4" s="280" t="str">
+      <c r="BY4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="BZ4" s="29"/>
       <c r="CA4" s="29"/>
       <c r="CB4" s="244"/>
-      <c r="CC4" s="280" t="str">
+      <c r="CC4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="CD4" s="29"/>
       <c r="CE4" s="29"/>
       <c r="CF4" s="244"/>
-      <c r="CG4" s="280" t="str">
+      <c r="CG4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
@@ -23772,56 +23825,56 @@
       <c r="CN4" s="13"/>
       <c r="CO4" s="13"/>
       <c r="CP4" s="2"/>
-      <c r="CQ4" s="280" t="str">
+      <c r="CQ4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="CR4" s="29"/>
       <c r="CS4" s="29"/>
       <c r="CT4" s="244"/>
-      <c r="CU4" s="280" t="str">
+      <c r="CU4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="CV4" s="29"/>
       <c r="CW4" s="29"/>
       <c r="CX4" s="244"/>
-      <c r="CY4" s="280" t="str">
+      <c r="CY4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="CZ4" s="29"/>
       <c r="DA4" s="29"/>
       <c r="DB4" s="244"/>
-      <c r="DC4" s="280" t="str">
+      <c r="DC4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
       <c r="DD4" s="29"/>
       <c r="DE4" s="29"/>
       <c r="DF4" s="244"/>
-      <c r="DG4" s="280" t="str">
+      <c r="DG4" s="282" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
       <c r="DH4" s="29"/>
       <c r="DI4" s="29"/>
       <c r="DJ4" s="244"/>
-      <c r="DK4" s="280" t="str">
+      <c r="DK4" s="282" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
       <c r="DL4" s="29"/>
       <c r="DM4" s="29"/>
       <c r="DN4" s="244"/>
-      <c r="DO4" s="280" t="str">
+      <c r="DO4" s="282" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
       <c r="DP4" s="29"/>
       <c r="DQ4" s="29"/>
       <c r="DR4" s="244"/>
-      <c r="DS4" s="280" t="str">
+      <c r="DS4" s="282" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
@@ -23832,56 +23885,56 @@
       <c r="EA4" s="13"/>
       <c r="EB4" s="13"/>
       <c r="EC4" s="2"/>
-      <c r="ED4" s="280" t="str">
+      <c r="ED4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="EE4" s="29"/>
       <c r="EF4" s="29"/>
       <c r="EG4" s="244"/>
-      <c r="EH4" s="280" t="str">
+      <c r="EH4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="EI4" s="29"/>
       <c r="EJ4" s="29"/>
       <c r="EK4" s="244"/>
-      <c r="EL4" s="280" t="str">
+      <c r="EL4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="EM4" s="29"/>
       <c r="EN4" s="29"/>
       <c r="EO4" s="244"/>
-      <c r="EP4" s="280" t="str">
+      <c r="EP4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
       <c r="EQ4" s="29"/>
       <c r="ER4" s="29"/>
       <c r="ES4" s="244"/>
-      <c r="ET4" s="280" t="str">
+      <c r="ET4" s="282" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
       <c r="EU4" s="29"/>
       <c r="EV4" s="29"/>
       <c r="EW4" s="244"/>
-      <c r="EX4" s="280" t="str">
+      <c r="EX4" s="282" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
       <c r="EY4" s="29"/>
       <c r="EZ4" s="29"/>
       <c r="FA4" s="244"/>
-      <c r="FB4" s="280" t="str">
+      <c r="FB4" s="282" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
       <c r="FC4" s="29"/>
       <c r="FD4" s="29"/>
       <c r="FE4" s="244"/>
-      <c r="FF4" s="280" t="str">
+      <c r="FF4" s="282" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
@@ -23889,112 +23942,112 @@
       <c r="FH4" s="29"/>
       <c r="FI4" s="244"/>
       <c r="FR4" s="2"/>
-      <c r="FS4" s="280" t="str">
+      <c r="FS4" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="FT4" s="29"/>
       <c r="FU4" s="29"/>
       <c r="FV4" s="244"/>
-      <c r="FW4" s="280" t="str">
+      <c r="FW4" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="FX4" s="29"/>
       <c r="FY4" s="29"/>
       <c r="FZ4" s="244"/>
-      <c r="GA4" s="280" t="str">
+      <c r="GA4" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="GB4" s="29"/>
       <c r="GC4" s="29"/>
       <c r="GD4" s="244"/>
-      <c r="GE4" s="280" t="str">
+      <c r="GE4" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
       <c r="GF4" s="29"/>
       <c r="GG4" s="29"/>
       <c r="GH4" s="244"/>
-      <c r="GI4" s="280" t="str">
+      <c r="GI4" s="282" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
       <c r="GJ4" s="29"/>
       <c r="GK4" s="29"/>
       <c r="GL4" s="244"/>
-      <c r="GM4" s="280" t="str">
+      <c r="GM4" s="282" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
       <c r="GN4" s="29"/>
       <c r="GO4" s="29"/>
       <c r="GP4" s="244"/>
-      <c r="GQ4" s="280" t="str">
+      <c r="GQ4" s="282" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
       <c r="GR4" s="29"/>
       <c r="GS4" s="29"/>
       <c r="GT4" s="244"/>
-      <c r="GU4" s="280" t="str">
+      <c r="GU4" s="282" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
       <c r="GV4" s="29"/>
       <c r="GW4" s="29"/>
       <c r="GX4" s="244"/>
-      <c r="GY4" s="280" t="str">
+      <c r="GY4" s="282" t="str">
         <f>"+8"</f>
         <v>+8</v>
       </c>
       <c r="GZ4" s="29"/>
       <c r="HA4" s="29"/>
       <c r="HB4" s="244"/>
-      <c r="HC4" s="280" t="str">
+      <c r="HC4" s="282" t="str">
         <f>"+9"</f>
         <v>+9</v>
       </c>
       <c r="HD4" s="29"/>
       <c r="HE4" s="29"/>
       <c r="HF4" s="244"/>
-      <c r="HG4" s="280" t="str">
+      <c r="HG4" s="282" t="str">
         <f>"+10"</f>
         <v>+10</v>
       </c>
       <c r="HH4" s="29"/>
       <c r="HI4" s="29"/>
       <c r="HJ4" s="244"/>
-      <c r="HK4" s="280" t="str">
+      <c r="HK4" s="282" t="str">
         <f>"+11"</f>
         <v>+11</v>
       </c>
       <c r="HL4" s="29"/>
       <c r="HM4" s="29"/>
       <c r="HN4" s="244"/>
-      <c r="HO4" s="280" t="str">
+      <c r="HO4" s="282" t="str">
         <f>"+12"</f>
         <v>+12</v>
       </c>
       <c r="HP4" s="29"/>
       <c r="HQ4" s="29"/>
       <c r="HR4" s="244"/>
-      <c r="HS4" s="280" t="str">
+      <c r="HS4" s="282" t="str">
         <f>"+13"</f>
         <v>+13</v>
       </c>
       <c r="HT4" s="29"/>
       <c r="HU4" s="29"/>
       <c r="HV4" s="244"/>
-      <c r="HW4" s="280" t="str">
+      <c r="HW4" s="282" t="str">
         <f>"+14"</f>
         <v>+14</v>
       </c>
       <c r="HX4" s="29"/>
       <c r="HY4" s="29"/>
       <c r="HZ4" s="244"/>
-      <c r="IA4" s="280" t="str">
+      <c r="IA4" s="282" t="str">
         <f>"+15"</f>
         <v>+15</v>
       </c>
@@ -24008,115 +24061,115 @@
       </c>
       <c r="E5" s="269"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="288"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="283" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
-      <c r="N5" s="283"/>
-      <c r="O5" s="283"/>
-      <c r="P5" s="283"/>
-      <c r="Q5" s="283"/>
-      <c r="R5" s="283"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
-      <c r="V5" s="292"/>
-      <c r="Z5" s="286" t="s">
+      <c r="G5" s="308" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="285" t="s">
+        <v>435</v>
+      </c>
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="285"/>
+      <c r="U5" s="285"/>
+      <c r="V5" s="295"/>
+      <c r="Z5" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="AA5" s="286"/>
-      <c r="AB5" s="286"/>
+      <c r="AA5" s="289"/>
+      <c r="AB5" s="289"/>
       <c r="AC5" s="10"/>
-      <c r="AD5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE5" s="288"/>
-      <c r="AF5" s="288"/>
-      <c r="AG5" s="289"/>
-      <c r="AH5" s="283" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI5" s="283"/>
-      <c r="AJ5" s="283"/>
-      <c r="AK5" s="283"/>
-      <c r="AL5" s="283"/>
-      <c r="AM5" s="283"/>
-      <c r="AN5" s="283"/>
-      <c r="AO5" s="283"/>
-      <c r="AP5" s="283"/>
-      <c r="AQ5" s="283"/>
-      <c r="AR5" s="283"/>
-      <c r="AS5" s="292"/>
-      <c r="AV5" s="286" t="s">
+      <c r="AD5" s="290" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE5" s="291"/>
+      <c r="AF5" s="291"/>
+      <c r="AG5" s="292"/>
+      <c r="AH5" s="285" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI5" s="285"/>
+      <c r="AJ5" s="285"/>
+      <c r="AK5" s="285"/>
+      <c r="AL5" s="285"/>
+      <c r="AM5" s="285"/>
+      <c r="AN5" s="285"/>
+      <c r="AO5" s="285"/>
+      <c r="AP5" s="285"/>
+      <c r="AQ5" s="285"/>
+      <c r="AR5" s="285"/>
+      <c r="AS5" s="295"/>
+      <c r="AV5" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="AW5" s="286"/>
-      <c r="AX5" s="286"/>
+      <c r="AW5" s="289"/>
+      <c r="AX5" s="289"/>
       <c r="AY5" s="10"/>
-      <c r="AZ5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA5" s="288"/>
-      <c r="BB5" s="288"/>
-      <c r="BC5" s="289"/>
-      <c r="BD5" s="283" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE5" s="283"/>
-      <c r="BF5" s="283"/>
-      <c r="BG5" s="283"/>
-      <c r="BH5" s="283"/>
-      <c r="BI5" s="283"/>
-      <c r="BJ5" s="283"/>
-      <c r="BK5" s="283"/>
-      <c r="BL5" s="283"/>
-      <c r="BM5" s="283"/>
-      <c r="BN5" s="283"/>
-      <c r="BO5" s="292"/>
+      <c r="AZ5" s="290" t="s">
+        <v>437</v>
+      </c>
+      <c r="BA5" s="291"/>
+      <c r="BB5" s="291"/>
+      <c r="BC5" s="292"/>
+      <c r="BD5" s="285" t="s">
+        <v>435</v>
+      </c>
+      <c r="BE5" s="285"/>
+      <c r="BF5" s="285"/>
+      <c r="BG5" s="285"/>
+      <c r="BH5" s="285"/>
+      <c r="BI5" s="285"/>
+      <c r="BJ5" s="285"/>
+      <c r="BK5" s="285"/>
+      <c r="BL5" s="285"/>
+      <c r="BM5" s="285"/>
+      <c r="BN5" s="285"/>
+      <c r="BO5" s="295"/>
       <c r="BR5" s="269" t="s">
         <v>145</v>
       </c>
       <c r="BS5" s="269"/>
       <c r="BT5" s="10"/>
-      <c r="BU5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV5" s="288"/>
-      <c r="BW5" s="288"/>
-      <c r="BX5" s="289"/>
-      <c r="BY5" s="283" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ5" s="283"/>
-      <c r="CA5" s="283"/>
-      <c r="CB5" s="283"/>
-      <c r="CC5" s="283"/>
-      <c r="CD5" s="283"/>
-      <c r="CE5" s="283"/>
-      <c r="CF5" s="283"/>
-      <c r="CG5" s="283"/>
-      <c r="CH5" s="283"/>
-      <c r="CI5" s="283"/>
-      <c r="CJ5" s="292"/>
-      <c r="CM5" s="286" t="s">
+      <c r="BU5" s="290" t="s">
+        <v>438</v>
+      </c>
+      <c r="BV5" s="291"/>
+      <c r="BW5" s="291"/>
+      <c r="BX5" s="292"/>
+      <c r="BY5" s="285" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ5" s="285"/>
+      <c r="CA5" s="285"/>
+      <c r="CB5" s="285"/>
+      <c r="CC5" s="285"/>
+      <c r="CD5" s="285"/>
+      <c r="CE5" s="285"/>
+      <c r="CF5" s="285"/>
+      <c r="CG5" s="285"/>
+      <c r="CH5" s="285"/>
+      <c r="CI5" s="285"/>
+      <c r="CJ5" s="295"/>
+      <c r="CM5" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="CN5" s="286"/>
-      <c r="CO5" s="286"/>
+      <c r="CN5" s="289"/>
+      <c r="CO5" s="289"/>
       <c r="CP5" s="10"/>
-      <c r="CQ5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="CR5" s="288"/>
-      <c r="CS5" s="288"/>
-      <c r="CT5" s="289"/>
+      <c r="CQ5" s="290" t="s">
+        <v>439</v>
+      </c>
+      <c r="CR5" s="291"/>
+      <c r="CS5" s="291"/>
+      <c r="CT5" s="292"/>
       <c r="CU5" s="262" t="s">
         <v>1</v>
       </c>
@@ -24138,29 +24191,29 @@
       <c r="DK5" s="263"/>
       <c r="DL5" s="263"/>
       <c r="DM5" s="263"/>
-      <c r="DN5" s="290"/>
-      <c r="DO5" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="DP5" s="283"/>
-      <c r="DQ5" s="283"/>
-      <c r="DR5" s="283"/>
-      <c r="DS5" s="283"/>
-      <c r="DT5" s="283"/>
-      <c r="DU5" s="283"/>
-      <c r="DV5" s="292"/>
-      <c r="DZ5" s="286" t="s">
+      <c r="DN5" s="293"/>
+      <c r="DO5" s="285" t="s">
+        <v>443</v>
+      </c>
+      <c r="DP5" s="285"/>
+      <c r="DQ5" s="285"/>
+      <c r="DR5" s="285"/>
+      <c r="DS5" s="285"/>
+      <c r="DT5" s="285"/>
+      <c r="DU5" s="285"/>
+      <c r="DV5" s="295"/>
+      <c r="DZ5" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="EA5" s="286"/>
-      <c r="EB5" s="286"/>
+      <c r="EA5" s="289"/>
+      <c r="EB5" s="289"/>
       <c r="EC5" s="10"/>
-      <c r="ED5" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="EE5" s="288"/>
-      <c r="EF5" s="288"/>
-      <c r="EG5" s="289"/>
+      <c r="ED5" s="290" t="s">
+        <v>440</v>
+      </c>
+      <c r="EE5" s="291"/>
+      <c r="EF5" s="291"/>
+      <c r="EG5" s="292"/>
       <c r="EH5" s="262" t="s">
         <v>1</v>
       </c>
@@ -24182,29 +24235,29 @@
       <c r="EX5" s="263"/>
       <c r="EY5" s="263"/>
       <c r="EZ5" s="263"/>
-      <c r="FA5" s="290"/>
-      <c r="FB5" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="FC5" s="283"/>
-      <c r="FD5" s="283"/>
-      <c r="FE5" s="283"/>
-      <c r="FF5" s="283"/>
-      <c r="FG5" s="283"/>
-      <c r="FH5" s="283"/>
-      <c r="FI5" s="292"/>
+      <c r="FA5" s="293"/>
+      <c r="FB5" s="285" t="s">
+        <v>152</v>
+      </c>
+      <c r="FC5" s="285"/>
+      <c r="FD5" s="285"/>
+      <c r="FE5" s="285"/>
+      <c r="FF5" s="285"/>
+      <c r="FG5" s="285"/>
+      <c r="FH5" s="285"/>
+      <c r="FI5" s="295"/>
       <c r="FO5" s="269" t="s">
         <v>145</v>
       </c>
       <c r="FP5" s="269"/>
       <c r="FQ5" s="269"/>
       <c r="FR5" s="1"/>
-      <c r="FS5" s="281" t="s">
-        <v>146</v>
-      </c>
-      <c r="FT5" s="282"/>
-      <c r="FU5" s="282"/>
-      <c r="FV5" s="282"/>
+      <c r="FS5" s="288" t="s">
+        <v>441</v>
+      </c>
+      <c r="FT5" s="284"/>
+      <c r="FU5" s="284"/>
+      <c r="FV5" s="284"/>
       <c r="FW5" s="271" t="s">
         <v>1</v>
       </c>
@@ -24227,16 +24280,16 @@
       <c r="GN5" s="271"/>
       <c r="GO5" s="271"/>
       <c r="GP5" s="271"/>
-      <c r="GQ5" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="GR5" s="283"/>
-      <c r="GS5" s="283"/>
-      <c r="GT5" s="283"/>
-      <c r="GU5" s="283"/>
-      <c r="GV5" s="283"/>
-      <c r="GW5" s="283"/>
-      <c r="GX5" s="283"/>
+      <c r="GQ5" s="285" t="s">
+        <v>443</v>
+      </c>
+      <c r="GR5" s="285"/>
+      <c r="GS5" s="285"/>
+      <c r="GT5" s="285"/>
+      <c r="GU5" s="285"/>
+      <c r="GV5" s="285"/>
+      <c r="GW5" s="285"/>
+      <c r="GX5" s="285"/>
       <c r="GY5" s="271" t="s">
         <v>1</v>
       </c>
@@ -24276,123 +24329,123 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="295" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296" t="s">
+      <c r="G6" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="299"/>
+      <c r="M6" s="299"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="299" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299"/>
+      <c r="R6" s="299"/>
+      <c r="S6" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="298"/>
+      <c r="T6" s="299"/>
+      <c r="U6" s="299"/>
+      <c r="V6" s="301"/>
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
       <c r="AB6" s="32"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="295" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="296"/>
-      <c r="AH6" s="296" t="s">
+      <c r="AD6" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="299"/>
+      <c r="AF6" s="299"/>
+      <c r="AG6" s="299"/>
+      <c r="AH6" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI6" s="299"/>
+      <c r="AJ6" s="299"/>
+      <c r="AK6" s="299"/>
+      <c r="AL6" s="299" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM6" s="299"/>
+      <c r="AN6" s="299"/>
+      <c r="AO6" s="299"/>
+      <c r="AP6" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="AI6" s="296"/>
-      <c r="AJ6" s="296"/>
-      <c r="AK6" s="296"/>
-      <c r="AL6" s="296" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM6" s="296"/>
-      <c r="AN6" s="296"/>
-      <c r="AO6" s="296"/>
-      <c r="AP6" s="296" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ6" s="296"/>
-      <c r="AR6" s="296"/>
-      <c r="AS6" s="298"/>
+      <c r="AQ6" s="299"/>
+      <c r="AR6" s="299"/>
+      <c r="AS6" s="301"/>
       <c r="AV6" s="32"/>
       <c r="AW6" s="32"/>
       <c r="AX6" s="32"/>
       <c r="AY6" s="11"/>
-      <c r="AZ6" s="295" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA6" s="296"/>
-      <c r="BB6" s="296"/>
-      <c r="BC6" s="296"/>
-      <c r="BD6" s="296" t="s">
+      <c r="AZ6" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA6" s="299"/>
+      <c r="BB6" s="299"/>
+      <c r="BC6" s="299"/>
+      <c r="BD6" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE6" s="299"/>
+      <c r="BF6" s="299"/>
+      <c r="BG6" s="299"/>
+      <c r="BH6" s="299" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI6" s="299"/>
+      <c r="BJ6" s="299"/>
+      <c r="BK6" s="299"/>
+      <c r="BL6" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="BE6" s="296"/>
-      <c r="BF6" s="296"/>
-      <c r="BG6" s="296"/>
-      <c r="BH6" s="296" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI6" s="296"/>
-      <c r="BJ6" s="296"/>
-      <c r="BK6" s="296"/>
-      <c r="BL6" s="296" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM6" s="296"/>
-      <c r="BN6" s="296"/>
-      <c r="BO6" s="298"/>
+      <c r="BM6" s="299"/>
+      <c r="BN6" s="299"/>
+      <c r="BO6" s="301"/>
       <c r="BR6" s="32"/>
       <c r="BS6" s="32"/>
       <c r="BT6" s="11"/>
-      <c r="BU6" s="295" t="s">
-        <v>161</v>
-      </c>
-      <c r="BV6" s="296"/>
-      <c r="BW6" s="296"/>
-      <c r="BX6" s="296"/>
-      <c r="BY6" s="296" t="s">
+      <c r="BU6" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV6" s="299"/>
+      <c r="BW6" s="299"/>
+      <c r="BX6" s="299"/>
+      <c r="BY6" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ6" s="299"/>
+      <c r="CA6" s="299"/>
+      <c r="CB6" s="299"/>
+      <c r="CC6" s="299" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD6" s="299"/>
+      <c r="CE6" s="299"/>
+      <c r="CF6" s="299"/>
+      <c r="CG6" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="BZ6" s="296"/>
-      <c r="CA6" s="296"/>
-      <c r="CB6" s="296"/>
-      <c r="CC6" s="296" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD6" s="296"/>
-      <c r="CE6" s="296"/>
-      <c r="CF6" s="296"/>
-      <c r="CG6" s="296" t="s">
-        <v>150</v>
-      </c>
-      <c r="CH6" s="296"/>
-      <c r="CI6" s="296"/>
-      <c r="CJ6" s="298"/>
+      <c r="CH6" s="299"/>
+      <c r="CI6" s="299"/>
+      <c r="CJ6" s="301"/>
       <c r="CM6" s="32"/>
       <c r="CN6" s="32"/>
       <c r="CO6" s="32"/>
       <c r="CP6" s="11"/>
-      <c r="CQ6" s="295" t="s">
-        <v>134</v>
-      </c>
-      <c r="CR6" s="296"/>
-      <c r="CS6" s="296"/>
-      <c r="CT6" s="296"/>
+      <c r="CQ6" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR6" s="299"/>
+      <c r="CS6" s="299"/>
+      <c r="CT6" s="299"/>
       <c r="CU6" s="265"/>
       <c r="CV6" s="266"/>
       <c r="CW6" s="266"/>
@@ -24412,25 +24465,25 @@
       <c r="DK6" s="266"/>
       <c r="DL6" s="266"/>
       <c r="DM6" s="266"/>
-      <c r="DN6" s="291"/>
+      <c r="DN6" s="294"/>
       <c r="DO6" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="DP6" s="261"/>
       <c r="DQ6" s="261"/>
       <c r="DR6" s="261"/>
       <c r="DS6" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="DT6" s="261"/>
       <c r="DU6" s="261"/>
       <c r="DV6" s="268"/>
       <c r="DZ6" s="32"/>
       <c r="EA6" s="32"/>
-      <c r="EB6" s="286"/>
+      <c r="EB6" s="289"/>
       <c r="EC6" s="11"/>
-      <c r="ED6" s="279" t="s">
-        <v>178</v>
+      <c r="ED6" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="EE6" s="261"/>
       <c r="EF6" s="261"/>
@@ -24454,15 +24507,15 @@
       <c r="EX6" s="266"/>
       <c r="EY6" s="266"/>
       <c r="EZ6" s="266"/>
-      <c r="FA6" s="291"/>
+      <c r="FA6" s="294"/>
       <c r="FB6" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="FC6" s="261"/>
       <c r="FD6" s="261"/>
       <c r="FE6" s="261"/>
       <c r="FF6" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="FG6" s="261"/>
       <c r="FH6" s="261"/>
@@ -24471,8 +24524,8 @@
       <c r="FP6" s="32"/>
       <c r="FQ6" s="32"/>
       <c r="FR6" s="13"/>
-      <c r="FS6" s="279" t="s">
-        <v>179</v>
+      <c r="FS6" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT6" s="261"/>
       <c r="FU6" s="261"/>
@@ -24498,13 +24551,13 @@
       <c r="GO6" s="274"/>
       <c r="GP6" s="274"/>
       <c r="GQ6" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="GR6" s="261"/>
       <c r="GS6" s="261"/>
       <c r="GT6" s="261"/>
       <c r="GU6" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="GV6" s="261"/>
       <c r="GW6" s="261"/>
@@ -24544,123 +24597,123 @@
     </row>
     <row r="7" spans="4:238" x14ac:dyDescent="0.4">
       <c r="D7" s="269" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="269"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="297" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="283"/>
-      <c r="O7" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="P7" s="283"/>
-      <c r="Q7" s="283"/>
-      <c r="R7" s="283"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
-      <c r="V7" s="292"/>
-      <c r="Z7" s="286" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA7" s="286"/>
-      <c r="AB7" s="286"/>
+      <c r="G7" s="300" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285" t="s">
+        <v>436</v>
+      </c>
+      <c r="P7" s="285"/>
+      <c r="Q7" s="285"/>
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="295"/>
+      <c r="Z7" s="289" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
       <c r="AC7" s="10"/>
-      <c r="AD7" s="297" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE7" s="283"/>
-      <c r="AF7" s="283"/>
-      <c r="AG7" s="283"/>
-      <c r="AH7" s="283"/>
-      <c r="AI7" s="283"/>
-      <c r="AJ7" s="283"/>
-      <c r="AK7" s="283"/>
-      <c r="AL7" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM7" s="283"/>
-      <c r="AN7" s="283"/>
-      <c r="AO7" s="283"/>
-      <c r="AP7" s="283"/>
-      <c r="AQ7" s="283"/>
-      <c r="AR7" s="283"/>
-      <c r="AS7" s="292"/>
-      <c r="AV7" s="286" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW7" s="286"/>
-      <c r="AX7" s="286"/>
+      <c r="AD7" s="300" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE7" s="285"/>
+      <c r="AF7" s="285"/>
+      <c r="AG7" s="285"/>
+      <c r="AH7" s="285"/>
+      <c r="AI7" s="285"/>
+      <c r="AJ7" s="285"/>
+      <c r="AK7" s="285"/>
+      <c r="AL7" s="285" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM7" s="285"/>
+      <c r="AN7" s="285"/>
+      <c r="AO7" s="285"/>
+      <c r="AP7" s="285"/>
+      <c r="AQ7" s="285"/>
+      <c r="AR7" s="285"/>
+      <c r="AS7" s="295"/>
+      <c r="AV7" s="289" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW7" s="289"/>
+      <c r="AX7" s="289"/>
       <c r="AY7" s="10"/>
-      <c r="AZ7" s="297" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA7" s="283"/>
-      <c r="BB7" s="283"/>
-      <c r="BC7" s="283"/>
-      <c r="BD7" s="283"/>
-      <c r="BE7" s="283"/>
-      <c r="BF7" s="283"/>
-      <c r="BG7" s="283"/>
-      <c r="BH7" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="BI7" s="283"/>
-      <c r="BJ7" s="283"/>
-      <c r="BK7" s="283"/>
-      <c r="BL7" s="283"/>
-      <c r="BM7" s="283"/>
-      <c r="BN7" s="283"/>
-      <c r="BO7" s="292"/>
+      <c r="AZ7" s="300" t="s">
+        <v>435</v>
+      </c>
+      <c r="BA7" s="285"/>
+      <c r="BB7" s="285"/>
+      <c r="BC7" s="285"/>
+      <c r="BD7" s="285"/>
+      <c r="BE7" s="285"/>
+      <c r="BF7" s="285"/>
+      <c r="BG7" s="285"/>
+      <c r="BH7" s="285" t="s">
+        <v>436</v>
+      </c>
+      <c r="BI7" s="285"/>
+      <c r="BJ7" s="285"/>
+      <c r="BK7" s="285"/>
+      <c r="BL7" s="285"/>
+      <c r="BM7" s="285"/>
+      <c r="BN7" s="285"/>
+      <c r="BO7" s="295"/>
       <c r="BR7" s="269" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BS7" s="269"/>
       <c r="BT7" s="10"/>
-      <c r="BU7" s="297" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV7" s="283"/>
-      <c r="BW7" s="283"/>
-      <c r="BX7" s="283"/>
-      <c r="BY7" s="283"/>
-      <c r="BZ7" s="283"/>
-      <c r="CA7" s="283"/>
-      <c r="CB7" s="283"/>
-      <c r="CC7" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="CD7" s="283"/>
-      <c r="CE7" s="283"/>
-      <c r="CF7" s="283"/>
-      <c r="CG7" s="283"/>
-      <c r="CH7" s="283"/>
-      <c r="CI7" s="283"/>
-      <c r="CJ7" s="292"/>
-      <c r="CM7" s="286" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN7" s="286"/>
-      <c r="CO7" s="286"/>
+      <c r="BU7" s="300" t="s">
+        <v>435</v>
+      </c>
+      <c r="BV7" s="285"/>
+      <c r="BW7" s="285"/>
+      <c r="BX7" s="285"/>
+      <c r="BY7" s="285"/>
+      <c r="BZ7" s="285"/>
+      <c r="CA7" s="285"/>
+      <c r="CB7" s="285"/>
+      <c r="CC7" s="285" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD7" s="285"/>
+      <c r="CE7" s="285"/>
+      <c r="CF7" s="285"/>
+      <c r="CG7" s="285"/>
+      <c r="CH7" s="285"/>
+      <c r="CI7" s="285"/>
+      <c r="CJ7" s="295"/>
+      <c r="CM7" s="289" t="s">
+        <v>153</v>
+      </c>
+      <c r="CN7" s="289"/>
+      <c r="CO7" s="289"/>
       <c r="CP7" s="10"/>
-      <c r="CQ7" s="276" t="s">
-        <v>162</v>
-      </c>
-      <c r="CR7" s="277"/>
-      <c r="CS7" s="277"/>
-      <c r="CT7" s="277"/>
-      <c r="CU7" s="277"/>
-      <c r="CV7" s="277"/>
-      <c r="CW7" s="277"/>
-      <c r="CX7" s="277"/>
+      <c r="CQ7" s="278" t="s">
+        <v>442</v>
+      </c>
+      <c r="CR7" s="279"/>
+      <c r="CS7" s="279"/>
+      <c r="CT7" s="279"/>
+      <c r="CU7" s="279"/>
+      <c r="CV7" s="279"/>
+      <c r="CW7" s="279"/>
+      <c r="CX7" s="279"/>
       <c r="CY7" s="262" t="s">
         <v>1</v>
       </c>
@@ -24690,130 +24743,130 @@
       <c r="EB7" s="1"/>
       <c r="EC7" s="1"/>
       <c r="FO7" s="269" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="FP7" s="269"/>
       <c r="FQ7" s="269"/>
       <c r="FR7" s="1"/>
-      <c r="FS7" s="276" t="s">
-        <v>180</v>
-      </c>
-      <c r="FT7" s="277"/>
-      <c r="FU7" s="277"/>
-      <c r="FV7" s="277"/>
-      <c r="FW7" s="277"/>
-      <c r="FX7" s="277"/>
-      <c r="FY7" s="277"/>
-      <c r="FZ7" s="277"/>
-      <c r="GA7" s="277"/>
-      <c r="GB7" s="277"/>
-      <c r="GC7" s="277"/>
-      <c r="GD7" s="277"/>
-      <c r="GE7" s="277"/>
-      <c r="GF7" s="277"/>
-      <c r="GG7" s="277"/>
-      <c r="GH7" s="277"/>
-      <c r="GI7" s="277"/>
-      <c r="GJ7" s="277"/>
-      <c r="GK7" s="277"/>
-      <c r="GL7" s="277"/>
-      <c r="GM7" s="277"/>
-      <c r="GN7" s="277"/>
-      <c r="GO7" s="277"/>
-      <c r="GP7" s="277"/>
-      <c r="GQ7" s="277"/>
-      <c r="GR7" s="277"/>
-      <c r="GS7" s="277"/>
-      <c r="GT7" s="277"/>
-      <c r="GU7" s="277"/>
-      <c r="GV7" s="277"/>
-      <c r="GW7" s="277"/>
-      <c r="GX7" s="277"/>
-      <c r="GY7" s="277"/>
-      <c r="GZ7" s="277"/>
-      <c r="HA7" s="277"/>
-      <c r="HB7" s="277"/>
-      <c r="HC7" s="277"/>
-      <c r="HD7" s="277"/>
-      <c r="HE7" s="277"/>
-      <c r="HF7" s="277"/>
-      <c r="HG7" s="277"/>
-      <c r="HH7" s="277"/>
-      <c r="HI7" s="277"/>
-      <c r="HJ7" s="277"/>
-      <c r="HK7" s="277"/>
-      <c r="HL7" s="277"/>
-      <c r="HM7" s="277"/>
-      <c r="HN7" s="277"/>
-      <c r="HO7" s="277"/>
-      <c r="HP7" s="277"/>
-      <c r="HQ7" s="277"/>
-      <c r="HR7" s="277"/>
-      <c r="HS7" s="277"/>
-      <c r="HT7" s="277"/>
-      <c r="HU7" s="277"/>
-      <c r="HV7" s="277"/>
-      <c r="HW7" s="277"/>
-      <c r="HX7" s="277"/>
-      <c r="HY7" s="277"/>
-      <c r="HZ7" s="277"/>
-      <c r="IA7" s="277"/>
-      <c r="IB7" s="277"/>
-      <c r="IC7" s="277"/>
-      <c r="ID7" s="278"/>
+      <c r="FS7" s="278" t="s">
+        <v>170</v>
+      </c>
+      <c r="FT7" s="279"/>
+      <c r="FU7" s="279"/>
+      <c r="FV7" s="279"/>
+      <c r="FW7" s="279"/>
+      <c r="FX7" s="279"/>
+      <c r="FY7" s="279"/>
+      <c r="FZ7" s="279"/>
+      <c r="GA7" s="279"/>
+      <c r="GB7" s="279"/>
+      <c r="GC7" s="279"/>
+      <c r="GD7" s="279"/>
+      <c r="GE7" s="279"/>
+      <c r="GF7" s="279"/>
+      <c r="GG7" s="279"/>
+      <c r="GH7" s="279"/>
+      <c r="GI7" s="279"/>
+      <c r="GJ7" s="279"/>
+      <c r="GK7" s="279"/>
+      <c r="GL7" s="279"/>
+      <c r="GM7" s="279"/>
+      <c r="GN7" s="279"/>
+      <c r="GO7" s="279"/>
+      <c r="GP7" s="279"/>
+      <c r="GQ7" s="279"/>
+      <c r="GR7" s="279"/>
+      <c r="GS7" s="279"/>
+      <c r="GT7" s="279"/>
+      <c r="GU7" s="279"/>
+      <c r="GV7" s="279"/>
+      <c r="GW7" s="279"/>
+      <c r="GX7" s="279"/>
+      <c r="GY7" s="279"/>
+      <c r="GZ7" s="279"/>
+      <c r="HA7" s="279"/>
+      <c r="HB7" s="279"/>
+      <c r="HC7" s="279"/>
+      <c r="HD7" s="279"/>
+      <c r="HE7" s="279"/>
+      <c r="HF7" s="279"/>
+      <c r="HG7" s="279"/>
+      <c r="HH7" s="279"/>
+      <c r="HI7" s="279"/>
+      <c r="HJ7" s="279"/>
+      <c r="HK7" s="279"/>
+      <c r="HL7" s="279"/>
+      <c r="HM7" s="279"/>
+      <c r="HN7" s="279"/>
+      <c r="HO7" s="279"/>
+      <c r="HP7" s="279"/>
+      <c r="HQ7" s="279"/>
+      <c r="HR7" s="279"/>
+      <c r="HS7" s="279"/>
+      <c r="HT7" s="279"/>
+      <c r="HU7" s="279"/>
+      <c r="HV7" s="279"/>
+      <c r="HW7" s="279"/>
+      <c r="HX7" s="279"/>
+      <c r="HY7" s="279"/>
+      <c r="HZ7" s="279"/>
+      <c r="IA7" s="279"/>
+      <c r="IB7" s="279"/>
+      <c r="IC7" s="279"/>
+      <c r="ID7" s="280"/>
     </row>
     <row r="8" spans="4:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="279" t="s">
-        <v>152</v>
+      <c r="G8" s="281" t="s">
+        <v>150</v>
       </c>
       <c r="H8" s="261"/>
       <c r="I8" s="261"/>
       <c r="J8" s="261"/>
       <c r="K8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L8" s="261"/>
       <c r="M8" s="261"/>
       <c r="N8" s="261"/>
-      <c r="O8" s="261" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261" t="s">
-        <v>155</v>
-      </c>
-      <c r="T8" s="261"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="268"/>
+      <c r="O8" s="305" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="306"/>
+      <c r="Q8" s="306"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="305" t="s">
+        <v>151</v>
+      </c>
+      <c r="T8" s="306"/>
+      <c r="U8" s="306"/>
+      <c r="V8" s="307"/>
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
       <c r="AB8" s="32"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="279" t="s">
-        <v>152</v>
+      <c r="AD8" s="281" t="s">
+        <v>150</v>
       </c>
       <c r="AE8" s="261"/>
       <c r="AF8" s="261"/>
       <c r="AG8" s="261"/>
       <c r="AH8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI8" s="261"/>
       <c r="AJ8" s="261"/>
-      <c r="AK8" s="302"/>
+      <c r="AK8" s="305"/>
       <c r="AL8" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM8" s="261"/>
       <c r="AN8" s="261"/>
       <c r="AO8" s="261"/>
       <c r="AP8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ8" s="261"/>
       <c r="AR8" s="261"/>
@@ -24822,26 +24875,26 @@
       <c r="AW8" s="32"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="279" t="s">
-        <v>152</v>
+      <c r="AZ8" s="281" t="s">
+        <v>150</v>
       </c>
       <c r="BA8" s="261"/>
       <c r="BB8" s="261"/>
       <c r="BC8" s="261"/>
       <c r="BD8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BE8" s="261"/>
       <c r="BF8" s="261"/>
       <c r="BG8" s="261"/>
       <c r="BH8" s="261" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BI8" s="261"/>
       <c r="BJ8" s="261"/>
       <c r="BK8" s="261"/>
       <c r="BL8" s="261" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="BM8" s="261"/>
       <c r="BN8" s="261"/>
@@ -24849,26 +24902,26 @@
       <c r="BR8" s="32"/>
       <c r="BS8" s="32"/>
       <c r="BT8" s="12"/>
-      <c r="BU8" s="279" t="s">
-        <v>152</v>
+      <c r="BU8" s="281" t="s">
+        <v>150</v>
       </c>
       <c r="BV8" s="261"/>
       <c r="BW8" s="261"/>
       <c r="BX8" s="261"/>
       <c r="BY8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BZ8" s="261"/>
       <c r="CA8" s="261"/>
       <c r="CB8" s="261"/>
       <c r="CC8" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CD8" s="261"/>
       <c r="CE8" s="261"/>
       <c r="CF8" s="261"/>
       <c r="CG8" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CH8" s="261"/>
       <c r="CI8" s="261"/>
@@ -24877,14 +24930,14 @@
       <c r="CN8" s="32"/>
       <c r="CO8" s="32"/>
       <c r="CP8" s="12"/>
-      <c r="CQ8" s="279" t="s">
-        <v>153</v>
+      <c r="CQ8" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="CR8" s="261"/>
       <c r="CS8" s="261"/>
       <c r="CT8" s="261"/>
       <c r="CU8" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CV8" s="261"/>
       <c r="CW8" s="261"/>
@@ -24917,192 +24970,192 @@
       <c r="FP8" s="32"/>
       <c r="FQ8" s="32"/>
       <c r="FR8" s="13"/>
-      <c r="FS8" s="279" t="s">
-        <v>153</v>
+      <c r="FS8" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT8" s="261"/>
       <c r="FU8" s="261"/>
       <c r="FV8" s="261"/>
       <c r="FW8" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="FX8" s="261"/>
       <c r="FY8" s="261"/>
       <c r="FZ8" s="261"/>
       <c r="GA8" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="GB8" s="261"/>
       <c r="GC8" s="261"/>
       <c r="GD8" s="261"/>
       <c r="GE8" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="GF8" s="261"/>
       <c r="GG8" s="261"/>
       <c r="GH8" s="261"/>
       <c r="GI8" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="GJ8" s="261"/>
       <c r="GK8" s="261"/>
       <c r="GL8" s="261"/>
       <c r="GM8" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="GN8" s="261"/>
       <c r="GO8" s="261"/>
       <c r="GP8" s="261"/>
       <c r="GQ8" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="GR8" s="261"/>
       <c r="GS8" s="261"/>
       <c r="GT8" s="261"/>
       <c r="GU8" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="GV8" s="261"/>
       <c r="GW8" s="261"/>
       <c r="GX8" s="261"/>
       <c r="GY8" s="261" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="GZ8" s="261"/>
       <c r="HA8" s="261"/>
       <c r="HB8" s="261"/>
       <c r="HC8" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="HD8" s="261"/>
       <c r="HE8" s="261"/>
       <c r="HF8" s="261"/>
       <c r="HG8" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="HH8" s="261"/>
       <c r="HI8" s="261"/>
       <c r="HJ8" s="261"/>
       <c r="HK8" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="HL8" s="261"/>
       <c r="HM8" s="261"/>
       <c r="HN8" s="261"/>
       <c r="HO8" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="HP8" s="261"/>
       <c r="HQ8" s="261"/>
       <c r="HR8" s="261"/>
       <c r="HS8" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="HT8" s="261"/>
       <c r="HU8" s="261"/>
       <c r="HV8" s="261"/>
       <c r="HW8" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="HX8" s="261"/>
       <c r="HY8" s="261"/>
       <c r="HZ8" s="261"/>
       <c r="IA8" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="IB8" s="261"/>
       <c r="IC8" s="261"/>
       <c r="ID8" s="268"/>
     </row>
     <row r="9" spans="4:238" x14ac:dyDescent="0.4">
-      <c r="Z9" s="286" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
+      <c r="Z9" s="289" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA9" s="289"/>
+      <c r="AB9" s="289"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="299" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE9" s="300"/>
-      <c r="AF9" s="300"/>
-      <c r="AG9" s="300"/>
-      <c r="AH9" s="300"/>
-      <c r="AI9" s="300"/>
-      <c r="AJ9" s="300"/>
-      <c r="AK9" s="300"/>
-      <c r="AL9" s="300"/>
-      <c r="AM9" s="300"/>
-      <c r="AN9" s="300"/>
-      <c r="AO9" s="300"/>
-      <c r="AP9" s="300"/>
-      <c r="AQ9" s="300"/>
-      <c r="AR9" s="300"/>
-      <c r="AS9" s="301"/>
-      <c r="AV9" s="286" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW9" s="286"/>
-      <c r="AX9" s="286"/>
+      <c r="AD9" s="302" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="303"/>
+      <c r="AH9" s="303"/>
+      <c r="AI9" s="303"/>
+      <c r="AJ9" s="303"/>
+      <c r="AK9" s="303"/>
+      <c r="AL9" s="303"/>
+      <c r="AM9" s="303"/>
+      <c r="AN9" s="303"/>
+      <c r="AO9" s="303"/>
+      <c r="AP9" s="303"/>
+      <c r="AQ9" s="303"/>
+      <c r="AR9" s="303"/>
+      <c r="AS9" s="304"/>
+      <c r="AV9" s="289" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW9" s="289"/>
+      <c r="AX9" s="289"/>
       <c r="AY9" s="10"/>
-      <c r="AZ9" s="299" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA9" s="300"/>
-      <c r="BB9" s="300"/>
-      <c r="BC9" s="300"/>
-      <c r="BD9" s="300"/>
-      <c r="BE9" s="300"/>
-      <c r="BF9" s="300"/>
-      <c r="BG9" s="300"/>
-      <c r="BH9" s="300"/>
-      <c r="BI9" s="300"/>
-      <c r="BJ9" s="300"/>
-      <c r="BK9" s="300"/>
-      <c r="BL9" s="300"/>
-      <c r="BM9" s="300"/>
-      <c r="BN9" s="300"/>
-      <c r="BO9" s="301"/>
-      <c r="CM9" s="286" t="s">
-        <v>174</v>
-      </c>
-      <c r="CN9" s="286"/>
-      <c r="CO9" s="286"/>
+      <c r="AZ9" s="302" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA9" s="303"/>
+      <c r="BB9" s="303"/>
+      <c r="BC9" s="303"/>
+      <c r="BD9" s="303"/>
+      <c r="BE9" s="303"/>
+      <c r="BF9" s="303"/>
+      <c r="BG9" s="303"/>
+      <c r="BH9" s="303"/>
+      <c r="BI9" s="303"/>
+      <c r="BJ9" s="303"/>
+      <c r="BK9" s="303"/>
+      <c r="BL9" s="303"/>
+      <c r="BM9" s="303"/>
+      <c r="BN9" s="303"/>
+      <c r="BO9" s="304"/>
+      <c r="CM9" s="289" t="s">
+        <v>166</v>
+      </c>
+      <c r="CN9" s="289"/>
+      <c r="CO9" s="289"/>
       <c r="CP9" s="10"/>
-      <c r="CQ9" s="276" t="s">
-        <v>182</v>
-      </c>
-      <c r="CR9" s="277"/>
-      <c r="CS9" s="277"/>
-      <c r="CT9" s="277"/>
-      <c r="CU9" s="277"/>
-      <c r="CV9" s="277"/>
-      <c r="CW9" s="277"/>
-      <c r="CX9" s="277"/>
-      <c r="CY9" s="277"/>
-      <c r="CZ9" s="277"/>
-      <c r="DA9" s="277"/>
-      <c r="DB9" s="277"/>
-      <c r="DC9" s="277"/>
-      <c r="DD9" s="277"/>
-      <c r="DE9" s="277"/>
-      <c r="DF9" s="277"/>
-      <c r="DG9" s="277"/>
-      <c r="DH9" s="277"/>
-      <c r="DI9" s="277"/>
-      <c r="DJ9" s="277"/>
-      <c r="DK9" s="277"/>
-      <c r="DL9" s="277"/>
-      <c r="DM9" s="277"/>
-      <c r="DN9" s="277"/>
-      <c r="DO9" s="277"/>
-      <c r="DP9" s="277"/>
-      <c r="DQ9" s="277"/>
-      <c r="DR9" s="277"/>
-      <c r="DS9" s="277"/>
-      <c r="DT9" s="277"/>
-      <c r="DU9" s="277"/>
-      <c r="DV9" s="278"/>
+      <c r="CQ9" s="278" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR9" s="279"/>
+      <c r="CS9" s="279"/>
+      <c r="CT9" s="279"/>
+      <c r="CU9" s="279"/>
+      <c r="CV9" s="279"/>
+      <c r="CW9" s="279"/>
+      <c r="CX9" s="279"/>
+      <c r="CY9" s="279"/>
+      <c r="CZ9" s="279"/>
+      <c r="DA9" s="279"/>
+      <c r="DB9" s="279"/>
+      <c r="DC9" s="279"/>
+      <c r="DD9" s="279"/>
+      <c r="DE9" s="279"/>
+      <c r="DF9" s="279"/>
+      <c r="DG9" s="279"/>
+      <c r="DH9" s="279"/>
+      <c r="DI9" s="279"/>
+      <c r="DJ9" s="279"/>
+      <c r="DK9" s="279"/>
+      <c r="DL9" s="279"/>
+      <c r="DM9" s="279"/>
+      <c r="DN9" s="279"/>
+      <c r="DO9" s="279"/>
+      <c r="DP9" s="279"/>
+      <c r="DQ9" s="279"/>
+      <c r="DR9" s="279"/>
+      <c r="DS9" s="279"/>
+      <c r="DT9" s="279"/>
+      <c r="DU9" s="279"/>
+      <c r="DV9" s="280"/>
       <c r="FO9" s="269" t="s">
         <v>14</v>
       </c>
@@ -25181,26 +25234,26 @@
       <c r="AA10" s="32"/>
       <c r="AB10" s="32"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="279" t="s">
-        <v>153</v>
+      <c r="AD10" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="AE10" s="261"/>
       <c r="AF10" s="261"/>
       <c r="AG10" s="261"/>
       <c r="AH10" s="260" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI10" s="261"/>
       <c r="AJ10" s="261"/>
       <c r="AK10" s="261"/>
       <c r="AL10" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AM10" s="261"/>
       <c r="AN10" s="261"/>
-      <c r="AO10" s="302"/>
+      <c r="AO10" s="305"/>
       <c r="AP10" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ10" s="261"/>
       <c r="AR10" s="261"/>
@@ -25209,26 +25262,26 @@
       <c r="AW10" s="32"/>
       <c r="AX10" s="32"/>
       <c r="AY10" s="12"/>
-      <c r="AZ10" s="279" t="s">
-        <v>153</v>
+      <c r="AZ10" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="BA10" s="261"/>
       <c r="BB10" s="261"/>
       <c r="BC10" s="261"/>
       <c r="BD10" s="260" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BE10" s="261"/>
       <c r="BF10" s="261"/>
       <c r="BG10" s="261"/>
       <c r="BH10" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BI10" s="261"/>
       <c r="BJ10" s="261"/>
-      <c r="BK10" s="302"/>
+      <c r="BK10" s="305"/>
       <c r="BL10" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BM10" s="261"/>
       <c r="BN10" s="261"/>
@@ -25237,50 +25290,50 @@
       <c r="CN10" s="32"/>
       <c r="CO10" s="32"/>
       <c r="CP10" s="12"/>
-      <c r="CQ10" s="279" t="s">
-        <v>153</v>
+      <c r="CQ10" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="CR10" s="261"/>
       <c r="CS10" s="261"/>
       <c r="CT10" s="261"/>
       <c r="CU10" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CV10" s="261"/>
       <c r="CW10" s="261"/>
       <c r="CX10" s="261"/>
       <c r="CY10" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CZ10" s="261"/>
       <c r="DA10" s="261"/>
       <c r="DB10" s="261"/>
       <c r="DC10" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="DD10" s="261"/>
       <c r="DE10" s="261"/>
       <c r="DF10" s="261"/>
       <c r="DG10" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DH10" s="261"/>
       <c r="DI10" s="261"/>
       <c r="DJ10" s="261"/>
       <c r="DK10" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="DL10" s="261"/>
       <c r="DM10" s="261"/>
       <c r="DN10" s="261"/>
       <c r="DO10" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="DP10" s="261"/>
       <c r="DQ10" s="261"/>
       <c r="DR10" s="261"/>
       <c r="DS10" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="DT10" s="261"/>
       <c r="DU10" s="261"/>
@@ -25355,168 +25408,168 @@
       <c r="ID10" s="275"/>
     </row>
     <row r="11" spans="4:238" x14ac:dyDescent="0.4">
-      <c r="CM11" s="286" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN11" s="286"/>
-      <c r="CO11" s="286"/>
+      <c r="CM11" s="289" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN11" s="289"/>
+      <c r="CO11" s="289"/>
       <c r="CP11" s="10"/>
-      <c r="CQ11" s="276" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR11" s="277"/>
-      <c r="CS11" s="277"/>
-      <c r="CT11" s="277"/>
-      <c r="CU11" s="277"/>
-      <c r="CV11" s="277"/>
-      <c r="CW11" s="277"/>
-      <c r="CX11" s="277"/>
-      <c r="CY11" s="277"/>
-      <c r="CZ11" s="277"/>
-      <c r="DA11" s="277"/>
-      <c r="DB11" s="277"/>
-      <c r="DC11" s="277"/>
-      <c r="DD11" s="277"/>
-      <c r="DE11" s="277"/>
-      <c r="DF11" s="277"/>
-      <c r="DG11" s="277"/>
-      <c r="DH11" s="277"/>
-      <c r="DI11" s="277"/>
-      <c r="DJ11" s="277"/>
-      <c r="DK11" s="277"/>
-      <c r="DL11" s="277"/>
-      <c r="DM11" s="277"/>
-      <c r="DN11" s="277"/>
-      <c r="DO11" s="277"/>
-      <c r="DP11" s="277"/>
-      <c r="DQ11" s="277"/>
-      <c r="DR11" s="277"/>
-      <c r="DS11" s="277"/>
-      <c r="DT11" s="277"/>
-      <c r="DU11" s="277"/>
-      <c r="DV11" s="278"/>
+      <c r="CQ11" s="278" t="s">
+        <v>174</v>
+      </c>
+      <c r="CR11" s="279"/>
+      <c r="CS11" s="279"/>
+      <c r="CT11" s="279"/>
+      <c r="CU11" s="279"/>
+      <c r="CV11" s="279"/>
+      <c r="CW11" s="279"/>
+      <c r="CX11" s="279"/>
+      <c r="CY11" s="279"/>
+      <c r="CZ11" s="279"/>
+      <c r="DA11" s="279"/>
+      <c r="DB11" s="279"/>
+      <c r="DC11" s="279"/>
+      <c r="DD11" s="279"/>
+      <c r="DE11" s="279"/>
+      <c r="DF11" s="279"/>
+      <c r="DG11" s="279"/>
+      <c r="DH11" s="279"/>
+      <c r="DI11" s="279"/>
+      <c r="DJ11" s="279"/>
+      <c r="DK11" s="279"/>
+      <c r="DL11" s="279"/>
+      <c r="DM11" s="279"/>
+      <c r="DN11" s="279"/>
+      <c r="DO11" s="279"/>
+      <c r="DP11" s="279"/>
+      <c r="DQ11" s="279"/>
+      <c r="DR11" s="279"/>
+      <c r="DS11" s="279"/>
+      <c r="DT11" s="279"/>
+      <c r="DU11" s="279"/>
+      <c r="DV11" s="280"/>
       <c r="FO11" s="269" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="FP11" s="269"/>
       <c r="FQ11" s="269"/>
       <c r="FR11" s="1"/>
-      <c r="FS11" s="276" t="s">
-        <v>181</v>
-      </c>
-      <c r="FT11" s="277"/>
-      <c r="FU11" s="277"/>
-      <c r="FV11" s="277"/>
-      <c r="FW11" s="277"/>
-      <c r="FX11" s="277"/>
-      <c r="FY11" s="277"/>
-      <c r="FZ11" s="277"/>
-      <c r="GA11" s="277"/>
-      <c r="GB11" s="277"/>
-      <c r="GC11" s="277"/>
-      <c r="GD11" s="277"/>
-      <c r="GE11" s="277"/>
-      <c r="GF11" s="277"/>
-      <c r="GG11" s="277"/>
-      <c r="GH11" s="277"/>
-      <c r="GI11" s="277"/>
-      <c r="GJ11" s="277"/>
-      <c r="GK11" s="277"/>
-      <c r="GL11" s="277"/>
-      <c r="GM11" s="277"/>
-      <c r="GN11" s="277"/>
-      <c r="GO11" s="277"/>
-      <c r="GP11" s="277"/>
-      <c r="GQ11" s="277"/>
-      <c r="GR11" s="277"/>
-      <c r="GS11" s="277"/>
-      <c r="GT11" s="277"/>
-      <c r="GU11" s="277"/>
-      <c r="GV11" s="277"/>
-      <c r="GW11" s="277"/>
-      <c r="GX11" s="277"/>
-      <c r="GY11" s="277"/>
-      <c r="GZ11" s="277"/>
-      <c r="HA11" s="277"/>
-      <c r="HB11" s="277"/>
-      <c r="HC11" s="277"/>
-      <c r="HD11" s="277"/>
-      <c r="HE11" s="277"/>
-      <c r="HF11" s="277"/>
-      <c r="HG11" s="277"/>
-      <c r="HH11" s="277"/>
-      <c r="HI11" s="277"/>
-      <c r="HJ11" s="277"/>
-      <c r="HK11" s="277"/>
-      <c r="HL11" s="277"/>
-      <c r="HM11" s="277"/>
-      <c r="HN11" s="277"/>
-      <c r="HO11" s="277"/>
-      <c r="HP11" s="277"/>
-      <c r="HQ11" s="277"/>
-      <c r="HR11" s="277"/>
-      <c r="HS11" s="277"/>
-      <c r="HT11" s="277"/>
-      <c r="HU11" s="277"/>
-      <c r="HV11" s="277"/>
-      <c r="HW11" s="277"/>
-      <c r="HX11" s="277"/>
-      <c r="HY11" s="277"/>
-      <c r="HZ11" s="277"/>
-      <c r="IA11" s="277"/>
-      <c r="IB11" s="277"/>
-      <c r="IC11" s="277"/>
-      <c r="ID11" s="278"/>
+      <c r="FS11" s="278" t="s">
+        <v>171</v>
+      </c>
+      <c r="FT11" s="279"/>
+      <c r="FU11" s="279"/>
+      <c r="FV11" s="279"/>
+      <c r="FW11" s="279"/>
+      <c r="FX11" s="279"/>
+      <c r="FY11" s="279"/>
+      <c r="FZ11" s="279"/>
+      <c r="GA11" s="279"/>
+      <c r="GB11" s="279"/>
+      <c r="GC11" s="279"/>
+      <c r="GD11" s="279"/>
+      <c r="GE11" s="279"/>
+      <c r="GF11" s="279"/>
+      <c r="GG11" s="279"/>
+      <c r="GH11" s="279"/>
+      <c r="GI11" s="279"/>
+      <c r="GJ11" s="279"/>
+      <c r="GK11" s="279"/>
+      <c r="GL11" s="279"/>
+      <c r="GM11" s="279"/>
+      <c r="GN11" s="279"/>
+      <c r="GO11" s="279"/>
+      <c r="GP11" s="279"/>
+      <c r="GQ11" s="279"/>
+      <c r="GR11" s="279"/>
+      <c r="GS11" s="279"/>
+      <c r="GT11" s="279"/>
+      <c r="GU11" s="279"/>
+      <c r="GV11" s="279"/>
+      <c r="GW11" s="279"/>
+      <c r="GX11" s="279"/>
+      <c r="GY11" s="279"/>
+      <c r="GZ11" s="279"/>
+      <c r="HA11" s="279"/>
+      <c r="HB11" s="279"/>
+      <c r="HC11" s="279"/>
+      <c r="HD11" s="279"/>
+      <c r="HE11" s="279"/>
+      <c r="HF11" s="279"/>
+      <c r="HG11" s="279"/>
+      <c r="HH11" s="279"/>
+      <c r="HI11" s="279"/>
+      <c r="HJ11" s="279"/>
+      <c r="HK11" s="279"/>
+      <c r="HL11" s="279"/>
+      <c r="HM11" s="279"/>
+      <c r="HN11" s="279"/>
+      <c r="HO11" s="279"/>
+      <c r="HP11" s="279"/>
+      <c r="HQ11" s="279"/>
+      <c r="HR11" s="279"/>
+      <c r="HS11" s="279"/>
+      <c r="HT11" s="279"/>
+      <c r="HU11" s="279"/>
+      <c r="HV11" s="279"/>
+      <c r="HW11" s="279"/>
+      <c r="HX11" s="279"/>
+      <c r="HY11" s="279"/>
+      <c r="HZ11" s="279"/>
+      <c r="IA11" s="279"/>
+      <c r="IB11" s="279"/>
+      <c r="IC11" s="279"/>
+      <c r="ID11" s="280"/>
     </row>
     <row r="12" spans="4:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="CM12" s="32"/>
       <c r="CN12" s="32"/>
       <c r="CO12" s="32"/>
       <c r="CP12" s="12"/>
-      <c r="CQ12" s="279" t="s">
-        <v>166</v>
+      <c r="CQ12" s="281" t="s">
+        <v>158</v>
       </c>
       <c r="CR12" s="261"/>
       <c r="CS12" s="261"/>
       <c r="CT12" s="261"/>
       <c r="CU12" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CV12" s="261"/>
       <c r="CW12" s="261"/>
       <c r="CX12" s="261"/>
       <c r="CY12" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CZ12" s="261"/>
       <c r="DA12" s="261"/>
       <c r="DB12" s="261"/>
       <c r="DC12" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="DD12" s="261"/>
       <c r="DE12" s="261"/>
       <c r="DF12" s="261"/>
       <c r="DG12" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="DH12" s="261"/>
       <c r="DI12" s="261"/>
       <c r="DJ12" s="261"/>
       <c r="DK12" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="DL12" s="261"/>
       <c r="DM12" s="261"/>
       <c r="DN12" s="261"/>
       <c r="DO12" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="DP12" s="261"/>
       <c r="DQ12" s="261"/>
       <c r="DR12" s="261"/>
       <c r="DS12" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="DT12" s="261"/>
       <c r="DU12" s="261"/>
@@ -25525,111 +25578,111 @@
       <c r="FP12" s="32"/>
       <c r="FQ12" s="32"/>
       <c r="FR12" s="13"/>
-      <c r="FS12" s="279" t="s">
-        <v>153</v>
+      <c r="FS12" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT12" s="261"/>
       <c r="FU12" s="261"/>
       <c r="FV12" s="261"/>
       <c r="FW12" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="FX12" s="261"/>
       <c r="FY12" s="261"/>
       <c r="FZ12" s="261"/>
       <c r="GA12" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="GB12" s="261"/>
       <c r="GC12" s="261"/>
       <c r="GD12" s="261"/>
       <c r="GE12" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="GF12" s="261"/>
       <c r="GG12" s="261"/>
       <c r="GH12" s="261"/>
       <c r="GI12" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="GJ12" s="261"/>
       <c r="GK12" s="261"/>
       <c r="GL12" s="261"/>
       <c r="GM12" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="GN12" s="261"/>
       <c r="GO12" s="261"/>
       <c r="GP12" s="261"/>
       <c r="GQ12" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="GR12" s="261"/>
       <c r="GS12" s="261"/>
       <c r="GT12" s="261"/>
       <c r="GU12" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="GV12" s="261"/>
       <c r="GW12" s="261"/>
       <c r="GX12" s="261"/>
       <c r="GY12" s="261" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="GZ12" s="261"/>
       <c r="HA12" s="261"/>
       <c r="HB12" s="261"/>
       <c r="HC12" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="HD12" s="261"/>
       <c r="HE12" s="261"/>
       <c r="HF12" s="261"/>
       <c r="HG12" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="HH12" s="261"/>
       <c r="HI12" s="261"/>
       <c r="HJ12" s="261"/>
       <c r="HK12" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="HL12" s="261"/>
       <c r="HM12" s="261"/>
       <c r="HN12" s="261"/>
       <c r="HO12" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="HP12" s="261"/>
       <c r="HQ12" s="261"/>
       <c r="HR12" s="261"/>
       <c r="HS12" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="HT12" s="261"/>
       <c r="HU12" s="261"/>
       <c r="HV12" s="261"/>
       <c r="HW12" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="HX12" s="261"/>
       <c r="HY12" s="261"/>
       <c r="HZ12" s="261"/>
       <c r="IA12" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="IB12" s="261"/>
       <c r="IC12" s="261"/>
       <c r="ID12" s="268"/>
     </row>
     <row r="13" spans="4:238" x14ac:dyDescent="0.4">
-      <c r="CM13" s="286" t="s">
+      <c r="CM13" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="CN13" s="286"/>
-      <c r="CO13" s="286"/>
+      <c r="CN13" s="289"/>
+      <c r="CO13" s="289"/>
       <c r="CP13" s="10"/>
-      <c r="CQ13" s="293" t="s">
+      <c r="CQ13" s="296" t="s">
         <v>14</v>
       </c>
       <c r="CR13" s="263"/>
@@ -25669,7 +25722,7 @@
       <c r="CN14" s="32"/>
       <c r="CO14" s="32"/>
       <c r="CP14" s="12"/>
-      <c r="CQ14" s="294"/>
+      <c r="CQ14" s="297"/>
       <c r="CR14" s="266"/>
       <c r="CS14" s="266"/>
       <c r="CT14" s="266"/>
@@ -25703,192 +25756,192 @@
       <c r="DV14" s="267"/>
     </row>
     <row r="15" spans="4:238" x14ac:dyDescent="0.4">
-      <c r="CM15" s="286" t="s">
-        <v>176</v>
-      </c>
-      <c r="CN15" s="286"/>
-      <c r="CO15" s="286"/>
+      <c r="CM15" s="289" t="s">
+        <v>168</v>
+      </c>
+      <c r="CN15" s="289"/>
+      <c r="CO15" s="289"/>
       <c r="CP15" s="10"/>
-      <c r="CQ15" s="276" t="s">
-        <v>183</v>
-      </c>
-      <c r="CR15" s="277"/>
-      <c r="CS15" s="277"/>
-      <c r="CT15" s="277"/>
-      <c r="CU15" s="277"/>
-      <c r="CV15" s="277"/>
-      <c r="CW15" s="277"/>
-      <c r="CX15" s="277"/>
-      <c r="CY15" s="277"/>
-      <c r="CZ15" s="277"/>
-      <c r="DA15" s="277"/>
-      <c r="DB15" s="277"/>
-      <c r="DC15" s="277"/>
-      <c r="DD15" s="277"/>
-      <c r="DE15" s="277"/>
-      <c r="DF15" s="277"/>
-      <c r="DG15" s="277"/>
-      <c r="DH15" s="277"/>
-      <c r="DI15" s="277"/>
-      <c r="DJ15" s="277"/>
-      <c r="DK15" s="277"/>
-      <c r="DL15" s="277"/>
-      <c r="DM15" s="277"/>
-      <c r="DN15" s="277"/>
-      <c r="DO15" s="277"/>
-      <c r="DP15" s="277"/>
-      <c r="DQ15" s="277"/>
-      <c r="DR15" s="277"/>
-      <c r="DS15" s="277"/>
-      <c r="DT15" s="277"/>
-      <c r="DU15" s="277"/>
-      <c r="DV15" s="278"/>
+      <c r="CQ15" s="278" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR15" s="279"/>
+      <c r="CS15" s="279"/>
+      <c r="CT15" s="279"/>
+      <c r="CU15" s="279"/>
+      <c r="CV15" s="279"/>
+      <c r="CW15" s="279"/>
+      <c r="CX15" s="279"/>
+      <c r="CY15" s="279"/>
+      <c r="CZ15" s="279"/>
+      <c r="DA15" s="279"/>
+      <c r="DB15" s="279"/>
+      <c r="DC15" s="279"/>
+      <c r="DD15" s="279"/>
+      <c r="DE15" s="279"/>
+      <c r="DF15" s="279"/>
+      <c r="DG15" s="279"/>
+      <c r="DH15" s="279"/>
+      <c r="DI15" s="279"/>
+      <c r="DJ15" s="279"/>
+      <c r="DK15" s="279"/>
+      <c r="DL15" s="279"/>
+      <c r="DM15" s="279"/>
+      <c r="DN15" s="279"/>
+      <c r="DO15" s="279"/>
+      <c r="DP15" s="279"/>
+      <c r="DQ15" s="279"/>
+      <c r="DR15" s="279"/>
+      <c r="DS15" s="279"/>
+      <c r="DT15" s="279"/>
+      <c r="DU15" s="279"/>
+      <c r="DV15" s="280"/>
     </row>
     <row r="16" spans="4:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="CM16" s="32"/>
       <c r="CN16" s="32"/>
       <c r="CO16" s="32"/>
       <c r="CP16" s="12"/>
-      <c r="CQ16" s="279" t="s">
-        <v>153</v>
+      <c r="CQ16" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="CR16" s="261"/>
       <c r="CS16" s="261"/>
       <c r="CT16" s="261"/>
       <c r="CU16" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CV16" s="261"/>
       <c r="CW16" s="261"/>
       <c r="CX16" s="261"/>
       <c r="CY16" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CZ16" s="261"/>
       <c r="DA16" s="261"/>
       <c r="DB16" s="261"/>
       <c r="DC16" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="DD16" s="261"/>
       <c r="DE16" s="261"/>
       <c r="DF16" s="261"/>
       <c r="DG16" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DH16" s="261"/>
       <c r="DI16" s="261"/>
       <c r="DJ16" s="261"/>
       <c r="DK16" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="DL16" s="261"/>
       <c r="DM16" s="261"/>
       <c r="DN16" s="261"/>
       <c r="DO16" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="DP16" s="261"/>
       <c r="DQ16" s="261"/>
       <c r="DR16" s="261"/>
       <c r="DS16" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="DT16" s="261"/>
       <c r="DU16" s="261"/>
       <c r="DV16" s="268"/>
     </row>
     <row r="17" spans="91:238" x14ac:dyDescent="0.4">
-      <c r="CM17" s="286" t="s">
-        <v>177</v>
-      </c>
-      <c r="CN17" s="286"/>
-      <c r="CO17" s="286"/>
+      <c r="CM17" s="289" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN17" s="289"/>
+      <c r="CO17" s="289"/>
       <c r="CP17" s="10"/>
-      <c r="CQ17" s="276" t="s">
-        <v>183</v>
-      </c>
-      <c r="CR17" s="277"/>
-      <c r="CS17" s="277"/>
-      <c r="CT17" s="277"/>
-      <c r="CU17" s="277"/>
-      <c r="CV17" s="277"/>
-      <c r="CW17" s="277"/>
-      <c r="CX17" s="277"/>
-      <c r="CY17" s="277"/>
-      <c r="CZ17" s="277"/>
-      <c r="DA17" s="277"/>
-      <c r="DB17" s="277"/>
-      <c r="DC17" s="277"/>
-      <c r="DD17" s="277"/>
-      <c r="DE17" s="277"/>
-      <c r="DF17" s="277"/>
-      <c r="DG17" s="277"/>
-      <c r="DH17" s="277"/>
-      <c r="DI17" s="277"/>
-      <c r="DJ17" s="277"/>
-      <c r="DK17" s="277"/>
-      <c r="DL17" s="277"/>
-      <c r="DM17" s="277"/>
-      <c r="DN17" s="277"/>
-      <c r="DO17" s="277"/>
-      <c r="DP17" s="277"/>
-      <c r="DQ17" s="277"/>
-      <c r="DR17" s="277"/>
-      <c r="DS17" s="277"/>
-      <c r="DT17" s="277"/>
-      <c r="DU17" s="277"/>
-      <c r="DV17" s="278"/>
+      <c r="CQ17" s="278" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR17" s="279"/>
+      <c r="CS17" s="279"/>
+      <c r="CT17" s="279"/>
+      <c r="CU17" s="279"/>
+      <c r="CV17" s="279"/>
+      <c r="CW17" s="279"/>
+      <c r="CX17" s="279"/>
+      <c r="CY17" s="279"/>
+      <c r="CZ17" s="279"/>
+      <c r="DA17" s="279"/>
+      <c r="DB17" s="279"/>
+      <c r="DC17" s="279"/>
+      <c r="DD17" s="279"/>
+      <c r="DE17" s="279"/>
+      <c r="DF17" s="279"/>
+      <c r="DG17" s="279"/>
+      <c r="DH17" s="279"/>
+      <c r="DI17" s="279"/>
+      <c r="DJ17" s="279"/>
+      <c r="DK17" s="279"/>
+      <c r="DL17" s="279"/>
+      <c r="DM17" s="279"/>
+      <c r="DN17" s="279"/>
+      <c r="DO17" s="279"/>
+      <c r="DP17" s="279"/>
+      <c r="DQ17" s="279"/>
+      <c r="DR17" s="279"/>
+      <c r="DS17" s="279"/>
+      <c r="DT17" s="279"/>
+      <c r="DU17" s="279"/>
+      <c r="DV17" s="280"/>
     </row>
     <row r="18" spans="91:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="CM18" s="32"/>
       <c r="CN18" s="32"/>
       <c r="CO18" s="32"/>
       <c r="CP18" s="12"/>
-      <c r="CQ18" s="279" t="s">
-        <v>166</v>
+      <c r="CQ18" s="281" t="s">
+        <v>158</v>
       </c>
       <c r="CR18" s="261"/>
       <c r="CS18" s="261"/>
       <c r="CT18" s="261"/>
       <c r="CU18" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CV18" s="261"/>
       <c r="CW18" s="261"/>
       <c r="CX18" s="261"/>
       <c r="CY18" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CZ18" s="261"/>
       <c r="DA18" s="261"/>
       <c r="DB18" s="261"/>
       <c r="DC18" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="DD18" s="261"/>
       <c r="DE18" s="261"/>
       <c r="DF18" s="261"/>
       <c r="DG18" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="DH18" s="261"/>
       <c r="DI18" s="261"/>
       <c r="DJ18" s="261"/>
       <c r="DK18" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="DL18" s="261"/>
       <c r="DM18" s="261"/>
       <c r="DN18" s="261"/>
       <c r="DO18" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="DP18" s="261"/>
       <c r="DQ18" s="261"/>
       <c r="DR18" s="261"/>
       <c r="DS18" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="DT18" s="261"/>
       <c r="DU18" s="261"/>
@@ -25896,112 +25949,112 @@
     </row>
     <row r="19" spans="91:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="FR19" s="2"/>
-      <c r="FS19" s="280" t="str">
+      <c r="FS19" s="282" t="str">
         <f>"+0"</f>
         <v>+0</v>
       </c>
       <c r="FT19" s="29"/>
       <c r="FU19" s="29"/>
       <c r="FV19" s="244"/>
-      <c r="FW19" s="280" t="str">
+      <c r="FW19" s="282" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
       <c r="FX19" s="29"/>
       <c r="FY19" s="29"/>
       <c r="FZ19" s="244"/>
-      <c r="GA19" s="280" t="str">
+      <c r="GA19" s="282" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
       <c r="GB19" s="29"/>
       <c r="GC19" s="29"/>
       <c r="GD19" s="244"/>
-      <c r="GE19" s="280" t="str">
+      <c r="GE19" s="282" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
       <c r="GF19" s="29"/>
       <c r="GG19" s="29"/>
       <c r="GH19" s="244"/>
-      <c r="GI19" s="280" t="str">
+      <c r="GI19" s="282" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
       <c r="GJ19" s="29"/>
       <c r="GK19" s="29"/>
       <c r="GL19" s="244"/>
-      <c r="GM19" s="280" t="str">
+      <c r="GM19" s="282" t="str">
         <f>"+5"</f>
         <v>+5</v>
       </c>
       <c r="GN19" s="29"/>
       <c r="GO19" s="29"/>
       <c r="GP19" s="244"/>
-      <c r="GQ19" s="284" t="str">
+      <c r="GQ19" s="286" t="str">
         <f>"+6"</f>
         <v>+6</v>
       </c>
       <c r="GR19" s="29"/>
       <c r="GS19" s="29"/>
       <c r="GT19" s="244"/>
-      <c r="GU19" s="280" t="str">
+      <c r="GU19" s="282" t="str">
         <f>"+7"</f>
         <v>+7</v>
       </c>
       <c r="GV19" s="29"/>
       <c r="GW19" s="29"/>
       <c r="GX19" s="244"/>
-      <c r="GY19" s="280" t="str">
+      <c r="GY19" s="282" t="str">
         <f>"+8"</f>
         <v>+8</v>
       </c>
       <c r="GZ19" s="29"/>
       <c r="HA19" s="29"/>
       <c r="HB19" s="244"/>
-      <c r="HC19" s="280" t="str">
+      <c r="HC19" s="282" t="str">
         <f>"+9"</f>
         <v>+9</v>
       </c>
       <c r="HD19" s="29"/>
       <c r="HE19" s="29"/>
       <c r="HF19" s="244"/>
-      <c r="HG19" s="280" t="str">
+      <c r="HG19" s="282" t="str">
         <f>"+10"</f>
         <v>+10</v>
       </c>
       <c r="HH19" s="29"/>
       <c r="HI19" s="29"/>
       <c r="HJ19" s="244"/>
-      <c r="HK19" s="280" t="str">
+      <c r="HK19" s="282" t="str">
         <f>"+11"</f>
         <v>+11</v>
       </c>
       <c r="HL19" s="29"/>
       <c r="HM19" s="29"/>
       <c r="HN19" s="244"/>
-      <c r="HO19" s="280" t="str">
+      <c r="HO19" s="282" t="str">
         <f>"+12"</f>
         <v>+12</v>
       </c>
       <c r="HP19" s="29"/>
       <c r="HQ19" s="29"/>
       <c r="HR19" s="244"/>
-      <c r="HS19" s="280" t="str">
+      <c r="HS19" s="282" t="str">
         <f>"+13"</f>
         <v>+13</v>
       </c>
       <c r="HT19" s="29"/>
       <c r="HU19" s="29"/>
       <c r="HV19" s="244"/>
-      <c r="HW19" s="280" t="str">
+      <c r="HW19" s="282" t="str">
         <f>"+14"</f>
         <v>+14</v>
       </c>
       <c r="HX19" s="29"/>
       <c r="HY19" s="29"/>
       <c r="HZ19" s="244"/>
-      <c r="IA19" s="280" t="str">
+      <c r="IA19" s="282" t="str">
         <f>"+15"</f>
         <v>+15</v>
       </c>
@@ -26016,12 +26069,12 @@
       <c r="FP20" s="269"/>
       <c r="FQ20" s="269"/>
       <c r="FR20" s="1"/>
-      <c r="FS20" s="281" t="s">
-        <v>146</v>
-      </c>
-      <c r="FT20" s="282"/>
-      <c r="FU20" s="282"/>
-      <c r="FV20" s="282"/>
+      <c r="FS20" s="283" t="s">
+        <v>439</v>
+      </c>
+      <c r="FT20" s="284"/>
+      <c r="FU20" s="284"/>
+      <c r="FV20" s="284"/>
       <c r="FW20" s="271" t="s">
         <v>1</v>
       </c>
@@ -26044,26 +26097,26 @@
       <c r="GN20" s="271"/>
       <c r="GO20" s="271"/>
       <c r="GP20" s="271"/>
-      <c r="GQ20" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="GR20" s="283"/>
-      <c r="GS20" s="283"/>
-      <c r="GT20" s="283"/>
-      <c r="GU20" s="283"/>
-      <c r="GV20" s="283"/>
-      <c r="GW20" s="283"/>
-      <c r="GX20" s="283"/>
-      <c r="GY20" s="285" t="s">
-        <v>162</v>
-      </c>
-      <c r="GZ20" s="277"/>
-      <c r="HA20" s="277"/>
-      <c r="HB20" s="277"/>
-      <c r="HC20" s="277"/>
-      <c r="HD20" s="277"/>
-      <c r="HE20" s="277"/>
-      <c r="HF20" s="277"/>
+      <c r="GQ20" s="285" t="s">
+        <v>443</v>
+      </c>
+      <c r="GR20" s="285"/>
+      <c r="GS20" s="285"/>
+      <c r="GT20" s="285"/>
+      <c r="GU20" s="285"/>
+      <c r="GV20" s="285"/>
+      <c r="GW20" s="285"/>
+      <c r="GX20" s="285"/>
+      <c r="GY20" s="287" t="s">
+        <v>442</v>
+      </c>
+      <c r="GZ20" s="279"/>
+      <c r="HA20" s="279"/>
+      <c r="HB20" s="279"/>
+      <c r="HC20" s="279"/>
+      <c r="HD20" s="279"/>
+      <c r="HE20" s="279"/>
+      <c r="HF20" s="279"/>
       <c r="HG20" s="262" t="s">
         <v>1</v>
       </c>
@@ -26096,8 +26149,8 @@
       <c r="FP21" s="32"/>
       <c r="FQ21" s="32"/>
       <c r="FR21" s="13"/>
-      <c r="FS21" s="279" t="s">
-        <v>134</v>
+      <c r="FS21" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT21" s="261"/>
       <c r="FU21" s="261"/>
@@ -26123,25 +26176,25 @@
       <c r="GO21" s="274"/>
       <c r="GP21" s="274"/>
       <c r="GQ21" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="GR21" s="261"/>
       <c r="GS21" s="261"/>
       <c r="GT21" s="261"/>
       <c r="GU21" s="261" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="GV21" s="261"/>
       <c r="GW21" s="261"/>
       <c r="GX21" s="261"/>
       <c r="GY21" s="260" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="GZ21" s="261"/>
       <c r="HA21" s="261"/>
       <c r="HB21" s="261"/>
       <c r="HC21" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="HD21" s="261"/>
       <c r="HE21" s="261"/>
@@ -26173,175 +26226,175 @@
     </row>
     <row r="22" spans="91:238" x14ac:dyDescent="0.4">
       <c r="FO22" s="269" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="FP22" s="269"/>
       <c r="FQ22" s="269"/>
       <c r="FR22" s="1"/>
-      <c r="FS22" s="276" t="s">
-        <v>182</v>
-      </c>
-      <c r="FT22" s="277"/>
-      <c r="FU22" s="277"/>
-      <c r="FV22" s="277"/>
-      <c r="FW22" s="277"/>
-      <c r="FX22" s="277"/>
-      <c r="FY22" s="277"/>
-      <c r="FZ22" s="277"/>
-      <c r="GA22" s="277"/>
-      <c r="GB22" s="277"/>
-      <c r="GC22" s="277"/>
-      <c r="GD22" s="277"/>
-      <c r="GE22" s="277"/>
-      <c r="GF22" s="277"/>
-      <c r="GG22" s="277"/>
-      <c r="GH22" s="277"/>
-      <c r="GI22" s="277"/>
-      <c r="GJ22" s="277"/>
-      <c r="GK22" s="277"/>
-      <c r="GL22" s="277"/>
-      <c r="GM22" s="277"/>
-      <c r="GN22" s="277"/>
-      <c r="GO22" s="277"/>
-      <c r="GP22" s="277"/>
-      <c r="GQ22" s="277"/>
-      <c r="GR22" s="277"/>
-      <c r="GS22" s="277"/>
-      <c r="GT22" s="277"/>
-      <c r="GU22" s="277"/>
-      <c r="GV22" s="277"/>
-      <c r="GW22" s="277"/>
-      <c r="GX22" s="277"/>
-      <c r="GY22" s="277"/>
-      <c r="GZ22" s="277"/>
-      <c r="HA22" s="277"/>
-      <c r="HB22" s="277"/>
-      <c r="HC22" s="277"/>
-      <c r="HD22" s="277"/>
-      <c r="HE22" s="277"/>
-      <c r="HF22" s="277"/>
-      <c r="HG22" s="277"/>
-      <c r="HH22" s="277"/>
-      <c r="HI22" s="277"/>
-      <c r="HJ22" s="277"/>
-      <c r="HK22" s="277"/>
-      <c r="HL22" s="277"/>
-      <c r="HM22" s="277"/>
-      <c r="HN22" s="277"/>
-      <c r="HO22" s="277"/>
-      <c r="HP22" s="277"/>
-      <c r="HQ22" s="277"/>
-      <c r="HR22" s="277"/>
-      <c r="HS22" s="277"/>
-      <c r="HT22" s="277"/>
-      <c r="HU22" s="277"/>
-      <c r="HV22" s="277"/>
-      <c r="HW22" s="277"/>
-      <c r="HX22" s="277"/>
-      <c r="HY22" s="277"/>
-      <c r="HZ22" s="277"/>
-      <c r="IA22" s="277"/>
-      <c r="IB22" s="277"/>
-      <c r="IC22" s="277"/>
-      <c r="ID22" s="278"/>
+      <c r="FS22" s="278" t="s">
+        <v>172</v>
+      </c>
+      <c r="FT22" s="279"/>
+      <c r="FU22" s="279"/>
+      <c r="FV22" s="279"/>
+      <c r="FW22" s="279"/>
+      <c r="FX22" s="279"/>
+      <c r="FY22" s="279"/>
+      <c r="FZ22" s="279"/>
+      <c r="GA22" s="279"/>
+      <c r="GB22" s="279"/>
+      <c r="GC22" s="279"/>
+      <c r="GD22" s="279"/>
+      <c r="GE22" s="279"/>
+      <c r="GF22" s="279"/>
+      <c r="GG22" s="279"/>
+      <c r="GH22" s="279"/>
+      <c r="GI22" s="279"/>
+      <c r="GJ22" s="279"/>
+      <c r="GK22" s="279"/>
+      <c r="GL22" s="279"/>
+      <c r="GM22" s="279"/>
+      <c r="GN22" s="279"/>
+      <c r="GO22" s="279"/>
+      <c r="GP22" s="279"/>
+      <c r="GQ22" s="279"/>
+      <c r="GR22" s="279"/>
+      <c r="GS22" s="279"/>
+      <c r="GT22" s="279"/>
+      <c r="GU22" s="279"/>
+      <c r="GV22" s="279"/>
+      <c r="GW22" s="279"/>
+      <c r="GX22" s="279"/>
+      <c r="GY22" s="279"/>
+      <c r="GZ22" s="279"/>
+      <c r="HA22" s="279"/>
+      <c r="HB22" s="279"/>
+      <c r="HC22" s="279"/>
+      <c r="HD22" s="279"/>
+      <c r="HE22" s="279"/>
+      <c r="HF22" s="279"/>
+      <c r="HG22" s="279"/>
+      <c r="HH22" s="279"/>
+      <c r="HI22" s="279"/>
+      <c r="HJ22" s="279"/>
+      <c r="HK22" s="279"/>
+      <c r="HL22" s="279"/>
+      <c r="HM22" s="279"/>
+      <c r="HN22" s="279"/>
+      <c r="HO22" s="279"/>
+      <c r="HP22" s="279"/>
+      <c r="HQ22" s="279"/>
+      <c r="HR22" s="279"/>
+      <c r="HS22" s="279"/>
+      <c r="HT22" s="279"/>
+      <c r="HU22" s="279"/>
+      <c r="HV22" s="279"/>
+      <c r="HW22" s="279"/>
+      <c r="HX22" s="279"/>
+      <c r="HY22" s="279"/>
+      <c r="HZ22" s="279"/>
+      <c r="IA22" s="279"/>
+      <c r="IB22" s="279"/>
+      <c r="IC22" s="279"/>
+      <c r="ID22" s="280"/>
     </row>
     <row r="23" spans="91:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="FO23" s="32"/>
       <c r="FP23" s="32"/>
       <c r="FQ23" s="32"/>
       <c r="FR23" s="13"/>
-      <c r="FS23" s="279" t="s">
-        <v>153</v>
+      <c r="FS23" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT23" s="261"/>
       <c r="FU23" s="261"/>
       <c r="FV23" s="261"/>
       <c r="FW23" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="FX23" s="261"/>
       <c r="FY23" s="261"/>
       <c r="FZ23" s="261"/>
       <c r="GA23" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="GB23" s="261"/>
       <c r="GC23" s="261"/>
       <c r="GD23" s="261"/>
       <c r="GE23" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="GF23" s="261"/>
       <c r="GG23" s="261"/>
       <c r="GH23" s="261"/>
       <c r="GI23" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="GJ23" s="261"/>
       <c r="GK23" s="261"/>
       <c r="GL23" s="261"/>
       <c r="GM23" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="GN23" s="261"/>
       <c r="GO23" s="261"/>
       <c r="GP23" s="261"/>
       <c r="GQ23" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="GR23" s="261"/>
       <c r="GS23" s="261"/>
       <c r="GT23" s="261"/>
       <c r="GU23" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="GV23" s="261"/>
       <c r="GW23" s="261"/>
       <c r="GX23" s="261"/>
       <c r="GY23" s="261" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="GZ23" s="261"/>
       <c r="HA23" s="261"/>
       <c r="HB23" s="261"/>
       <c r="HC23" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="HD23" s="261"/>
       <c r="HE23" s="261"/>
       <c r="HF23" s="261"/>
       <c r="HG23" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="HH23" s="261"/>
       <c r="HI23" s="261"/>
       <c r="HJ23" s="261"/>
       <c r="HK23" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="HL23" s="261"/>
       <c r="HM23" s="261"/>
       <c r="HN23" s="261"/>
       <c r="HO23" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="HP23" s="261"/>
       <c r="HQ23" s="261"/>
       <c r="HR23" s="261"/>
       <c r="HS23" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="HT23" s="261"/>
       <c r="HU23" s="261"/>
       <c r="HV23" s="261"/>
       <c r="HW23" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="HX23" s="261"/>
       <c r="HY23" s="261"/>
       <c r="HZ23" s="261"/>
       <c r="IA23" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="IB23" s="261"/>
       <c r="IC23" s="261"/>
@@ -26492,176 +26545,176 @@
       <c r="ID25" s="275"/>
     </row>
     <row r="26" spans="91:238" x14ac:dyDescent="0.4">
-      <c r="FO26" s="269" t="s">
-        <v>176</v>
-      </c>
-      <c r="FP26" s="269"/>
-      <c r="FQ26" s="269"/>
+      <c r="FO26" s="276" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP26" s="276"/>
+      <c r="FQ26" s="276"/>
       <c r="FR26" s="1"/>
-      <c r="FS26" s="276" t="s">
-        <v>183</v>
-      </c>
-      <c r="FT26" s="277"/>
-      <c r="FU26" s="277"/>
-      <c r="FV26" s="277"/>
-      <c r="FW26" s="277"/>
-      <c r="FX26" s="277"/>
-      <c r="FY26" s="277"/>
-      <c r="FZ26" s="277"/>
-      <c r="GA26" s="277"/>
-      <c r="GB26" s="277"/>
-      <c r="GC26" s="277"/>
-      <c r="GD26" s="277"/>
-      <c r="GE26" s="277"/>
-      <c r="GF26" s="277"/>
-      <c r="GG26" s="277"/>
-      <c r="GH26" s="277"/>
-      <c r="GI26" s="277"/>
-      <c r="GJ26" s="277"/>
-      <c r="GK26" s="277"/>
-      <c r="GL26" s="277"/>
-      <c r="GM26" s="277"/>
-      <c r="GN26" s="277"/>
-      <c r="GO26" s="277"/>
-      <c r="GP26" s="277"/>
-      <c r="GQ26" s="277"/>
-      <c r="GR26" s="277"/>
-      <c r="GS26" s="277"/>
-      <c r="GT26" s="277"/>
-      <c r="GU26" s="277"/>
-      <c r="GV26" s="277"/>
-      <c r="GW26" s="277"/>
-      <c r="GX26" s="277"/>
-      <c r="GY26" s="277"/>
-      <c r="GZ26" s="277"/>
-      <c r="HA26" s="277"/>
-      <c r="HB26" s="277"/>
-      <c r="HC26" s="277"/>
-      <c r="HD26" s="277"/>
-      <c r="HE26" s="277"/>
-      <c r="HF26" s="277"/>
-      <c r="HG26" s="277"/>
-      <c r="HH26" s="277"/>
-      <c r="HI26" s="277"/>
-      <c r="HJ26" s="277"/>
-      <c r="HK26" s="277"/>
-      <c r="HL26" s="277"/>
-      <c r="HM26" s="277"/>
-      <c r="HN26" s="277"/>
-      <c r="HO26" s="277"/>
-      <c r="HP26" s="277"/>
-      <c r="HQ26" s="277"/>
-      <c r="HR26" s="277"/>
-      <c r="HS26" s="277"/>
-      <c r="HT26" s="277"/>
-      <c r="HU26" s="277"/>
-      <c r="HV26" s="277"/>
-      <c r="HW26" s="277"/>
-      <c r="HX26" s="277"/>
-      <c r="HY26" s="277"/>
-      <c r="HZ26" s="277"/>
-      <c r="IA26" s="277"/>
-      <c r="IB26" s="277"/>
-      <c r="IC26" s="277"/>
-      <c r="ID26" s="278"/>
+      <c r="FS26" s="278" t="s">
+        <v>173</v>
+      </c>
+      <c r="FT26" s="279"/>
+      <c r="FU26" s="279"/>
+      <c r="FV26" s="279"/>
+      <c r="FW26" s="279"/>
+      <c r="FX26" s="279"/>
+      <c r="FY26" s="279"/>
+      <c r="FZ26" s="279"/>
+      <c r="GA26" s="279"/>
+      <c r="GB26" s="279"/>
+      <c r="GC26" s="279"/>
+      <c r="GD26" s="279"/>
+      <c r="GE26" s="279"/>
+      <c r="GF26" s="279"/>
+      <c r="GG26" s="279"/>
+      <c r="GH26" s="279"/>
+      <c r="GI26" s="279"/>
+      <c r="GJ26" s="279"/>
+      <c r="GK26" s="279"/>
+      <c r="GL26" s="279"/>
+      <c r="GM26" s="279"/>
+      <c r="GN26" s="279"/>
+      <c r="GO26" s="279"/>
+      <c r="GP26" s="279"/>
+      <c r="GQ26" s="279"/>
+      <c r="GR26" s="279"/>
+      <c r="GS26" s="279"/>
+      <c r="GT26" s="279"/>
+      <c r="GU26" s="279"/>
+      <c r="GV26" s="279"/>
+      <c r="GW26" s="279"/>
+      <c r="GX26" s="279"/>
+      <c r="GY26" s="279"/>
+      <c r="GZ26" s="279"/>
+      <c r="HA26" s="279"/>
+      <c r="HB26" s="279"/>
+      <c r="HC26" s="279"/>
+      <c r="HD26" s="279"/>
+      <c r="HE26" s="279"/>
+      <c r="HF26" s="279"/>
+      <c r="HG26" s="279"/>
+      <c r="HH26" s="279"/>
+      <c r="HI26" s="279"/>
+      <c r="HJ26" s="279"/>
+      <c r="HK26" s="279"/>
+      <c r="HL26" s="279"/>
+      <c r="HM26" s="279"/>
+      <c r="HN26" s="279"/>
+      <c r="HO26" s="279"/>
+      <c r="HP26" s="279"/>
+      <c r="HQ26" s="279"/>
+      <c r="HR26" s="279"/>
+      <c r="HS26" s="279"/>
+      <c r="HT26" s="279"/>
+      <c r="HU26" s="279"/>
+      <c r="HV26" s="279"/>
+      <c r="HW26" s="279"/>
+      <c r="HX26" s="279"/>
+      <c r="HY26" s="279"/>
+      <c r="HZ26" s="279"/>
+      <c r="IA26" s="279"/>
+      <c r="IB26" s="279"/>
+      <c r="IC26" s="279"/>
+      <c r="ID26" s="280"/>
     </row>
     <row r="27" spans="91:238" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="FO27" s="32"/>
-      <c r="FP27" s="32"/>
-      <c r="FQ27" s="32"/>
+      <c r="FO27" s="277"/>
+      <c r="FP27" s="277"/>
+      <c r="FQ27" s="277"/>
       <c r="FR27" s="13"/>
-      <c r="FS27" s="279" t="s">
-        <v>153</v>
+      <c r="FS27" s="281" t="s">
+        <v>151</v>
       </c>
       <c r="FT27" s="261"/>
       <c r="FU27" s="261"/>
       <c r="FV27" s="261"/>
       <c r="FW27" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="FX27" s="261"/>
       <c r="FY27" s="261"/>
       <c r="FZ27" s="261"/>
       <c r="GA27" s="261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="GB27" s="261"/>
       <c r="GC27" s="261"/>
       <c r="GD27" s="261"/>
       <c r="GE27" s="261" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="GF27" s="261"/>
       <c r="GG27" s="261"/>
       <c r="GH27" s="261"/>
       <c r="GI27" s="261" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="GJ27" s="261"/>
       <c r="GK27" s="261"/>
       <c r="GL27" s="261"/>
       <c r="GM27" s="261" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="GN27" s="261"/>
       <c r="GO27" s="261"/>
       <c r="GP27" s="261"/>
       <c r="GQ27" s="261" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="GR27" s="261"/>
       <c r="GS27" s="261"/>
       <c r="GT27" s="261"/>
       <c r="GU27" s="261" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="GV27" s="261"/>
       <c r="GW27" s="261"/>
       <c r="GX27" s="261"/>
       <c r="GY27" s="261" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="GZ27" s="261"/>
       <c r="HA27" s="261"/>
       <c r="HB27" s="261"/>
       <c r="HC27" s="261" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="HD27" s="261"/>
       <c r="HE27" s="261"/>
       <c r="HF27" s="261"/>
       <c r="HG27" s="261" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="HH27" s="261"/>
       <c r="HI27" s="261"/>
       <c r="HJ27" s="261"/>
       <c r="HK27" s="261" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="HL27" s="261"/>
       <c r="HM27" s="261"/>
       <c r="HN27" s="261"/>
       <c r="HO27" s="261" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="HP27" s="261"/>
       <c r="HQ27" s="261"/>
       <c r="HR27" s="261"/>
       <c r="HS27" s="261" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="HT27" s="261"/>
       <c r="HU27" s="261"/>
       <c r="HV27" s="261"/>
       <c r="HW27" s="261" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="HX27" s="261"/>
       <c r="HY27" s="261"/>
       <c r="HZ27" s="261"/>
       <c r="IA27" s="261" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="IB27" s="261"/>
       <c r="IC27" s="261"/>

--- a/manuals/feedback_figures/figures.xlsx
+++ b/manuals/feedback_figures/figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.213\local\koike\proj\e7awg_sw\manuals\feedback_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E85C69-0229-4F75-A89A-7E419E53D848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5663DA-2F11-47CC-BDC1-6254C0792C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" tabRatio="669" activeTab="4" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" tabRatio="669" xr2:uid="{B803739A-C1C9-4218-A586-EC4A5DED1E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="588">
   <si>
     <t>AWG スタートコマンド</t>
     <phoneticPr fontId="1"/>
@@ -3799,6 +3799,54 @@
   </si>
   <si>
     <t>44 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形パラメータ選択コマンド</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四値チャネル ID</t>
+    <rPh sb="0" eb="1">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速フィードバックコマンド</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23 bits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速フィードバックコマンドエラー</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形パラメータ選択コマンドエラーレポート</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5306,6 +5354,60 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5334,63 +5436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5448,6 +5493,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5630,15 +5678,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5669,8 +5708,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5690,19 +5744,16 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5726,6 +5777,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5739,12 +5796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5764,9 +5815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7291,15 +7339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>622380</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101166</xdr:rowOff>
+      <xdr:colOff>608773</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>475068</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>200557</xdr:rowOff>
+      <xdr:colOff>461461</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>218307</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7314,8 +7362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11508094" y="12592523"/>
-          <a:ext cx="1893760" cy="1813891"/>
+          <a:off x="11494487" y="8347096"/>
+          <a:ext cx="1893760" cy="2158211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7401,15 +7449,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>651782</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>164056</xdr:rowOff>
+      <xdr:colOff>42422</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>677518</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>204758</xdr:rowOff>
+      <xdr:colOff>663911</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>218306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7424,8 +7472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8816068" y="12655413"/>
-          <a:ext cx="1386450" cy="1755202"/>
+          <a:off x="8206708" y="8338812"/>
+          <a:ext cx="1982203" cy="2166494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7487,16 +7535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>540146</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>148201</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42422</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>674561</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176952</xdr:rowOff>
+      <xdr:colOff>660954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7511,8 +7559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9384789" y="13129415"/>
-          <a:ext cx="814772" cy="273680"/>
+          <a:off x="8206708" y="8983728"/>
+          <a:ext cx="1979246" cy="314373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,29 +7592,23 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>フィードバックチャネル </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Ch</a:t>
+            <a:t>0</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> 0</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7574,16 +7616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537543</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>34965</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87596</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>671958</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>160387</xdr:rowOff>
+      <xdr:colOff>658351</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7598,8 +7640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9382186" y="13995894"/>
-          <a:ext cx="814772" cy="370350"/>
+          <a:off x="8251882" y="10083136"/>
+          <a:ext cx="1931469" cy="370351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7631,29 +7673,23 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>フィードバックチャネル </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Ch</a:t>
+            <a:t>7</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> 7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7662,15 +7698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>448505</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25616</xdr:rowOff>
+      <xdr:colOff>434898</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>268889</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>237414</xdr:rowOff>
+      <xdr:colOff>255282</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>223807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7685,7 +7721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14736005" y="11782187"/>
+          <a:off x="14722398" y="7849723"/>
           <a:ext cx="2541813" cy="2661084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7749,15 +7785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>450514</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>73834</xdr:rowOff>
+      <xdr:colOff>436907</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>268888</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1953</xdr:rowOff>
+      <xdr:colOff>255281</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>233274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7772,7 +7808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14738014" y="12320263"/>
+          <a:off x="14724407" y="8387798"/>
           <a:ext cx="2539803" cy="417976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7849,15 +7885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>453827</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>182750</xdr:rowOff>
+      <xdr:colOff>440220</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>272201</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>117673</xdr:rowOff>
+      <xdr:colOff>258594</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7872,7 +7908,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14741327" y="12919036"/>
+          <a:off x="14727720" y="8986571"/>
           <a:ext cx="2539803" cy="424780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7949,15 +7985,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>448857</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177774</xdr:rowOff>
+      <xdr:colOff>435250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>267231</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>112696</xdr:rowOff>
+      <xdr:colOff>253624</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>99089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7972,8 +8008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14736357" y="13893774"/>
-          <a:ext cx="2539803" cy="424779"/>
+          <a:off x="14722750" y="9961309"/>
+          <a:ext cx="2539803" cy="424780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8049,15 +8085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>158671</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24255</xdr:rowOff>
+      <xdr:colOff>145064</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>573985</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>229136</xdr:rowOff>
+      <xdr:colOff>560378</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>215528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8072,7 +8108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15667173" y="13390110"/>
+          <a:off x="15653566" y="9457645"/>
           <a:ext cx="694738" cy="415314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8121,16 +8157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>535176</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>234340</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87596</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>669591</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18162</xdr:rowOff>
+      <xdr:colOff>655984</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8145,8 +8181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9379819" y="13460483"/>
-          <a:ext cx="814772" cy="273679"/>
+          <a:off x="8251882" y="9446915"/>
+          <a:ext cx="1929102" cy="268946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8178,29 +8214,23 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>フィードバックチャネル </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Ch</a:t>
+            <a:t>1</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> 1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8209,15 +8239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>474424</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50315</xdr:rowOff>
+      <xdr:colOff>460817</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>461282</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50315</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36708</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8232,7 +8262,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13401210" y="13521386"/>
+          <a:off x="13387603" y="9588922"/>
           <a:ext cx="1347572" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8265,16 +8295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28779</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>73155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>617411</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28779</xdr:rowOff>
+      <xdr:colOff>603804</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>73155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8289,7 +8319,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10205357" y="13254922"/>
+          <a:off x="10191750" y="9135512"/>
           <a:ext cx="1297768" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8322,16 +8352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>111368</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>620724</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>111368</xdr:rowOff>
+      <xdr:colOff>607117</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8346,7 +8376,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10214882" y="13582439"/>
+          <a:off x="10201275" y="9575441"/>
           <a:ext cx="1291556" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8379,16 +8409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>238921</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>225314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>615754</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>238921</xdr:rowOff>
+      <xdr:colOff>602147</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>225314</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8403,7 +8433,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10205357" y="14199850"/>
+          <a:off x="10191750" y="10267385"/>
           <a:ext cx="1296111" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8436,16 +8466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555821</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>87798</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239655</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>62985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>199966</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>43018</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>567359</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8460,8 +8490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10578426" y="13741621"/>
-          <a:ext cx="690006" cy="324502"/>
+          <a:off x="8903147" y="9796350"/>
+          <a:ext cx="690006" cy="327704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8510,15 +8540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>661306</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>632732</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>231444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8533,8 +8563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10186306" y="12820650"/>
-          <a:ext cx="1332140" cy="342900"/>
+          <a:off x="10172699" y="8701240"/>
+          <a:ext cx="1332140" cy="347633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8581,15 +8611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>480331</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>151039</xdr:rowOff>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>4083</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>235404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8604,7 +8634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13407117" y="13132253"/>
+          <a:off x="13393510" y="9199789"/>
           <a:ext cx="1332140" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15390,6 +15420,2243 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C9D58E-8DED-11AD-854D-838D4FE56848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="1905000"/>
+          <a:ext cx="4171950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37A926A-844F-4328-9877-315C7E4C0B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087099" y="1724025"/>
+          <a:ext cx="571501" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AWG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9CC812-E9CB-4D77-B4D4-AFC1B1CE3B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="2619375"/>
+          <a:ext cx="4181475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E83C770-BCB9-435A-8DEE-9AB26E98898F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086976" y="2447925"/>
+          <a:ext cx="1562100" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャプチャユニット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BC6B2B-61B6-F37F-F4C2-422F5A88E246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12185431" y="1686910"/>
+          <a:ext cx="0" cy="417458"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE34CC9-CEE5-4DDA-830C-B160ABAF2250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677649" y="1133475"/>
+          <a:ext cx="1114426" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>波形出力開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B31DE3-7613-427B-A9FC-F8A10B8FBFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12487603" y="2399315"/>
+          <a:ext cx="0" cy="407932"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A893EA4-78FE-4DD2-97E1-7FA33D8CA4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11915774" y="2886075"/>
+          <a:ext cx="1228726" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャプチャ開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04744CFA-4758-4165-A469-9A8C292C52F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13730123" y="2395045"/>
+          <a:ext cx="0" cy="406290"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F9BE02-BA73-4CC0-8FB6-A185DD08A4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13125449" y="2886075"/>
+          <a:ext cx="1323976" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>四値化結果出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C23097D-450D-4DA5-BF5B-2D82F3C6116C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14053973" y="1689209"/>
+          <a:ext cx="0" cy="415816"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438148</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB1BBD9-83B8-47BB-B8DF-7B04698E6D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468348" y="1371599"/>
+          <a:ext cx="1314451" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>波形出力準備開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017EC713-41D2-4775-A7B3-46D82F753591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15410793" y="1686910"/>
+          <a:ext cx="0" cy="417458"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DCB587-32C8-46A7-995E-7D44426E6BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14916149" y="1133475"/>
+          <a:ext cx="1114426" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>波形出力開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B3E388-A15F-74C6-1D85-9F06421B5807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="1924050"/>
+          <a:ext cx="247650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="897" name="直線コネクタ 896">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A0E1AB-99F3-4C09-9186-5C8CC5444D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13782675" y="1971675"/>
+          <a:ext cx="266700" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="906" name="正方形/長方形 905">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6261F3-6118-4228-AD43-8C0FDF70D682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15459074" y="2686050"/>
+          <a:ext cx="571501" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="908" name="正方形/長方形 907">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214BF838-859B-4539-B023-1A0382955590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11452066" y="12504965"/>
+          <a:ext cx="1760470" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>capture</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> unit 0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>621490</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="909" name="正方形/長方形 908">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FE5384-3CCA-4A64-8627-42E5F86B4C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164287" y="12042322"/>
+          <a:ext cx="1982203" cy="2422071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>sequencer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64834</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>618533</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="910" name="正方形/長方形 909">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513ECED6-53D6-4AA1-A154-1AE1D5791B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8909477" y="12575276"/>
+          <a:ext cx="1234056" cy="309639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>四値チャネル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20010</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>615930</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="911" name="正方形/長方形 910">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A513F06B-DD76-4477-A031-3003B1616A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8864653" y="13961023"/>
+          <a:ext cx="1276277" cy="370351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>四値チャネル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143274</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>613562</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>218512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="912" name="正方形/長方形 911">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09332F77-742C-49CE-9AAF-D32A890173C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8987917" y="13161451"/>
+          <a:ext cx="1150645" cy="283204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>四値チャネル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624329</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>235701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561383</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>235701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="913" name="直線矢印コネクタ 912">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0269A9-89DC-48BA-AEE0-FCF0EC0532ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10149329" y="12727058"/>
+          <a:ext cx="1297768" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>633854</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564696</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73359</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="914" name="直線矢印コネクタ 913">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78078D02-4CFF-40A5-BF3F-ED9A5127CC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10158854" y="13299502"/>
+          <a:ext cx="1291556" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624329</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>184343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559726</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>184343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="915" name="直線矢印コネクタ 914">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDB9F0C-DCC3-4659-9D19-0A48F2C01FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10149329" y="14145272"/>
+          <a:ext cx="1296111" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555821</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199966</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="916" name="正方形/長方形 915">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323A80EA-AC9E-4C87-9A6B-D308C682BEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9325672" y="13571563"/>
+          <a:ext cx="474085" cy="324502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101015</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>479454</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>211565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="917" name="正方形/長方形 916">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED6DF88-4220-4B01-9241-B5EA381C44E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306372" y="12360021"/>
+          <a:ext cx="1058796" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>四値化結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>568718</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>94068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288116</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="918" name="正方形/長方形 917">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976BBC7A-8496-49B9-9977-25D659D90667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11454432" y="13075282"/>
+          <a:ext cx="1760470" cy="440162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>capture</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> unit 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>572032</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>213335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291430</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="919" name="正方形/長方形 918">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACF62A6-DAE8-4540-BE56-1239055FC03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457746" y="13929335"/>
+          <a:ext cx="1760470" cy="440162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>capture</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> unit 7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>623057</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>34104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>267202</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>18331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="920" name="正方形/長方形 919">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED20606F-B382-4BC2-81BA-5AD9E8C5AB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12114337" y="13579966"/>
+          <a:ext cx="474085" cy="324503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>481703</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125848</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="923" name="正方形/長方形 922">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44E1D56-1ABD-4E12-916B-88DE66BE5379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10504308" y="9782263"/>
+          <a:ext cx="690006" cy="324502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15423,7 +17690,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$56:$AC$90" spid="_x0000_s7186"/>
+                  <a14:cameraTool cellRange="$D$56:$AC$90" spid="_x0000_s7201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -16933,9 +19200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16973,7 +19240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -17079,7 +19346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17221,7 +19488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17231,8 +19498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32464CC0-44C2-4C2E-BBF8-ABA83C5B22DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21061,7 +23328,7 @@
       <c r="Q5" s="139"/>
       <c r="R5" s="139"/>
       <c r="S5" s="139"/>
-      <c r="T5" s="113"/>
+      <c r="T5" s="102"/>
       <c r="U5" s="138" t="s">
         <v>61</v>
       </c>
@@ -21070,7 +23337,7 @@
       <c r="X5" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="113"/>
+      <c r="Y5" s="102"/>
       <c r="Z5" s="138" t="s">
         <v>63</v>
       </c>
@@ -21078,11 +23345,11 @@
       <c r="AB5" s="139"/>
       <c r="AC5" s="139"/>
       <c r="AD5" s="139"/>
-      <c r="AE5" s="113"/>
+      <c r="AE5" s="102"/>
       <c r="AF5" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="AG5" s="113"/>
+      <c r="AG5" s="102"/>
       <c r="AH5" s="140" t="s">
         <v>65</v>
       </c>
@@ -21463,7 +23730,7 @@
       <c r="BR11" s="29"/>
       <c r="BS11" s="29"/>
       <c r="BT11" s="29"/>
-      <c r="CE11" s="119" t="s">
+      <c r="CE11" s="118" t="s">
         <v>241</v>
       </c>
       <c r="CF11" s="33"/>
@@ -21664,28 +23931,28 @@
       <c r="BA14" s="154"/>
       <c r="BB14" s="154"/>
       <c r="BC14" s="155"/>
-      <c r="BM14" s="120" t="s">
+      <c r="BM14" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="BN14" s="121"/>
-      <c r="BO14" s="121"/>
-      <c r="BP14" s="121"/>
-      <c r="BQ14" s="121"/>
-      <c r="BR14" s="121"/>
-      <c r="BS14" s="121"/>
-      <c r="BT14" s="121"/>
+      <c r="BN14" s="120"/>
+      <c r="BO14" s="120"/>
+      <c r="BP14" s="120"/>
+      <c r="BQ14" s="120"/>
+      <c r="BR14" s="120"/>
+      <c r="BS14" s="120"/>
+      <c r="BT14" s="120"/>
       <c r="BV14" s="69"/>
       <c r="BW14" s="69"/>
       <c r="BX14" s="69"/>
-      <c r="CE14" s="122" t="s">
+      <c r="CE14" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="CF14" s="123"/>
-      <c r="CG14" s="123"/>
-      <c r="CH14" s="123"/>
-      <c r="CI14" s="123"/>
-      <c r="CJ14" s="123"/>
-      <c r="CK14" s="123"/>
+      <c r="CF14" s="122"/>
+      <c r="CG14" s="122"/>
+      <c r="CH14" s="122"/>
+      <c r="CI14" s="122"/>
+      <c r="CJ14" s="122"/>
+      <c r="CK14" s="122"/>
       <c r="CL14" s="55"/>
       <c r="CN14" s="69" t="str">
         <f>DEC2HEX(HEX2DEC(400)*1)</f>
@@ -21739,22 +24006,22 @@
       <c r="BA15" s="165"/>
       <c r="BB15" s="165"/>
       <c r="BC15" s="166"/>
-      <c r="BM15" s="121"/>
-      <c r="BN15" s="121"/>
-      <c r="BO15" s="121"/>
-      <c r="BP15" s="121"/>
-      <c r="BQ15" s="121"/>
-      <c r="BR15" s="121"/>
-      <c r="BS15" s="121"/>
-      <c r="BT15" s="121"/>
-      <c r="CE15" s="124"/>
-      <c r="CF15" s="125"/>
-      <c r="CG15" s="125"/>
-      <c r="CH15" s="125"/>
-      <c r="CI15" s="125"/>
-      <c r="CJ15" s="125"/>
-      <c r="CK15" s="125"/>
-      <c r="CL15" s="126"/>
+      <c r="BM15" s="120"/>
+      <c r="BN15" s="120"/>
+      <c r="BO15" s="120"/>
+      <c r="BP15" s="120"/>
+      <c r="BQ15" s="120"/>
+      <c r="BR15" s="120"/>
+      <c r="BS15" s="120"/>
+      <c r="BT15" s="120"/>
+      <c r="CE15" s="123"/>
+      <c r="CF15" s="124"/>
+      <c r="CG15" s="124"/>
+      <c r="CH15" s="124"/>
+      <c r="CI15" s="124"/>
+      <c r="CJ15" s="124"/>
+      <c r="CK15" s="124"/>
+      <c r="CL15" s="125"/>
     </row>
     <row r="16" spans="12:98" x14ac:dyDescent="0.4">
       <c r="L16" s="170"/>
@@ -21784,7 +24051,7 @@
       <c r="AF16" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="AG16" s="113"/>
+      <c r="AG16" s="102"/>
       <c r="AH16" s="185" t="s">
         <v>86</v>
       </c>
@@ -21809,22 +24076,22 @@
       <c r="BA16" s="186"/>
       <c r="BB16" s="186"/>
       <c r="BC16" s="187"/>
-      <c r="BM16" s="121"/>
-      <c r="BN16" s="121"/>
-      <c r="BO16" s="121"/>
-      <c r="BP16" s="121"/>
-      <c r="BQ16" s="121"/>
-      <c r="BR16" s="121"/>
-      <c r="BS16" s="121"/>
-      <c r="BT16" s="121"/>
-      <c r="CE16" s="127"/>
-      <c r="CF16" s="128"/>
-      <c r="CG16" s="128"/>
-      <c r="CH16" s="128"/>
-      <c r="CI16" s="128"/>
-      <c r="CJ16" s="128"/>
-      <c r="CK16" s="128"/>
-      <c r="CL16" s="129"/>
+      <c r="BM16" s="120"/>
+      <c r="BN16" s="120"/>
+      <c r="BO16" s="120"/>
+      <c r="BP16" s="120"/>
+      <c r="BQ16" s="120"/>
+      <c r="BR16" s="120"/>
+      <c r="BS16" s="120"/>
+      <c r="BT16" s="120"/>
+      <c r="CE16" s="126"/>
+      <c r="CF16" s="127"/>
+      <c r="CG16" s="127"/>
+      <c r="CH16" s="127"/>
+      <c r="CI16" s="127"/>
+      <c r="CJ16" s="127"/>
+      <c r="CK16" s="127"/>
+      <c r="CL16" s="128"/>
     </row>
     <row r="17" spans="12:120" x14ac:dyDescent="0.4">
       <c r="L17" s="170"/>
@@ -22078,16 +24345,16 @@
       <c r="BA20" s="181"/>
       <c r="BB20" s="181"/>
       <c r="BC20" s="181"/>
-      <c r="CE20" s="130" t="s">
+      <c r="CE20" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="CF20" s="131"/>
-      <c r="CG20" s="131"/>
-      <c r="CH20" s="131"/>
-      <c r="CI20" s="131"/>
-      <c r="CJ20" s="131"/>
-      <c r="CK20" s="131"/>
-      <c r="CL20" s="132"/>
+      <c r="CF20" s="130"/>
+      <c r="CG20" s="130"/>
+      <c r="CH20" s="130"/>
+      <c r="CI20" s="130"/>
+      <c r="CJ20" s="130"/>
+      <c r="CK20" s="130"/>
+      <c r="CL20" s="131"/>
       <c r="CN20" s="69" t="str">
         <f>DEC2HEX(HEX2DEC(400)*511)</f>
         <v>7FC00</v>
@@ -22152,14 +24419,14 @@
       <c r="BA21" s="154"/>
       <c r="BB21" s="154"/>
       <c r="BC21" s="155"/>
-      <c r="CE21" s="133"/>
-      <c r="CF21" s="125"/>
-      <c r="CG21" s="125"/>
-      <c r="CH21" s="125"/>
-      <c r="CI21" s="125"/>
-      <c r="CJ21" s="125"/>
-      <c r="CK21" s="125"/>
-      <c r="CL21" s="134"/>
+      <c r="CE21" s="132"/>
+      <c r="CF21" s="124"/>
+      <c r="CG21" s="124"/>
+      <c r="CH21" s="124"/>
+      <c r="CI21" s="124"/>
+      <c r="CJ21" s="124"/>
+      <c r="CK21" s="124"/>
+      <c r="CL21" s="133"/>
     </row>
     <row r="22" spans="12:120" x14ac:dyDescent="0.4">
       <c r="L22" s="173"/>
@@ -22214,14 +24481,14 @@
       <c r="BA22" s="181"/>
       <c r="BB22" s="181"/>
       <c r="BC22" s="181"/>
-      <c r="CE22" s="135"/>
-      <c r="CF22" s="136"/>
-      <c r="CG22" s="136"/>
-      <c r="CH22" s="136"/>
-      <c r="CI22" s="136"/>
-      <c r="CJ22" s="136"/>
-      <c r="CK22" s="136"/>
-      <c r="CL22" s="137"/>
+      <c r="CE22" s="134"/>
+      <c r="CF22" s="135"/>
+      <c r="CG22" s="135"/>
+      <c r="CH22" s="135"/>
+      <c r="CI22" s="135"/>
+      <c r="CJ22" s="135"/>
+      <c r="CK22" s="135"/>
+      <c r="CL22" s="136"/>
     </row>
     <row r="23" spans="12:120" x14ac:dyDescent="0.4">
       <c r="L23" s="167" t="s">
@@ -22495,14 +24762,14 @@
       <c r="CT26" s="68"/>
       <c r="CU26" s="68"/>
       <c r="CV26" s="68"/>
-      <c r="CW26" s="109" t="s">
+      <c r="CW26" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="CX26" s="109"/>
-      <c r="CY26" s="109"/>
-      <c r="CZ26" s="109"/>
-      <c r="DA26" s="109"/>
-      <c r="DB26" s="109"/>
+      <c r="CX26" s="137"/>
+      <c r="CY26" s="137"/>
+      <c r="CZ26" s="137"/>
+      <c r="DA26" s="137"/>
+      <c r="DB26" s="137"/>
       <c r="DC26" s="67" t="s">
         <v>172</v>
       </c>
@@ -24206,16 +26473,16 @@
       <c r="BR45" s="31"/>
       <c r="BS45" s="31"/>
       <c r="BT45" s="31"/>
-      <c r="CC45" s="90" t="s">
+      <c r="CC45" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="CD45" s="91"/>
-      <c r="CE45" s="91"/>
-      <c r="CF45" s="91"/>
-      <c r="CG45" s="91"/>
-      <c r="CH45" s="91"/>
-      <c r="CI45" s="91"/>
-      <c r="CJ45" s="91"/>
+      <c r="CD45" s="109"/>
+      <c r="CE45" s="109"/>
+      <c r="CF45" s="109"/>
+      <c r="CG45" s="109"/>
+      <c r="CH45" s="109"/>
+      <c r="CI45" s="109"/>
+      <c r="CJ45" s="109"/>
       <c r="CL45" s="69" t="str">
         <f>"0x"&amp;0</f>
         <v>0x0</v>
@@ -24288,14 +26555,14 @@
       <c r="BR46" s="31"/>
       <c r="BS46" s="31"/>
       <c r="BT46" s="31"/>
-      <c r="CC46" s="91"/>
-      <c r="CD46" s="91"/>
-      <c r="CE46" s="91"/>
-      <c r="CF46" s="91"/>
-      <c r="CG46" s="91"/>
-      <c r="CH46" s="91"/>
-      <c r="CI46" s="91"/>
-      <c r="CJ46" s="91"/>
+      <c r="CC46" s="109"/>
+      <c r="CD46" s="109"/>
+      <c r="CE46" s="109"/>
+      <c r="CF46" s="109"/>
+      <c r="CG46" s="109"/>
+      <c r="CH46" s="109"/>
+      <c r="CI46" s="109"/>
+      <c r="CJ46" s="109"/>
     </row>
     <row r="47" spans="12:116" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L47" s="138" t="s">
@@ -24308,7 +26575,7 @@
       <c r="Q47" s="139"/>
       <c r="R47" s="139"/>
       <c r="S47" s="139"/>
-      <c r="T47" s="113"/>
+      <c r="T47" s="102"/>
       <c r="U47" s="138" t="s">
         <v>132</v>
       </c>
@@ -24317,7 +26584,7 @@
       <c r="X47" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="Y47" s="113"/>
+      <c r="Y47" s="102"/>
       <c r="Z47" s="138" t="s">
         <v>133</v>
       </c>
@@ -24325,11 +26592,11 @@
       <c r="AB47" s="139"/>
       <c r="AC47" s="139"/>
       <c r="AD47" s="139"/>
-      <c r="AE47" s="113"/>
+      <c r="AE47" s="102"/>
       <c r="AF47" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="AG47" s="113"/>
+      <c r="AG47" s="102"/>
       <c r="AH47" s="185" t="s">
         <v>135</v>
       </c>
@@ -24362,14 +26629,14 @@
       <c r="BR47" s="31"/>
       <c r="BS47" s="31"/>
       <c r="BT47" s="31"/>
-      <c r="CC47" s="91"/>
-      <c r="CD47" s="91"/>
-      <c r="CE47" s="91"/>
-      <c r="CF47" s="91"/>
-      <c r="CG47" s="91"/>
-      <c r="CH47" s="91"/>
-      <c r="CI47" s="91"/>
-      <c r="CJ47" s="91"/>
+      <c r="CC47" s="109"/>
+      <c r="CD47" s="109"/>
+      <c r="CE47" s="109"/>
+      <c r="CF47" s="109"/>
+      <c r="CG47" s="109"/>
+      <c r="CH47" s="109"/>
+      <c r="CI47" s="109"/>
+      <c r="CJ47" s="109"/>
       <c r="CU47" s="20"/>
       <c r="CV47" s="20"/>
       <c r="CW47" s="20"/>
@@ -24382,30 +26649,30 @@
       <c r="DD47" s="20"/>
     </row>
     <row r="48" spans="12:116" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BM48" s="100" t="s">
+      <c r="BM48" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="BN48" s="101"/>
-      <c r="BO48" s="101"/>
-      <c r="BP48" s="101"/>
-      <c r="BQ48" s="101"/>
-      <c r="BR48" s="101"/>
-      <c r="BS48" s="101"/>
-      <c r="BT48" s="101"/>
-      <c r="BU48" s="102"/>
+      <c r="BN48" s="91"/>
+      <c r="BO48" s="91"/>
+      <c r="BP48" s="91"/>
+      <c r="BQ48" s="91"/>
+      <c r="BR48" s="91"/>
+      <c r="BS48" s="91"/>
+      <c r="BT48" s="91"/>
+      <c r="BU48" s="92"/>
       <c r="BV48" s="69"/>
       <c r="BW48" s="69"/>
       <c r="BX48" s="69"/>
-      <c r="CC48" s="92" t="s">
+      <c r="CC48" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="CD48" s="93"/>
-      <c r="CE48" s="93"/>
-      <c r="CF48" s="93"/>
-      <c r="CG48" s="93"/>
-      <c r="CH48" s="93"/>
-      <c r="CI48" s="93"/>
-      <c r="CJ48" s="94"/>
+      <c r="CD48" s="111"/>
+      <c r="CE48" s="111"/>
+      <c r="CF48" s="111"/>
+      <c r="CG48" s="111"/>
+      <c r="CH48" s="111"/>
+      <c r="CI48" s="111"/>
+      <c r="CJ48" s="112"/>
       <c r="CL48" s="69" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(400)*1)</f>
         <v>0x400</v>
@@ -24424,23 +26691,23 @@
       <c r="DD48" s="20"/>
     </row>
     <row r="49" spans="65:118" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BM49" s="103"/>
-      <c r="BN49" s="104"/>
-      <c r="BO49" s="104"/>
-      <c r="BP49" s="104"/>
-      <c r="BQ49" s="104"/>
-      <c r="BR49" s="104"/>
-      <c r="BS49" s="104"/>
-      <c r="BT49" s="104"/>
-      <c r="BU49" s="105"/>
-      <c r="CC49" s="95"/>
+      <c r="BM49" s="93"/>
+      <c r="BN49" s="94"/>
+      <c r="BO49" s="94"/>
+      <c r="BP49" s="94"/>
+      <c r="BQ49" s="94"/>
+      <c r="BR49" s="94"/>
+      <c r="BS49" s="94"/>
+      <c r="BT49" s="94"/>
+      <c r="BU49" s="95"/>
+      <c r="CC49" s="113"/>
       <c r="CD49" s="85"/>
       <c r="CE49" s="85"/>
       <c r="CF49" s="85"/>
       <c r="CG49" s="85"/>
       <c r="CH49" s="85"/>
       <c r="CI49" s="85"/>
-      <c r="CJ49" s="96"/>
+      <c r="CJ49" s="114"/>
       <c r="CU49" s="20"/>
       <c r="CV49" s="20"/>
       <c r="CW49" s="20"/>
@@ -24453,23 +26720,23 @@
       <c r="DD49" s="20"/>
     </row>
     <row r="50" spans="65:118" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BM50" s="106"/>
-      <c r="BN50" s="107"/>
-      <c r="BO50" s="107"/>
-      <c r="BP50" s="107"/>
-      <c r="BQ50" s="107"/>
-      <c r="BR50" s="107"/>
-      <c r="BS50" s="107"/>
-      <c r="BT50" s="107"/>
-      <c r="BU50" s="108"/>
-      <c r="CC50" s="97"/>
-      <c r="CD50" s="98"/>
-      <c r="CE50" s="98"/>
-      <c r="CF50" s="98"/>
-      <c r="CG50" s="98"/>
-      <c r="CH50" s="98"/>
-      <c r="CI50" s="98"/>
-      <c r="CJ50" s="99"/>
+      <c r="BM50" s="96"/>
+      <c r="BN50" s="97"/>
+      <c r="BO50" s="97"/>
+      <c r="BP50" s="97"/>
+      <c r="BQ50" s="97"/>
+      <c r="BR50" s="97"/>
+      <c r="BS50" s="97"/>
+      <c r="BT50" s="97"/>
+      <c r="BU50" s="98"/>
+      <c r="CC50" s="115"/>
+      <c r="CD50" s="116"/>
+      <c r="CE50" s="116"/>
+      <c r="CF50" s="116"/>
+      <c r="CG50" s="116"/>
+      <c r="CH50" s="116"/>
+      <c r="CI50" s="116"/>
+      <c r="CJ50" s="117"/>
       <c r="CU50" s="20"/>
       <c r="CV50" s="20"/>
       <c r="CW50" s="20"/>
@@ -24521,22 +26788,22 @@
       <c r="CH52" s="79"/>
       <c r="CI52" s="79"/>
       <c r="CJ52" s="80"/>
-      <c r="CS52" s="114" t="s">
+      <c r="CS52" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="CT52" s="114"/>
-      <c r="CU52" s="114"/>
-      <c r="CV52" s="114"/>
-      <c r="CW52" s="114"/>
-      <c r="CX52" s="114"/>
-      <c r="CY52" s="114"/>
-      <c r="CZ52" s="114"/>
-      <c r="DA52" s="114"/>
-      <c r="DB52" s="114"/>
-      <c r="DC52" s="114"/>
-      <c r="DD52" s="114"/>
-      <c r="DE52" s="114"/>
-      <c r="DF52" s="114"/>
+      <c r="CT52" s="103"/>
+      <c r="CU52" s="103"/>
+      <c r="CV52" s="103"/>
+      <c r="CW52" s="103"/>
+      <c r="CX52" s="103"/>
+      <c r="CY52" s="103"/>
+      <c r="CZ52" s="103"/>
+      <c r="DA52" s="103"/>
+      <c r="DB52" s="103"/>
+      <c r="DC52" s="103"/>
+      <c r="DD52" s="103"/>
+      <c r="DE52" s="103"/>
+      <c r="DF52" s="103"/>
     </row>
     <row r="53" spans="65:118" ht="19.5" x14ac:dyDescent="0.4">
       <c r="BM53" s="31"/>
@@ -24609,16 +26876,16 @@
       <c r="CH55" s="85"/>
       <c r="CI55" s="85"/>
       <c r="CJ55" s="86"/>
-      <c r="CV55" s="116" t="s">
+      <c r="CV55" s="105" t="s">
         <v>400</v>
       </c>
-      <c r="CW55" s="117"/>
-      <c r="CX55" s="117"/>
-      <c r="CY55" s="117"/>
-      <c r="CZ55" s="117"/>
-      <c r="DA55" s="117"/>
-      <c r="DB55" s="117"/>
-      <c r="DC55" s="118"/>
+      <c r="CW55" s="106"/>
+      <c r="CX55" s="106"/>
+      <c r="CY55" s="106"/>
+      <c r="CZ55" s="106"/>
+      <c r="DA55" s="106"/>
+      <c r="DB55" s="106"/>
+      <c r="DC55" s="107"/>
     </row>
     <row r="56" spans="65:118" ht="19.5" x14ac:dyDescent="0.4">
       <c r="CC56" s="87"/>
@@ -24629,14 +26896,14 @@
       <c r="CH56" s="88"/>
       <c r="CI56" s="88"/>
       <c r="CJ56" s="89"/>
-      <c r="CV56" s="114"/>
-      <c r="CW56" s="115"/>
-      <c r="CX56" s="115"/>
-      <c r="CY56" s="115"/>
-      <c r="CZ56" s="115"/>
-      <c r="DA56" s="115"/>
-      <c r="DB56" s="115"/>
-      <c r="DC56" s="115"/>
+      <c r="CV56" s="103"/>
+      <c r="CW56" s="104"/>
+      <c r="CX56" s="104"/>
+      <c r="CY56" s="104"/>
+      <c r="CZ56" s="104"/>
+      <c r="DA56" s="104"/>
+      <c r="DB56" s="104"/>
+      <c r="DC56" s="104"/>
     </row>
     <row r="62" spans="65:118" x14ac:dyDescent="0.4">
       <c r="BM62" s="59">
@@ -24772,15 +27039,15 @@
       <c r="CT63" s="68"/>
       <c r="CU63" s="68"/>
       <c r="CV63" s="64"/>
-      <c r="CW63" s="110" t="s">
+      <c r="CW63" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="CX63" s="111"/>
-      <c r="CY63" s="111"/>
-      <c r="CZ63" s="111"/>
-      <c r="DA63" s="111"/>
-      <c r="DB63" s="112"/>
-      <c r="DC63" s="113" t="s">
+      <c r="CX63" s="100"/>
+      <c r="CY63" s="100"/>
+      <c r="CZ63" s="100"/>
+      <c r="DA63" s="100"/>
+      <c r="DB63" s="101"/>
+      <c r="DC63" s="102" t="s">
         <v>172</v>
       </c>
       <c r="DD63" s="67"/>
@@ -25647,6 +27914,9 @@
     <mergeCell ref="DC27:DH27"/>
     <mergeCell ref="DJ27:DL27"/>
     <mergeCell ref="DJ25:DP25"/>
+    <mergeCell ref="CW26:DB26"/>
+    <mergeCell ref="DC26:DH26"/>
+    <mergeCell ref="DJ26:DL26"/>
     <mergeCell ref="BV7:CB7"/>
     <mergeCell ref="BM28:BR28"/>
     <mergeCell ref="BS28:BX28"/>
@@ -25704,9 +27974,10 @@
     <mergeCell ref="CW33:DB33"/>
     <mergeCell ref="DC33:DH33"/>
     <mergeCell ref="DJ33:DL33"/>
-    <mergeCell ref="CW26:DB26"/>
-    <mergeCell ref="DC26:DH26"/>
-    <mergeCell ref="DJ26:DL26"/>
+    <mergeCell ref="BM34:BR34"/>
+    <mergeCell ref="BS34:BX34"/>
+    <mergeCell ref="BY34:CD34"/>
+    <mergeCell ref="CE34:CJ34"/>
     <mergeCell ref="CQ63:CV63"/>
     <mergeCell ref="CW63:DB63"/>
     <mergeCell ref="DC63:DH63"/>
@@ -25724,10 +27995,6 @@
     <mergeCell ref="CW35:DB35"/>
     <mergeCell ref="DC35:DH35"/>
     <mergeCell ref="DJ35:DL35"/>
-    <mergeCell ref="BM34:BR34"/>
-    <mergeCell ref="BS34:BX34"/>
-    <mergeCell ref="BY34:CD34"/>
-    <mergeCell ref="CE34:CJ34"/>
     <mergeCell ref="CL44:CR44"/>
     <mergeCell ref="CC45:CJ47"/>
     <mergeCell ref="CL45:CN45"/>
@@ -25874,17 +28141,17 @@
       </c>
     </row>
     <row r="3" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R3" s="119" t="s">
+      <c r="R3" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
       <c r="AB3" s="69" t="s">
         <v>255</v>
       </c>
@@ -25893,39 +28160,39 @@
       <c r="AE3" s="69"/>
     </row>
     <row r="4" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
     </row>
     <row r="5" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
     </row>
     <row r="6" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R6" s="119" t="s">
+      <c r="R6" s="118" t="s">
         <v>409</v>
       </c>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
       <c r="AB6" s="49" t="s">
         <v>580</v>
       </c>
@@ -25934,46 +28201,46 @@
       <c r="AE6" s="49"/>
     </row>
     <row r="7" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
     </row>
     <row r="8" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="206" t="s">
         <v>561</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
     </row>
     <row r="9" spans="3:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
       <c r="R9" s="33" t="s">
         <v>14</v>
       </c>
@@ -25987,14 +28254,14 @@
       <c r="Z9" s="33"/>
     </row>
     <row r="10" spans="3:57" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
@@ -26051,17 +28318,17 @@
       <c r="AW11" s="24"/>
     </row>
     <row r="12" spans="3:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R12" s="201" t="s">
+      <c r="R12" s="198" t="s">
         <v>410</v>
       </c>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="202"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="202"/>
-      <c r="Z12" s="203"/>
+      <c r="S12" s="199"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="199"/>
+      <c r="W12" s="199"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="200"/>
       <c r="AB12" s="69" t="s">
         <v>254</v>
       </c>
@@ -26078,15 +28345,15 @@
       <c r="AS12" s="25"/>
     </row>
     <row r="13" spans="3:57" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R13" s="204"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="205"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="202"/>
       <c r="AL13" s="21">
         <v>31</v>
       </c>
@@ -26101,25 +28368,25 @@
       </c>
     </row>
     <row r="14" spans="3:57" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R14" s="206"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207"/>
-      <c r="U14" s="207"/>
-      <c r="V14" s="207"/>
-      <c r="W14" s="207"/>
-      <c r="X14" s="207"/>
-      <c r="Y14" s="207"/>
-      <c r="Z14" s="208"/>
-      <c r="AL14" s="198" t="s">
+      <c r="R14" s="203"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="205"/>
+      <c r="AL14" s="210" t="s">
         <v>401</v>
       </c>
-      <c r="AM14" s="199"/>
-      <c r="AN14" s="199"/>
-      <c r="AO14" s="199"/>
-      <c r="AP14" s="199"/>
-      <c r="AQ14" s="199"/>
-      <c r="AR14" s="199"/>
-      <c r="AS14" s="200"/>
+      <c r="AM14" s="211"/>
+      <c r="AN14" s="211"/>
+      <c r="AO14" s="211"/>
+      <c r="AP14" s="211"/>
+      <c r="AQ14" s="211"/>
+      <c r="AR14" s="211"/>
+      <c r="AS14" s="212"/>
     </row>
     <row r="15" spans="3:57" x14ac:dyDescent="0.4">
       <c r="BE15" s="9"/>
@@ -26238,38 +28505,38 @@
       <c r="X21" s="63"/>
       <c r="Y21" s="63"/>
       <c r="Z21" s="63"/>
-      <c r="AA21" s="211" t="s">
+      <c r="AA21" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AB21" s="211"/>
-      <c r="AC21" s="211"/>
-      <c r="AD21" s="211"/>
-      <c r="AE21" s="211"/>
-      <c r="AF21" s="211"/>
-      <c r="AG21" s="211" t="s">
+      <c r="AB21" s="209"/>
+      <c r="AC21" s="209"/>
+      <c r="AD21" s="209"/>
+      <c r="AE21" s="209"/>
+      <c r="AF21" s="209"/>
+      <c r="AG21" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AH21" s="211"/>
-      <c r="AI21" s="211"/>
-      <c r="AJ21" s="211"/>
-      <c r="AK21" s="211"/>
-      <c r="AL21" s="212"/>
-      <c r="AM21" s="213" t="s">
+      <c r="AH21" s="209"/>
+      <c r="AI21" s="209"/>
+      <c r="AJ21" s="209"/>
+      <c r="AK21" s="209"/>
+      <c r="AL21" s="214"/>
+      <c r="AM21" s="215" t="s">
         <v>260</v>
       </c>
-      <c r="AN21" s="214"/>
-      <c r="AO21" s="214"/>
-      <c r="AP21" s="214"/>
-      <c r="AQ21" s="214"/>
-      <c r="AR21" s="215"/>
-      <c r="AS21" s="216" t="s">
+      <c r="AN21" s="216"/>
+      <c r="AO21" s="216"/>
+      <c r="AP21" s="216"/>
+      <c r="AQ21" s="216"/>
+      <c r="AR21" s="217"/>
+      <c r="AS21" s="218" t="s">
         <v>261</v>
       </c>
-      <c r="AT21" s="217"/>
-      <c r="AU21" s="217"/>
-      <c r="AV21" s="217"/>
-      <c r="AW21" s="217"/>
-      <c r="AX21" s="217"/>
+      <c r="AT21" s="219"/>
+      <c r="AU21" s="219"/>
+      <c r="AV21" s="219"/>
+      <c r="AW21" s="219"/>
+      <c r="AX21" s="219"/>
       <c r="AY21" s="23"/>
       <c r="AZ21" s="69" t="s">
         <v>61</v>
@@ -26316,12 +28583,12 @@
       <c r="AJ22" s="32"/>
       <c r="AK22" s="32"/>
       <c r="AL22" s="32"/>
-      <c r="AM22" s="218"/>
-      <c r="AN22" s="218"/>
-      <c r="AO22" s="218"/>
-      <c r="AP22" s="218"/>
-      <c r="AQ22" s="218"/>
-      <c r="AR22" s="218"/>
+      <c r="AM22" s="208"/>
+      <c r="AN22" s="208"/>
+      <c r="AO22" s="208"/>
+      <c r="AP22" s="208"/>
+      <c r="AQ22" s="208"/>
+      <c r="AR22" s="208"/>
       <c r="AS22" s="32"/>
       <c r="AT22" s="32"/>
       <c r="AU22" s="32"/>
@@ -26531,11 +28798,11 @@
       <c r="AW25" s="67"/>
       <c r="AX25" s="67"/>
       <c r="AY25" s="9"/>
-      <c r="AZ25" s="219" t="s">
+      <c r="AZ25" s="213" t="s">
         <v>385</v>
       </c>
-      <c r="BA25" s="219"/>
-      <c r="BB25" s="219"/>
+      <c r="BA25" s="213"/>
+      <c r="BB25" s="213"/>
     </row>
     <row r="26" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C26" s="67" t="s">
@@ -26603,11 +28870,11 @@
       <c r="AW26" s="67"/>
       <c r="AX26" s="67"/>
       <c r="AY26" s="9"/>
-      <c r="AZ26" s="219" t="s">
+      <c r="AZ26" s="213" t="s">
         <v>386</v>
       </c>
-      <c r="BA26" s="219"/>
-      <c r="BB26" s="219"/>
+      <c r="BA26" s="213"/>
+      <c r="BB26" s="213"/>
     </row>
     <row r="27" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C27" s="67" t="s">
@@ -26733,11 +29000,11 @@
       <c r="AW28" s="67"/>
       <c r="AX28" s="67"/>
       <c r="AY28" s="9"/>
-      <c r="AZ28" s="219" t="s">
+      <c r="AZ28" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="BA28" s="219"/>
-      <c r="BB28" s="219"/>
+      <c r="BA28" s="213"/>
+      <c r="BB28" s="213"/>
     </row>
     <row r="29" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C29" s="67" t="s">
@@ -26805,11 +29072,11 @@
       <c r="AW29" s="67"/>
       <c r="AX29" s="67"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="219" t="s">
+      <c r="AZ29" s="213" t="s">
         <v>388</v>
       </c>
-      <c r="BA29" s="219"/>
-      <c r="BB29" s="219"/>
+      <c r="BA29" s="213"/>
+      <c r="BB29" s="213"/>
     </row>
     <row r="30" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C30" s="67" t="s">
@@ -26877,11 +29144,11 @@
       <c r="AW30" s="67"/>
       <c r="AX30" s="67"/>
       <c r="AY30" s="9"/>
-      <c r="AZ30" s="219" t="s">
+      <c r="AZ30" s="213" t="s">
         <v>389</v>
       </c>
-      <c r="BA30" s="219"/>
-      <c r="BB30" s="219"/>
+      <c r="BA30" s="213"/>
+      <c r="BB30" s="213"/>
     </row>
     <row r="31" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C31" s="67" t="s">
@@ -26949,11 +29216,11 @@
       <c r="AW31" s="67"/>
       <c r="AX31" s="67"/>
       <c r="AY31" s="9"/>
-      <c r="AZ31" s="219" t="s">
+      <c r="AZ31" s="213" t="s">
         <v>390</v>
       </c>
-      <c r="BA31" s="219"/>
-      <c r="BB31" s="219"/>
+      <c r="BA31" s="213"/>
+      <c r="BB31" s="213"/>
     </row>
     <row r="32" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C32" s="67" t="s">
@@ -27021,11 +29288,11 @@
       <c r="AW32" s="67"/>
       <c r="AX32" s="67"/>
       <c r="AY32" s="9"/>
-      <c r="AZ32" s="219" t="s">
+      <c r="AZ32" s="213" t="s">
         <v>391</v>
       </c>
-      <c r="BA32" s="219"/>
-      <c r="BB32" s="219"/>
+      <c r="BA32" s="213"/>
+      <c r="BB32" s="213"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C33" s="32" t="s">
@@ -27151,11 +29418,11 @@
       <c r="AW34" s="67"/>
       <c r="AX34" s="67"/>
       <c r="AY34" s="9"/>
-      <c r="AZ34" s="219" t="s">
+      <c r="AZ34" s="213" t="s">
         <v>393</v>
       </c>
-      <c r="BA34" s="219"/>
-      <c r="BB34" s="219"/>
+      <c r="BA34" s="213"/>
+      <c r="BB34" s="213"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C35" s="67" t="s">
@@ -27223,11 +29490,11 @@
       <c r="AW35" s="67"/>
       <c r="AX35" s="67"/>
       <c r="AY35" s="9"/>
-      <c r="AZ35" s="219" t="s">
+      <c r="AZ35" s="213" t="s">
         <v>392</v>
       </c>
-      <c r="BA35" s="219"/>
-      <c r="BB35" s="219"/>
+      <c r="BA35" s="213"/>
+      <c r="BB35" s="213"/>
     </row>
     <row r="36" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C36" s="32" t="s">
@@ -27348,11 +29615,11 @@
       <c r="AW37" s="67"/>
       <c r="AX37" s="67"/>
       <c r="AY37" s="9"/>
-      <c r="AZ37" s="219" t="s">
+      <c r="AZ37" s="213" t="s">
         <v>394</v>
       </c>
-      <c r="BA37" s="219"/>
-      <c r="BB37" s="219"/>
+      <c r="BA37" s="213"/>
+      <c r="BB37" s="213"/>
     </row>
     <row r="38" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C38" s="67" t="s">
@@ -27478,11 +29745,11 @@
       <c r="AW39" s="67"/>
       <c r="AX39" s="67"/>
       <c r="AY39" s="9"/>
-      <c r="AZ39" s="219" t="s">
+      <c r="AZ39" s="213" t="s">
         <v>395</v>
       </c>
-      <c r="BA39" s="219"/>
-      <c r="BB39" s="219"/>
+      <c r="BA39" s="213"/>
+      <c r="BB39" s="213"/>
     </row>
     <row r="40" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C40" s="67" t="s">
@@ -27550,11 +29817,11 @@
       <c r="AW40" s="67"/>
       <c r="AX40" s="67"/>
       <c r="AY40" s="9"/>
-      <c r="AZ40" s="219" t="s">
+      <c r="AZ40" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="BA40" s="219"/>
-      <c r="BB40" s="219"/>
+      <c r="BA40" s="213"/>
+      <c r="BB40" s="213"/>
     </row>
     <row r="41" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C41" s="67" t="s">
@@ -27680,11 +29947,11 @@
       <c r="AW42" s="67"/>
       <c r="AX42" s="67"/>
       <c r="AY42" s="9"/>
-      <c r="AZ42" s="219" t="s">
+      <c r="AZ42" s="213" t="s">
         <v>397</v>
       </c>
-      <c r="BA42" s="219"/>
-      <c r="BB42" s="219"/>
+      <c r="BA42" s="213"/>
+      <c r="BB42" s="213"/>
     </row>
     <row r="43" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C43" s="63" t="s">
@@ -27752,11 +30019,11 @@
       <c r="AW43" s="67"/>
       <c r="AX43" s="67"/>
       <c r="AY43" s="9"/>
-      <c r="AZ43" s="219" t="s">
+      <c r="AZ43" s="213" t="s">
         <v>398</v>
       </c>
-      <c r="BA43" s="219"/>
-      <c r="BB43" s="219"/>
+      <c r="BA43" s="213"/>
+      <c r="BB43" s="213"/>
     </row>
     <row r="44" spans="3:54" x14ac:dyDescent="0.4">
       <c r="C44" s="32" t="s">
@@ -27948,7 +30215,6 @@
     <mergeCell ref="AM26:AR26"/>
     <mergeCell ref="AS26:AX26"/>
     <mergeCell ref="AZ26:BB26"/>
-    <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="AM23:AR23"/>
     <mergeCell ref="AS23:AX23"/>
     <mergeCell ref="AZ23:BB23"/>
@@ -27969,10 +30235,6 @@
     <mergeCell ref="AM25:AR25"/>
     <mergeCell ref="AS25:AX25"/>
     <mergeCell ref="AZ25:BB25"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="AM21:AR21"/>
-    <mergeCell ref="AS21:AX21"/>
-    <mergeCell ref="AZ21:BB21"/>
     <mergeCell ref="C22:AX22"/>
     <mergeCell ref="AZ22:BB22"/>
     <mergeCell ref="C21:H21"/>
@@ -27981,6 +30243,10 @@
     <mergeCell ref="U21:Z21"/>
     <mergeCell ref="AA21:AF21"/>
     <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AG21:AL21"/>
+    <mergeCell ref="AM21:AR21"/>
+    <mergeCell ref="AS21:AX21"/>
     <mergeCell ref="R3:Z5"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="R6:Z8"/>
@@ -27989,6 +30255,7 @@
     <mergeCell ref="R12:Z14"/>
     <mergeCell ref="AB12:AE12"/>
     <mergeCell ref="C8:J10"/>
+    <mergeCell ref="AZ21:BB21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27998,18 +30265,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD61CAE-C273-4175-8812-B19C7AB731B2}">
-  <dimension ref="C2:JQ11"/>
+  <dimension ref="C2:ME11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DX14" sqref="DX14"/>
+    <sheetView showGridLines="0" topLeftCell="HP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="JD44" sqref="JD44:JE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="419" width="3.625" customWidth="1"/>
+    <col min="1" max="400" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:343" x14ac:dyDescent="0.4">
       <c r="AQ2" s="2"/>
       <c r="AR2" s="8">
         <v>15</v>
@@ -28041,346 +30308,410 @@
       </c>
       <c r="BH2" s="49"/>
     </row>
-    <row r="3" spans="3:277" x14ac:dyDescent="0.4">
-      <c r="C3" s="231" t="s">
+    <row r="3" spans="3:343" x14ac:dyDescent="0.4">
+      <c r="C3" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="233"/>
-      <c r="AC3" s="236" t="s">
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="236"/>
+      <c r="AC3" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="236"/>
-      <c r="AJ3" s="236"/>
-      <c r="AK3" s="236"/>
-      <c r="AL3" s="236"/>
-      <c r="AM3" s="236"/>
-      <c r="AN3" s="236"/>
+      <c r="AD3" s="231"/>
+      <c r="AE3" s="231"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="231"/>
+      <c r="AH3" s="231"/>
+      <c r="AI3" s="231"/>
+      <c r="AJ3" s="231"/>
+      <c r="AK3" s="231"/>
+      <c r="AL3" s="231"/>
+      <c r="AM3" s="231"/>
+      <c r="AN3" s="231"/>
       <c r="AQ3" s="2"/>
-      <c r="AR3" s="233" t="s">
+      <c r="AR3" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="AS3" s="236"/>
-      <c r="AT3" s="236"/>
-      <c r="AU3" s="236"/>
-      <c r="AV3" s="236"/>
-      <c r="AW3" s="236"/>
-      <c r="AX3" s="236"/>
-      <c r="AY3" s="236"/>
-      <c r="AZ3" s="236"/>
-      <c r="BA3" s="236"/>
-      <c r="BB3" s="236"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BK3" s="236" t="s">
+      <c r="AS3" s="231"/>
+      <c r="AT3" s="231"/>
+      <c r="AU3" s="231"/>
+      <c r="AV3" s="231"/>
+      <c r="AW3" s="231"/>
+      <c r="AX3" s="231"/>
+      <c r="AY3" s="231"/>
+      <c r="AZ3" s="231"/>
+      <c r="BA3" s="231"/>
+      <c r="BB3" s="231"/>
+      <c r="BC3" s="231"/>
+      <c r="BD3" s="231"/>
+      <c r="BE3" s="231"/>
+      <c r="BF3" s="231"/>
+      <c r="BK3" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="BL3" s="236"/>
-      <c r="BM3" s="236"/>
-      <c r="BN3" s="236"/>
-      <c r="BO3" s="236"/>
-      <c r="BP3" s="236"/>
-      <c r="BQ3" s="236"/>
-      <c r="BR3" s="236"/>
-      <c r="BS3" s="236"/>
-      <c r="BT3" s="236"/>
-      <c r="BU3" s="236"/>
-      <c r="BV3" s="236"/>
-      <c r="BW3" s="236"/>
-      <c r="BX3" s="236"/>
-      <c r="BY3" s="236"/>
-      <c r="BZ3" s="236"/>
-      <c r="CA3" s="236"/>
-      <c r="CB3" s="236"/>
-      <c r="CC3" s="236"/>
-      <c r="CD3" s="236"/>
-      <c r="CE3" s="236"/>
-      <c r="CF3" s="236"/>
-      <c r="CG3" s="236"/>
-      <c r="CH3" s="236"/>
-      <c r="CI3" s="236"/>
-      <c r="CJ3" s="236"/>
-      <c r="CK3" s="236"/>
-      <c r="CL3" s="236"/>
-      <c r="CM3" s="236"/>
-      <c r="CN3" s="236"/>
-      <c r="CO3" s="236"/>
-      <c r="CP3" s="236"/>
-      <c r="CQ3" s="236"/>
-      <c r="CU3" s="236" t="s">
+      <c r="BL3" s="231"/>
+      <c r="BM3" s="231"/>
+      <c r="BN3" s="231"/>
+      <c r="BO3" s="231"/>
+      <c r="BP3" s="231"/>
+      <c r="BQ3" s="231"/>
+      <c r="BR3" s="231"/>
+      <c r="BS3" s="231"/>
+      <c r="BT3" s="231"/>
+      <c r="BU3" s="231"/>
+      <c r="BV3" s="231"/>
+      <c r="BW3" s="231"/>
+      <c r="BX3" s="231"/>
+      <c r="BY3" s="231"/>
+      <c r="BZ3" s="231"/>
+      <c r="CA3" s="231"/>
+      <c r="CB3" s="231"/>
+      <c r="CC3" s="231"/>
+      <c r="CD3" s="231"/>
+      <c r="CE3" s="231"/>
+      <c r="CF3" s="231"/>
+      <c r="CG3" s="231"/>
+      <c r="CH3" s="231"/>
+      <c r="CI3" s="231"/>
+      <c r="CJ3" s="231"/>
+      <c r="CK3" s="231"/>
+      <c r="CL3" s="231"/>
+      <c r="CM3" s="231"/>
+      <c r="CN3" s="231"/>
+      <c r="CO3" s="231"/>
+      <c r="CP3" s="231"/>
+      <c r="CQ3" s="231"/>
+      <c r="CU3" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="CV3" s="236"/>
-      <c r="CW3" s="236"/>
-      <c r="CX3" s="236"/>
-      <c r="CY3" s="236"/>
-      <c r="CZ3" s="236"/>
-      <c r="DA3" s="236"/>
-      <c r="DB3" s="236"/>
-      <c r="DC3" s="236"/>
-      <c r="DD3" s="236"/>
-      <c r="DE3" s="236"/>
-      <c r="DF3" s="236"/>
-      <c r="DG3" s="236"/>
-      <c r="DH3" s="236"/>
-      <c r="DI3" s="236"/>
-      <c r="DJ3" s="236"/>
-      <c r="DK3" s="236"/>
-      <c r="DL3" s="236"/>
-      <c r="DM3" s="236"/>
-      <c r="DN3" s="236"/>
-      <c r="DO3" s="236"/>
-      <c r="DP3" s="236"/>
-      <c r="DQ3" s="236"/>
-      <c r="DR3" s="236"/>
-      <c r="DS3" s="236"/>
-      <c r="DT3" s="236"/>
-      <c r="DU3" s="236"/>
-      <c r="DV3" s="236"/>
-      <c r="DW3" s="236"/>
-      <c r="DX3" s="236"/>
-      <c r="DY3" s="236"/>
-      <c r="DZ3" s="236"/>
-      <c r="EA3" s="236"/>
-      <c r="EB3" s="236"/>
-      <c r="EC3" s="236"/>
-      <c r="ED3" s="236"/>
-      <c r="EE3" s="236"/>
-      <c r="EF3" s="236"/>
-      <c r="EG3" s="236"/>
-      <c r="EK3" s="236" t="s">
+      <c r="CV3" s="231"/>
+      <c r="CW3" s="231"/>
+      <c r="CX3" s="231"/>
+      <c r="CY3" s="231"/>
+      <c r="CZ3" s="231"/>
+      <c r="DA3" s="231"/>
+      <c r="DB3" s="231"/>
+      <c r="DC3" s="231"/>
+      <c r="DD3" s="231"/>
+      <c r="DE3" s="231"/>
+      <c r="DF3" s="231"/>
+      <c r="DG3" s="231"/>
+      <c r="DH3" s="231"/>
+      <c r="DI3" s="231"/>
+      <c r="DJ3" s="231"/>
+      <c r="DK3" s="231"/>
+      <c r="DL3" s="231"/>
+      <c r="DM3" s="231"/>
+      <c r="DN3" s="231"/>
+      <c r="DO3" s="231"/>
+      <c r="DP3" s="231"/>
+      <c r="DQ3" s="231"/>
+      <c r="DR3" s="231"/>
+      <c r="DS3" s="231"/>
+      <c r="DT3" s="231"/>
+      <c r="DU3" s="231"/>
+      <c r="DV3" s="231"/>
+      <c r="DW3" s="231"/>
+      <c r="DX3" s="231"/>
+      <c r="DY3" s="231"/>
+      <c r="DZ3" s="231"/>
+      <c r="EA3" s="231"/>
+      <c r="EB3" s="231"/>
+      <c r="EC3" s="231"/>
+      <c r="ED3" s="231"/>
+      <c r="EE3" s="231"/>
+      <c r="EF3" s="231"/>
+      <c r="EG3" s="231"/>
+      <c r="EK3" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="EL3" s="236"/>
-      <c r="EM3" s="236"/>
-      <c r="EN3" s="236"/>
-      <c r="EO3" s="236"/>
-      <c r="EP3" s="236"/>
-      <c r="EQ3" s="236"/>
-      <c r="ER3" s="236"/>
-      <c r="ES3" s="236"/>
-      <c r="ET3" s="236"/>
-      <c r="EU3" s="236"/>
-      <c r="EV3" s="236"/>
-      <c r="EW3" s="236"/>
-      <c r="EX3" s="236"/>
-      <c r="EY3" s="236"/>
-      <c r="EZ3" s="236"/>
-      <c r="FA3" s="236"/>
-      <c r="FB3" s="236"/>
-      <c r="FC3" s="236"/>
-      <c r="FD3" s="236"/>
-      <c r="FE3" s="236"/>
-      <c r="FF3" s="236"/>
-      <c r="FG3" s="236"/>
-      <c r="FH3" s="236"/>
-      <c r="FI3" s="236"/>
-      <c r="FJ3" s="236"/>
-      <c r="FK3" s="236"/>
-      <c r="FL3" s="236"/>
-      <c r="FM3" s="236"/>
-      <c r="FN3" s="236"/>
-      <c r="FO3" s="236"/>
-      <c r="FP3" s="236"/>
-      <c r="FQ3" s="236"/>
-      <c r="FR3" s="236"/>
-      <c r="FS3" s="236"/>
-      <c r="FT3" s="236"/>
-      <c r="FU3" s="236"/>
-      <c r="FV3" s="236"/>
-      <c r="FW3" s="236"/>
-      <c r="FX3" s="236"/>
-      <c r="FY3" s="236"/>
-      <c r="FZ3" s="236"/>
-      <c r="GA3" s="236"/>
-      <c r="GB3" s="236"/>
-      <c r="GC3" s="236"/>
-      <c r="GD3" s="236"/>
-      <c r="GE3" s="236"/>
-      <c r="GF3" s="236"/>
-      <c r="GG3" s="236"/>
-      <c r="GH3" s="236"/>
-      <c r="GL3" s="236" t="s">
+      <c r="EL3" s="231"/>
+      <c r="EM3" s="231"/>
+      <c r="EN3" s="231"/>
+      <c r="EO3" s="231"/>
+      <c r="EP3" s="231"/>
+      <c r="EQ3" s="231"/>
+      <c r="ER3" s="231"/>
+      <c r="ES3" s="231"/>
+      <c r="ET3" s="231"/>
+      <c r="EU3" s="231"/>
+      <c r="EV3" s="231"/>
+      <c r="EW3" s="231"/>
+      <c r="EX3" s="231"/>
+      <c r="EY3" s="231"/>
+      <c r="EZ3" s="231"/>
+      <c r="FA3" s="231"/>
+      <c r="FB3" s="231"/>
+      <c r="FC3" s="231"/>
+      <c r="FD3" s="231"/>
+      <c r="FE3" s="231"/>
+      <c r="FF3" s="231"/>
+      <c r="FG3" s="231"/>
+      <c r="FH3" s="231"/>
+      <c r="FI3" s="231"/>
+      <c r="FJ3" s="231"/>
+      <c r="FK3" s="231"/>
+      <c r="FL3" s="231"/>
+      <c r="FM3" s="231"/>
+      <c r="FN3" s="231"/>
+      <c r="FO3" s="231"/>
+      <c r="FP3" s="231"/>
+      <c r="FQ3" s="231"/>
+      <c r="FR3" s="231"/>
+      <c r="FS3" s="231"/>
+      <c r="FT3" s="231"/>
+      <c r="FU3" s="231"/>
+      <c r="FV3" s="231"/>
+      <c r="FW3" s="231"/>
+      <c r="FX3" s="231"/>
+      <c r="FY3" s="231"/>
+      <c r="FZ3" s="231"/>
+      <c r="GA3" s="231"/>
+      <c r="GB3" s="231"/>
+      <c r="GC3" s="231"/>
+      <c r="GD3" s="231"/>
+      <c r="GE3" s="231"/>
+      <c r="GF3" s="231"/>
+      <c r="GG3" s="231"/>
+      <c r="GH3" s="231"/>
+      <c r="GL3" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="GM3" s="236"/>
-      <c r="GN3" s="236"/>
-      <c r="GO3" s="236"/>
-      <c r="GP3" s="236"/>
-      <c r="GQ3" s="236"/>
-      <c r="GR3" s="236"/>
-      <c r="GS3" s="236"/>
-      <c r="GT3" s="236"/>
-      <c r="GU3" s="236"/>
-      <c r="GV3" s="236"/>
-      <c r="GW3" s="236"/>
-      <c r="GX3" s="236"/>
-      <c r="GY3" s="236"/>
-      <c r="GZ3" s="236"/>
-      <c r="HA3" s="236"/>
-      <c r="HB3" s="236"/>
-      <c r="HC3" s="236"/>
-      <c r="HD3" s="236"/>
-      <c r="HE3" s="236"/>
-      <c r="HF3" s="236"/>
-      <c r="HG3" s="236"/>
-      <c r="HH3" s="236"/>
-      <c r="HI3" s="236"/>
-      <c r="HL3" s="231" t="s">
+      <c r="GM3" s="231"/>
+      <c r="GN3" s="231"/>
+      <c r="GO3" s="231"/>
+      <c r="GP3" s="231"/>
+      <c r="GQ3" s="231"/>
+      <c r="GR3" s="231"/>
+      <c r="GS3" s="231"/>
+      <c r="GT3" s="231"/>
+      <c r="GU3" s="231"/>
+      <c r="GV3" s="231"/>
+      <c r="GW3" s="231"/>
+      <c r="GX3" s="231"/>
+      <c r="GY3" s="231"/>
+      <c r="GZ3" s="231"/>
+      <c r="HA3" s="231"/>
+      <c r="HB3" s="231"/>
+      <c r="HC3" s="231"/>
+      <c r="HD3" s="231"/>
+      <c r="HE3" s="231"/>
+      <c r="HF3" s="231"/>
+      <c r="HG3" s="231"/>
+      <c r="HH3" s="231"/>
+      <c r="HI3" s="231"/>
+      <c r="HL3" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="HM3" s="232"/>
-      <c r="HN3" s="232"/>
-      <c r="HO3" s="232"/>
-      <c r="HP3" s="232"/>
-      <c r="HQ3" s="232"/>
-      <c r="HR3" s="232"/>
-      <c r="HS3" s="232"/>
-      <c r="HT3" s="232"/>
-      <c r="HU3" s="232"/>
-      <c r="HV3" s="232"/>
-      <c r="HW3" s="232"/>
-      <c r="HX3" s="232"/>
-      <c r="HY3" s="232"/>
-      <c r="HZ3" s="232"/>
-      <c r="IA3" s="232"/>
-      <c r="IB3" s="232"/>
-      <c r="IC3" s="232"/>
-      <c r="ID3" s="232"/>
-      <c r="IE3" s="232"/>
-      <c r="IF3" s="232"/>
-      <c r="IG3" s="232"/>
-      <c r="IH3" s="232"/>
-      <c r="II3" s="232"/>
-      <c r="IJ3" s="232"/>
-      <c r="IK3" s="232"/>
-      <c r="IL3" s="232"/>
-      <c r="IM3" s="232"/>
-      <c r="IQ3" s="231" t="s">
+      <c r="HM3" s="235"/>
+      <c r="HN3" s="235"/>
+      <c r="HO3" s="235"/>
+      <c r="HP3" s="235"/>
+      <c r="HQ3" s="235"/>
+      <c r="HR3" s="235"/>
+      <c r="HS3" s="235"/>
+      <c r="HT3" s="235"/>
+      <c r="HU3" s="235"/>
+      <c r="HV3" s="235"/>
+      <c r="HW3" s="235"/>
+      <c r="HX3" s="235"/>
+      <c r="HY3" s="235"/>
+      <c r="HZ3" s="235"/>
+      <c r="IA3" s="235"/>
+      <c r="IB3" s="235"/>
+      <c r="IC3" s="235"/>
+      <c r="ID3" s="235"/>
+      <c r="IE3" s="235"/>
+      <c r="IF3" s="235"/>
+      <c r="IG3" s="235"/>
+      <c r="IH3" s="235"/>
+      <c r="II3" s="235"/>
+      <c r="IJ3" s="235"/>
+      <c r="IK3" s="235"/>
+      <c r="IL3" s="235"/>
+      <c r="IM3" s="236"/>
+      <c r="IQ3" s="234" t="s">
         <v>405</v>
       </c>
-      <c r="IR3" s="232"/>
-      <c r="IS3" s="232"/>
-      <c r="IT3" s="232"/>
-      <c r="IU3" s="232"/>
-      <c r="IV3" s="232"/>
-      <c r="IW3" s="232"/>
-      <c r="IX3" s="232"/>
-      <c r="IY3" s="232"/>
-      <c r="IZ3" s="232"/>
-      <c r="JA3" s="232"/>
-      <c r="JB3" s="232"/>
-      <c r="JC3" s="232"/>
-      <c r="JD3" s="232"/>
-      <c r="JE3" s="232"/>
-      <c r="JF3" s="232"/>
-      <c r="JG3" s="232"/>
-      <c r="JH3" s="232"/>
-      <c r="JI3" s="232"/>
-      <c r="JJ3" s="232"/>
-      <c r="JK3" s="232"/>
-      <c r="JL3" s="232"/>
-      <c r="JM3" s="232"/>
-      <c r="JN3" s="232"/>
-      <c r="JO3" s="232"/>
-      <c r="JP3" s="232"/>
-      <c r="JQ3" s="233"/>
+      <c r="IR3" s="235"/>
+      <c r="IS3" s="235"/>
+      <c r="IT3" s="235"/>
+      <c r="IU3" s="235"/>
+      <c r="IV3" s="235"/>
+      <c r="IW3" s="235"/>
+      <c r="IX3" s="235"/>
+      <c r="IY3" s="235"/>
+      <c r="IZ3" s="235"/>
+      <c r="JA3" s="235"/>
+      <c r="JB3" s="235"/>
+      <c r="JC3" s="235"/>
+      <c r="JD3" s="235"/>
+      <c r="JE3" s="235"/>
+      <c r="JF3" s="235"/>
+      <c r="JG3" s="235"/>
+      <c r="JH3" s="235"/>
+      <c r="JI3" s="235"/>
+      <c r="JJ3" s="235"/>
+      <c r="JK3" s="235"/>
+      <c r="JL3" s="235"/>
+      <c r="JM3" s="235"/>
+      <c r="JN3" s="235"/>
+      <c r="JO3" s="235"/>
+      <c r="JP3" s="235"/>
+      <c r="JQ3" s="236"/>
+      <c r="JU3" s="231" t="s">
+        <v>582</v>
+      </c>
+      <c r="JV3" s="231"/>
+      <c r="JW3" s="231"/>
+      <c r="JX3" s="231"/>
+      <c r="JY3" s="231"/>
+      <c r="JZ3" s="231"/>
+      <c r="KA3" s="231"/>
+      <c r="KB3" s="231"/>
+      <c r="KC3" s="231"/>
+      <c r="KD3" s="231"/>
+      <c r="KE3" s="231"/>
+      <c r="KF3" s="231"/>
+      <c r="KG3" s="231"/>
+      <c r="KH3" s="231"/>
+      <c r="KI3" s="231"/>
+      <c r="KJ3" s="231"/>
+      <c r="KK3" s="231"/>
+      <c r="KL3" s="231"/>
+      <c r="KM3" s="231"/>
+      <c r="KN3" s="231"/>
+      <c r="KO3" s="231"/>
+      <c r="KP3" s="231"/>
+      <c r="KQ3" s="231"/>
+      <c r="KR3" s="231"/>
+      <c r="KS3" s="231"/>
+      <c r="KT3" s="231"/>
+      <c r="KU3" s="231"/>
+      <c r="KV3" s="231"/>
+      <c r="KW3" s="231"/>
+      <c r="KX3" s="231"/>
+      <c r="KY3" s="231"/>
+      <c r="KZ3" s="231"/>
+      <c r="LA3" s="231"/>
+      <c r="LB3" s="231"/>
+      <c r="LC3" s="231"/>
+      <c r="LD3" s="231"/>
+      <c r="LE3" s="231"/>
+      <c r="LI3" s="234" t="s">
+        <v>584</v>
+      </c>
+      <c r="LJ3" s="235"/>
+      <c r="LK3" s="235"/>
+      <c r="LL3" s="235"/>
+      <c r="LM3" s="235"/>
+      <c r="LN3" s="235"/>
+      <c r="LO3" s="235"/>
+      <c r="LP3" s="235"/>
+      <c r="LQ3" s="235"/>
+      <c r="LR3" s="235"/>
+      <c r="LS3" s="235"/>
+      <c r="LT3" s="235"/>
+      <c r="LU3" s="235"/>
+      <c r="LV3" s="235"/>
+      <c r="LW3" s="235"/>
+      <c r="LX3" s="235"/>
+      <c r="LY3" s="235"/>
+      <c r="LZ3" s="235"/>
+      <c r="MA3" s="235"/>
+      <c r="MB3" s="235"/>
+      <c r="MC3" s="235"/>
+      <c r="MD3" s="235"/>
+      <c r="ME3" s="236"/>
     </row>
-    <row r="4" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:343" x14ac:dyDescent="0.4">
       <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222" t="s">
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="223" t="s">
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="224" t="s">
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="225"/>
-      <c r="W4" s="225"/>
-      <c r="X4" s="225"/>
-      <c r="Y4" s="226"/>
-      <c r="AC4" s="223" t="s">
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="227"/>
+      <c r="AC4" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="AD4" s="223"/>
-      <c r="AE4" s="223"/>
-      <c r="AF4" s="223"/>
-      <c r="AG4" s="223" t="s">
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="223"/>
-      <c r="AI4" s="223"/>
-      <c r="AJ4" s="223"/>
-      <c r="AK4" s="223" t="s">
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" s="223"/>
-      <c r="AM4" s="223"/>
-      <c r="AN4" s="223"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="44"/>
       <c r="AS4" s="45"/>
-      <c r="AT4" s="223" t="s">
+      <c r="AT4" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="AU4" s="223"/>
-      <c r="AV4" s="223"/>
-      <c r="AW4" s="223"/>
-      <c r="AX4" s="223"/>
-      <c r="AY4" s="223"/>
-      <c r="AZ4" s="223"/>
-      <c r="BA4" s="223"/>
-      <c r="BB4" s="223"/>
-      <c r="BC4" s="223"/>
-      <c r="BD4" s="223"/>
+      <c r="AU4" s="224"/>
+      <c r="AV4" s="224"/>
+      <c r="AW4" s="224"/>
+      <c r="AX4" s="224"/>
+      <c r="AY4" s="224"/>
+      <c r="AZ4" s="224"/>
+      <c r="BA4" s="224"/>
+      <c r="BB4" s="224"/>
+      <c r="BC4" s="224"/>
+      <c r="BD4" s="224"/>
       <c r="BE4" s="245"/>
       <c r="BF4" s="45"/>
       <c r="BK4" s="32" t="s">
@@ -28388,346 +30719,434 @@
       </c>
       <c r="BL4" s="32"/>
       <c r="BM4" s="32"/>
-      <c r="BN4" s="222" t="s">
+      <c r="BN4" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="BO4" s="222"/>
-      <c r="BP4" s="222"/>
-      <c r="BQ4" s="222"/>
-      <c r="BR4" s="222"/>
-      <c r="BS4" s="222" t="s">
+      <c r="BO4" s="232"/>
+      <c r="BP4" s="232"/>
+      <c r="BQ4" s="232"/>
+      <c r="BR4" s="232"/>
+      <c r="BS4" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="BT4" s="222"/>
-      <c r="BU4" s="222"/>
-      <c r="BV4" s="222"/>
-      <c r="BW4" s="222"/>
-      <c r="BX4" s="222" t="s">
+      <c r="BT4" s="232"/>
+      <c r="BU4" s="232"/>
+      <c r="BV4" s="232"/>
+      <c r="BW4" s="232"/>
+      <c r="BX4" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="BY4" s="222"/>
-      <c r="BZ4" s="222"/>
-      <c r="CA4" s="222"/>
+      <c r="BY4" s="232"/>
+      <c r="BZ4" s="232"/>
+      <c r="CA4" s="232"/>
       <c r="CB4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="CC4" s="32"/>
       <c r="CD4" s="32"/>
-      <c r="CE4" s="223" t="s">
+      <c r="CE4" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="CF4" s="223"/>
-      <c r="CG4" s="223"/>
-      <c r="CH4" s="223"/>
-      <c r="CI4" s="223"/>
-      <c r="CJ4" s="223"/>
-      <c r="CK4" s="223"/>
-      <c r="CL4" s="223"/>
-      <c r="CM4" s="224" t="s">
+      <c r="CF4" s="224"/>
+      <c r="CG4" s="224"/>
+      <c r="CH4" s="224"/>
+      <c r="CI4" s="224"/>
+      <c r="CJ4" s="224"/>
+      <c r="CK4" s="224"/>
+      <c r="CL4" s="224"/>
+      <c r="CM4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="CN4" s="225"/>
-      <c r="CO4" s="225"/>
-      <c r="CP4" s="225"/>
-      <c r="CQ4" s="226"/>
+      <c r="CN4" s="226"/>
+      <c r="CO4" s="226"/>
+      <c r="CP4" s="226"/>
+      <c r="CQ4" s="227"/>
       <c r="CU4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="CV4" s="32"/>
       <c r="CW4" s="32"/>
-      <c r="CX4" s="222" t="s">
+      <c r="CX4" s="232" t="s">
         <v>414</v>
       </c>
-      <c r="CY4" s="222"/>
-      <c r="CZ4" s="222"/>
-      <c r="DA4" s="222"/>
-      <c r="DB4" s="222" t="s">
+      <c r="CY4" s="232"/>
+      <c r="CZ4" s="232"/>
+      <c r="DA4" s="232"/>
+      <c r="DB4" s="232" t="s">
         <v>415</v>
       </c>
-      <c r="DC4" s="222"/>
-      <c r="DD4" s="222"/>
-      <c r="DE4" s="222"/>
-      <c r="DF4" s="222" t="s">
+      <c r="DC4" s="232"/>
+      <c r="DD4" s="232"/>
+      <c r="DE4" s="232"/>
+      <c r="DF4" s="232" t="s">
         <v>416</v>
       </c>
-      <c r="DG4" s="222"/>
-      <c r="DH4" s="222"/>
-      <c r="DI4" s="222"/>
-      <c r="DJ4" s="222" t="s">
+      <c r="DG4" s="232"/>
+      <c r="DH4" s="232"/>
+      <c r="DI4" s="232"/>
+      <c r="DJ4" s="232" t="s">
         <v>417</v>
       </c>
-      <c r="DK4" s="222"/>
-      <c r="DL4" s="222"/>
-      <c r="DM4" s="222"/>
+      <c r="DK4" s="232"/>
+      <c r="DL4" s="232"/>
+      <c r="DM4" s="232"/>
       <c r="DN4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="DO4" s="32"/>
       <c r="DP4" s="32"/>
-      <c r="DQ4" s="223" t="s">
+      <c r="DQ4" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="DR4" s="223"/>
-      <c r="DS4" s="223"/>
-      <c r="DT4" s="223"/>
-      <c r="DU4" s="223"/>
-      <c r="DV4" s="223"/>
-      <c r="DW4" s="223"/>
-      <c r="DX4" s="223" t="s">
+      <c r="DR4" s="224"/>
+      <c r="DS4" s="224"/>
+      <c r="DT4" s="224"/>
+      <c r="DU4" s="224"/>
+      <c r="DV4" s="224"/>
+      <c r="DW4" s="224"/>
+      <c r="DX4" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="DY4" s="223"/>
-      <c r="DZ4" s="223"/>
-      <c r="EA4" s="223"/>
-      <c r="EB4" s="223"/>
-      <c r="EC4" s="224" t="s">
+      <c r="DY4" s="224"/>
+      <c r="DZ4" s="224"/>
+      <c r="EA4" s="224"/>
+      <c r="EB4" s="224"/>
+      <c r="EC4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="ED4" s="225"/>
-      <c r="EE4" s="225"/>
-      <c r="EF4" s="225"/>
-      <c r="EG4" s="226"/>
+      <c r="ED4" s="226"/>
+      <c r="EE4" s="226"/>
+      <c r="EF4" s="226"/>
+      <c r="EG4" s="227"/>
       <c r="EK4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="EL4" s="32"/>
       <c r="EM4" s="32"/>
-      <c r="EN4" s="235" t="s">
+      <c r="EN4" s="221" t="s">
         <v>414</v>
       </c>
-      <c r="EO4" s="235"/>
-      <c r="EP4" s="235"/>
-      <c r="EQ4" s="235"/>
-      <c r="ER4" s="235" t="s">
+      <c r="EO4" s="221"/>
+      <c r="EP4" s="221"/>
+      <c r="EQ4" s="221"/>
+      <c r="ER4" s="221" t="s">
         <v>415</v>
       </c>
-      <c r="ES4" s="235"/>
-      <c r="ET4" s="235"/>
-      <c r="EU4" s="235"/>
-      <c r="EV4" s="235" t="s">
+      <c r="ES4" s="221"/>
+      <c r="ET4" s="221"/>
+      <c r="EU4" s="221"/>
+      <c r="EV4" s="221" t="s">
         <v>416</v>
       </c>
-      <c r="EW4" s="235"/>
-      <c r="EX4" s="235"/>
-      <c r="EY4" s="235"/>
-      <c r="EZ4" s="235" t="s">
+      <c r="EW4" s="221"/>
+      <c r="EX4" s="221"/>
+      <c r="EY4" s="221"/>
+      <c r="EZ4" s="221" t="s">
         <v>417</v>
       </c>
-      <c r="FA4" s="235"/>
-      <c r="FB4" s="235"/>
-      <c r="FC4" s="235"/>
+      <c r="FA4" s="221"/>
+      <c r="FB4" s="221"/>
+      <c r="FC4" s="221"/>
       <c r="FD4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="FE4" s="32"/>
       <c r="FF4" s="32"/>
-      <c r="FG4" s="222" t="s">
+      <c r="FG4" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="FH4" s="222"/>
-      <c r="FI4" s="222"/>
+      <c r="FH4" s="232"/>
+      <c r="FI4" s="232"/>
       <c r="FJ4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="FK4" s="32"/>
       <c r="FL4" s="32"/>
-      <c r="FM4" s="223" t="s">
+      <c r="FM4" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="FN4" s="223"/>
-      <c r="FO4" s="223"/>
-      <c r="FP4" s="223"/>
-      <c r="FQ4" s="223"/>
-      <c r="FR4" s="223"/>
-      <c r="FS4" s="223"/>
+      <c r="FN4" s="224"/>
+      <c r="FO4" s="224"/>
+      <c r="FP4" s="224"/>
+      <c r="FQ4" s="224"/>
+      <c r="FR4" s="224"/>
+      <c r="FS4" s="224"/>
       <c r="FT4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="FU4" s="32"/>
       <c r="FV4" s="32"/>
-      <c r="FW4" s="234" t="s">
+      <c r="FW4" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="FX4" s="235"/>
-      <c r="FY4" s="235"/>
-      <c r="FZ4" s="235"/>
-      <c r="GA4" s="235"/>
-      <c r="GB4" s="235"/>
-      <c r="GC4" s="235"/>
-      <c r="GD4" s="224" t="s">
+      <c r="FX4" s="221"/>
+      <c r="FY4" s="221"/>
+      <c r="FZ4" s="221"/>
+      <c r="GA4" s="221"/>
+      <c r="GB4" s="221"/>
+      <c r="GC4" s="221"/>
+      <c r="GD4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="GE4" s="225"/>
-      <c r="GF4" s="225"/>
-      <c r="GG4" s="225"/>
-      <c r="GH4" s="226"/>
-      <c r="GL4" s="237" t="s">
+      <c r="GE4" s="226"/>
+      <c r="GF4" s="226"/>
+      <c r="GG4" s="226"/>
+      <c r="GH4" s="227"/>
+      <c r="GL4" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="GM4" s="237"/>
-      <c r="GN4" s="237"/>
-      <c r="GO4" s="238" t="s">
+      <c r="GM4" s="238"/>
+      <c r="GN4" s="238"/>
+      <c r="GO4" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="GP4" s="238"/>
-      <c r="GQ4" s="238"/>
-      <c r="GR4" s="238"/>
-      <c r="GS4" s="238"/>
-      <c r="GT4" s="237" t="s">
+      <c r="GP4" s="239"/>
+      <c r="GQ4" s="239"/>
+      <c r="GR4" s="239"/>
+      <c r="GS4" s="239"/>
+      <c r="GT4" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="GU4" s="237"/>
-      <c r="GV4" s="237"/>
-      <c r="GW4" s="239" t="s">
+      <c r="GU4" s="238"/>
+      <c r="GV4" s="238"/>
+      <c r="GW4" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="GX4" s="240"/>
-      <c r="GY4" s="240"/>
-      <c r="GZ4" s="240"/>
-      <c r="HA4" s="240"/>
-      <c r="HB4" s="240"/>
-      <c r="HC4" s="240"/>
-      <c r="HD4" s="241"/>
-      <c r="HE4" s="224" t="s">
+      <c r="GX4" s="241"/>
+      <c r="GY4" s="241"/>
+      <c r="GZ4" s="241"/>
+      <c r="HA4" s="241"/>
+      <c r="HB4" s="241"/>
+      <c r="HC4" s="241"/>
+      <c r="HD4" s="242"/>
+      <c r="HE4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="HF4" s="225"/>
-      <c r="HG4" s="225"/>
-      <c r="HH4" s="225"/>
-      <c r="HI4" s="226"/>
+      <c r="HF4" s="226"/>
+      <c r="HG4" s="226"/>
+      <c r="HH4" s="226"/>
+      <c r="HI4" s="227"/>
       <c r="HL4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="HM4" s="32"/>
       <c r="HN4" s="32"/>
-      <c r="HO4" s="223" t="s">
+      <c r="HO4" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="HP4" s="223"/>
-      <c r="HQ4" s="223"/>
-      <c r="HR4" s="223"/>
-      <c r="HS4" s="223"/>
-      <c r="HT4" s="223" t="s">
+      <c r="HP4" s="224"/>
+      <c r="HQ4" s="224"/>
+      <c r="HR4" s="224"/>
+      <c r="HS4" s="224"/>
+      <c r="HT4" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="HU4" s="223"/>
-      <c r="HV4" s="223"/>
-      <c r="HW4" s="223"/>
-      <c r="HX4" s="223"/>
+      <c r="HU4" s="224"/>
+      <c r="HV4" s="224"/>
+      <c r="HW4" s="224"/>
+      <c r="HX4" s="224"/>
       <c r="HY4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="HZ4" s="32"/>
       <c r="IA4" s="32"/>
-      <c r="IB4" s="234" t="s">
+      <c r="IB4" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="IC4" s="235"/>
-      <c r="ID4" s="235"/>
-      <c r="IE4" s="235"/>
-      <c r="IF4" s="235"/>
-      <c r="IG4" s="235"/>
-      <c r="IH4" s="235"/>
-      <c r="II4" s="224" t="s">
+      <c r="IC4" s="221"/>
+      <c r="ID4" s="221"/>
+      <c r="IE4" s="221"/>
+      <c r="IF4" s="221"/>
+      <c r="IG4" s="221"/>
+      <c r="IH4" s="221"/>
+      <c r="II4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="IJ4" s="225"/>
-      <c r="IK4" s="225"/>
-      <c r="IL4" s="225"/>
-      <c r="IM4" s="226"/>
+      <c r="IJ4" s="226"/>
+      <c r="IK4" s="226"/>
+      <c r="IL4" s="226"/>
+      <c r="IM4" s="227"/>
       <c r="IQ4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="IR4" s="32"/>
       <c r="IS4" s="32"/>
-      <c r="IT4" s="222" t="s">
+      <c r="IT4" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="IU4" s="222"/>
-      <c r="IV4" s="222"/>
-      <c r="IW4" s="222"/>
-      <c r="IX4" s="222"/>
-      <c r="IY4" s="222" t="s">
+      <c r="IU4" s="232"/>
+      <c r="IV4" s="232"/>
+      <c r="IW4" s="232"/>
+      <c r="IX4" s="232"/>
+      <c r="IY4" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="IZ4" s="222"/>
-      <c r="JA4" s="222"/>
-      <c r="JB4" s="222"/>
-      <c r="JC4" s="222"/>
-      <c r="JD4" s="222" t="s">
+      <c r="IZ4" s="232"/>
+      <c r="JA4" s="232"/>
+      <c r="JB4" s="232"/>
+      <c r="JC4" s="232"/>
+      <c r="JD4" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="JE4" s="222"/>
-      <c r="JF4" s="222"/>
-      <c r="JG4" s="222"/>
-      <c r="JH4" s="223" t="s">
+      <c r="JE4" s="232"/>
+      <c r="JF4" s="232"/>
+      <c r="JG4" s="232"/>
+      <c r="JH4" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="JI4" s="223"/>
-      <c r="JJ4" s="223"/>
-      <c r="JK4" s="223"/>
-      <c r="JL4" s="223"/>
-      <c r="JM4" s="224" t="s">
+      <c r="JI4" s="224"/>
+      <c r="JJ4" s="224"/>
+      <c r="JK4" s="224"/>
+      <c r="JL4" s="224"/>
+      <c r="JM4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="JN4" s="225"/>
-      <c r="JO4" s="225"/>
-      <c r="JP4" s="225"/>
-      <c r="JQ4" s="226"/>
+      <c r="JN4" s="226"/>
+      <c r="JO4" s="226"/>
+      <c r="JP4" s="226"/>
+      <c r="JQ4" s="227"/>
+      <c r="JU4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="JV4" s="32"/>
+      <c r="JW4" s="32"/>
+      <c r="JX4" s="221" t="s">
+        <v>414</v>
+      </c>
+      <c r="JY4" s="221"/>
+      <c r="JZ4" s="221"/>
+      <c r="KA4" s="221"/>
+      <c r="KB4" s="221" t="s">
+        <v>415</v>
+      </c>
+      <c r="KC4" s="221"/>
+      <c r="KD4" s="221"/>
+      <c r="KE4" s="221"/>
+      <c r="KF4" s="221" t="s">
+        <v>416</v>
+      </c>
+      <c r="KG4" s="221"/>
+      <c r="KH4" s="221"/>
+      <c r="KI4" s="221"/>
+      <c r="KJ4" s="221" t="s">
+        <v>417</v>
+      </c>
+      <c r="KK4" s="221"/>
+      <c r="KL4" s="221"/>
+      <c r="KM4" s="221"/>
+      <c r="KN4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="KO4" s="32"/>
+      <c r="KP4" s="32"/>
+      <c r="KQ4" s="224" t="s">
+        <v>583</v>
+      </c>
+      <c r="KR4" s="224"/>
+      <c r="KS4" s="224"/>
+      <c r="KT4" s="224"/>
+      <c r="KU4" s="224"/>
+      <c r="KV4" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="KW4" s="224"/>
+      <c r="KX4" s="224"/>
+      <c r="KY4" s="224"/>
+      <c r="KZ4" s="224"/>
+      <c r="LA4" s="225" t="s">
+        <v>9</v>
+      </c>
+      <c r="LB4" s="226"/>
+      <c r="LC4" s="226"/>
+      <c r="LD4" s="226"/>
+      <c r="LE4" s="227"/>
+      <c r="LI4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="LJ4" s="32"/>
+      <c r="LK4" s="32"/>
+      <c r="LL4" s="232" t="s">
+        <v>26</v>
+      </c>
+      <c r="LM4" s="232"/>
+      <c r="LN4" s="232"/>
+      <c r="LO4" s="232"/>
+      <c r="LP4" s="232"/>
+      <c r="LQ4" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="LR4" s="232"/>
+      <c r="LS4" s="232"/>
+      <c r="LT4" s="232"/>
+      <c r="LU4" s="232"/>
+      <c r="LV4" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="LW4" s="224"/>
+      <c r="LX4" s="224"/>
+      <c r="LY4" s="224"/>
+      <c r="LZ4" s="224"/>
+      <c r="MA4" s="225" t="s">
+        <v>9</v>
+      </c>
+      <c r="MB4" s="226"/>
+      <c r="MC4" s="226"/>
+      <c r="MD4" s="226"/>
+      <c r="ME4" s="227"/>
     </row>
-    <row r="5" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:343" x14ac:dyDescent="0.4">
       <c r="C5" s="32" t="str">
-        <f>128-1-7-16-8-8-64 &amp; "bits"</f>
-        <v>24bits</v>
+        <f>128-1-64-16-24 &amp; " bits"</f>
+        <v>23 bits</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="220" t="s">
+      <c r="F5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="221"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="223"/>
       <c r="K5" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="221"/>
-      <c r="P5" s="223" t="s">
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="227" t="s">
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="228"/>
-      <c r="W5" s="228"/>
-      <c r="X5" s="228"/>
-      <c r="Y5" s="229"/>
-      <c r="AC5" s="223" t="s">
+      <c r="V5" s="229"/>
+      <c r="W5" s="229"/>
+      <c r="X5" s="229"/>
+      <c r="Y5" s="230"/>
+      <c r="AC5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="223"/>
-      <c r="AE5" s="223"/>
-      <c r="AF5" s="223"/>
-      <c r="AG5" s="223" t="s">
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="223"/>
-      <c r="AI5" s="223"/>
-      <c r="AJ5" s="223"/>
-      <c r="AK5" s="223" t="s">
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="223"/>
-      <c r="AN5" s="223"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="224"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="44"/>
       <c r="AS5" s="45"/>
@@ -28751,303 +31170,392 @@
       </c>
       <c r="BL5" s="32"/>
       <c r="BM5" s="32"/>
-      <c r="BN5" s="220" t="s">
+      <c r="BN5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="BO5" s="220"/>
-      <c r="BP5" s="220"/>
-      <c r="BQ5" s="220"/>
-      <c r="BR5" s="221"/>
-      <c r="BS5" s="220" t="s">
+      <c r="BO5" s="222"/>
+      <c r="BP5" s="222"/>
+      <c r="BQ5" s="222"/>
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="BT5" s="220"/>
-      <c r="BU5" s="220"/>
-      <c r="BV5" s="220"/>
-      <c r="BW5" s="221"/>
-      <c r="BX5" s="220" t="s">
+      <c r="BT5" s="222"/>
+      <c r="BU5" s="222"/>
+      <c r="BV5" s="222"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="BY5" s="220"/>
-      <c r="BZ5" s="220"/>
-      <c r="CA5" s="221"/>
+      <c r="BY5" s="222"/>
+      <c r="BZ5" s="222"/>
+      <c r="CA5" s="223"/>
       <c r="CB5" s="32" t="s">
         <v>433</v>
       </c>
       <c r="CC5" s="32"/>
       <c r="CD5" s="32"/>
-      <c r="CE5" s="223" t="s">
+      <c r="CE5" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="CF5" s="223"/>
-      <c r="CG5" s="223"/>
-      <c r="CH5" s="223"/>
-      <c r="CI5" s="223"/>
-      <c r="CJ5" s="223"/>
-      <c r="CK5" s="223"/>
-      <c r="CL5" s="223"/>
-      <c r="CM5" s="227" t="s">
+      <c r="CF5" s="224"/>
+      <c r="CG5" s="224"/>
+      <c r="CH5" s="224"/>
+      <c r="CI5" s="224"/>
+      <c r="CJ5" s="224"/>
+      <c r="CK5" s="224"/>
+      <c r="CL5" s="224"/>
+      <c r="CM5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="CN5" s="228"/>
-      <c r="CO5" s="228"/>
-      <c r="CP5" s="228"/>
-      <c r="CQ5" s="229"/>
+      <c r="CN5" s="229"/>
+      <c r="CO5" s="229"/>
+      <c r="CP5" s="229"/>
+      <c r="CQ5" s="230"/>
       <c r="CU5" s="32" t="s">
         <v>581</v>
       </c>
       <c r="CV5" s="32"/>
       <c r="CW5" s="32"/>
-      <c r="CX5" s="220" t="s">
+      <c r="CX5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="CY5" s="220"/>
-      <c r="CZ5" s="220"/>
-      <c r="DA5" s="221"/>
-      <c r="DB5" s="220" t="s">
+      <c r="CY5" s="222"/>
+      <c r="CZ5" s="222"/>
+      <c r="DA5" s="223"/>
+      <c r="DB5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="DC5" s="220"/>
-      <c r="DD5" s="220"/>
-      <c r="DE5" s="221"/>
-      <c r="DF5" s="220" t="s">
+      <c r="DC5" s="222"/>
+      <c r="DD5" s="222"/>
+      <c r="DE5" s="223"/>
+      <c r="DF5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="DG5" s="220"/>
-      <c r="DH5" s="220"/>
-      <c r="DI5" s="221"/>
-      <c r="DJ5" s="220" t="s">
+      <c r="DG5" s="222"/>
+      <c r="DH5" s="222"/>
+      <c r="DI5" s="223"/>
+      <c r="DJ5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="DK5" s="220"/>
-      <c r="DL5" s="220"/>
-      <c r="DM5" s="221"/>
+      <c r="DK5" s="222"/>
+      <c r="DL5" s="222"/>
+      <c r="DM5" s="223"/>
       <c r="DN5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="DO5" s="32"/>
       <c r="DP5" s="32"/>
-      <c r="DQ5" s="223" t="s">
+      <c r="DQ5" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="DR5" s="223"/>
-      <c r="DS5" s="223"/>
-      <c r="DT5" s="223"/>
-      <c r="DU5" s="223"/>
-      <c r="DV5" s="223"/>
-      <c r="DW5" s="223"/>
-      <c r="DX5" s="223" t="s">
+      <c r="DR5" s="224"/>
+      <c r="DS5" s="224"/>
+      <c r="DT5" s="224"/>
+      <c r="DU5" s="224"/>
+      <c r="DV5" s="224"/>
+      <c r="DW5" s="224"/>
+      <c r="DX5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="DY5" s="223"/>
-      <c r="DZ5" s="223"/>
-      <c r="EA5" s="223"/>
-      <c r="EB5" s="223"/>
-      <c r="EC5" s="227" t="s">
+      <c r="DY5" s="224"/>
+      <c r="DZ5" s="224"/>
+      <c r="EA5" s="224"/>
+      <c r="EB5" s="224"/>
+      <c r="EC5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="ED5" s="228"/>
-      <c r="EE5" s="228"/>
-      <c r="EF5" s="228"/>
-      <c r="EG5" s="229"/>
+      <c r="ED5" s="229"/>
+      <c r="EE5" s="229"/>
+      <c r="EF5" s="229"/>
+      <c r="EG5" s="230"/>
       <c r="EK5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="EL5" s="32"/>
       <c r="EM5" s="32"/>
-      <c r="EN5" s="220" t="s">
+      <c r="EN5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="EO5" s="220"/>
-      <c r="EP5" s="220"/>
-      <c r="EQ5" s="221"/>
-      <c r="ER5" s="220" t="s">
+      <c r="EO5" s="222"/>
+      <c r="EP5" s="222"/>
+      <c r="EQ5" s="223"/>
+      <c r="ER5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="ES5" s="220"/>
-      <c r="ET5" s="220"/>
-      <c r="EU5" s="221"/>
-      <c r="EV5" s="220" t="s">
+      <c r="ES5" s="222"/>
+      <c r="ET5" s="222"/>
+      <c r="EU5" s="223"/>
+      <c r="EV5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="EW5" s="220"/>
-      <c r="EX5" s="220"/>
-      <c r="EY5" s="221"/>
-      <c r="EZ5" s="220" t="s">
+      <c r="EW5" s="222"/>
+      <c r="EX5" s="222"/>
+      <c r="EY5" s="223"/>
+      <c r="EZ5" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="FA5" s="220"/>
-      <c r="FB5" s="220"/>
-      <c r="FC5" s="221"/>
+      <c r="FA5" s="222"/>
+      <c r="FB5" s="222"/>
+      <c r="FC5" s="223"/>
       <c r="FD5" s="32" t="s">
         <v>36</v>
       </c>
       <c r="FE5" s="32"/>
       <c r="FF5" s="32"/>
-      <c r="FG5" s="220" t="s">
+      <c r="FG5" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="FH5" s="220"/>
-      <c r="FI5" s="221"/>
+      <c r="FH5" s="222"/>
+      <c r="FI5" s="223"/>
       <c r="FJ5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="FK5" s="32"/>
       <c r="FL5" s="32"/>
-      <c r="FM5" s="223" t="s">
+      <c r="FM5" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="FN5" s="223"/>
-      <c r="FO5" s="223"/>
-      <c r="FP5" s="223"/>
-      <c r="FQ5" s="223"/>
-      <c r="FR5" s="223"/>
-      <c r="FS5" s="223"/>
+      <c r="FN5" s="224"/>
+      <c r="FO5" s="224"/>
+      <c r="FP5" s="224"/>
+      <c r="FQ5" s="224"/>
+      <c r="FR5" s="224"/>
+      <c r="FS5" s="224"/>
       <c r="FT5" s="32" t="s">
         <v>433</v>
       </c>
       <c r="FU5" s="32"/>
       <c r="FV5" s="32"/>
-      <c r="FW5" s="223" t="s">
+      <c r="FW5" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="FX5" s="223"/>
-      <c r="FY5" s="223"/>
-      <c r="FZ5" s="223"/>
-      <c r="GA5" s="223"/>
-      <c r="GB5" s="223"/>
-      <c r="GC5" s="223"/>
-      <c r="GD5" s="227" t="s">
+      <c r="FX5" s="224"/>
+      <c r="FY5" s="224"/>
+      <c r="FZ5" s="224"/>
+      <c r="GA5" s="224"/>
+      <c r="GB5" s="224"/>
+      <c r="GC5" s="224"/>
+      <c r="GD5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="GE5" s="228"/>
-      <c r="GF5" s="228"/>
-      <c r="GG5" s="228"/>
-      <c r="GH5" s="229"/>
-      <c r="GL5" s="242" t="str">
+      <c r="GE5" s="229"/>
+      <c r="GF5" s="229"/>
+      <c r="GG5" s="229"/>
+      <c r="GH5" s="230"/>
+      <c r="GL5" s="243" t="str">
         <f>128-1-7-16-8-8-36 &amp; " bits"</f>
         <v>52 bits</v>
       </c>
-      <c r="GM5" s="242"/>
-      <c r="GN5" s="242"/>
-      <c r="GO5" s="230" t="s">
+      <c r="GM5" s="243"/>
+      <c r="GN5" s="243"/>
+      <c r="GO5" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="GP5" s="230"/>
-      <c r="GQ5" s="230"/>
-      <c r="GR5" s="230"/>
-      <c r="GS5" s="230"/>
-      <c r="GT5" s="242" t="s">
+      <c r="GP5" s="233"/>
+      <c r="GQ5" s="233"/>
+      <c r="GR5" s="233"/>
+      <c r="GS5" s="233"/>
+      <c r="GT5" s="243" t="s">
         <v>433</v>
       </c>
-      <c r="GU5" s="242"/>
-      <c r="GV5" s="242"/>
-      <c r="GW5" s="230" t="s">
+      <c r="GU5" s="243"/>
+      <c r="GV5" s="243"/>
+      <c r="GW5" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="GX5" s="230"/>
-      <c r="GY5" s="230"/>
-      <c r="GZ5" s="230"/>
-      <c r="HA5" s="230"/>
-      <c r="HB5" s="230"/>
-      <c r="HC5" s="230"/>
-      <c r="HD5" s="230"/>
-      <c r="HE5" s="227" t="s">
+      <c r="GX5" s="233"/>
+      <c r="GY5" s="233"/>
+      <c r="GZ5" s="233"/>
+      <c r="HA5" s="233"/>
+      <c r="HB5" s="233"/>
+      <c r="HC5" s="233"/>
+      <c r="HD5" s="233"/>
+      <c r="HE5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="HF5" s="228"/>
-      <c r="HG5" s="228"/>
-      <c r="HH5" s="228"/>
-      <c r="HI5" s="229"/>
+      <c r="HF5" s="229"/>
+      <c r="HG5" s="229"/>
+      <c r="HH5" s="229"/>
+      <c r="HI5" s="230"/>
       <c r="HL5" s="32" t="str">
         <f>128-1-7-16-8-8-36-32 &amp; " bits"</f>
         <v>20 bits</v>
       </c>
       <c r="HM5" s="32"/>
       <c r="HN5" s="32"/>
-      <c r="HO5" s="223" t="s">
+      <c r="HO5" s="224" t="s">
         <v>435</v>
       </c>
-      <c r="HP5" s="223"/>
-      <c r="HQ5" s="223"/>
-      <c r="HR5" s="223"/>
-      <c r="HS5" s="223"/>
-      <c r="HT5" s="223" t="s">
+      <c r="HP5" s="224"/>
+      <c r="HQ5" s="224"/>
+      <c r="HR5" s="224"/>
+      <c r="HS5" s="224"/>
+      <c r="HT5" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="HU5" s="223"/>
-      <c r="HV5" s="223"/>
-      <c r="HW5" s="223"/>
-      <c r="HX5" s="223"/>
+      <c r="HU5" s="224"/>
+      <c r="HV5" s="224"/>
+      <c r="HW5" s="224"/>
+      <c r="HX5" s="224"/>
       <c r="HY5" s="32" t="s">
         <v>23</v>
       </c>
       <c r="HZ5" s="32"/>
       <c r="IA5" s="32"/>
-      <c r="IB5" s="223" t="s">
+      <c r="IB5" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="IC5" s="223"/>
-      <c r="ID5" s="223"/>
-      <c r="IE5" s="223"/>
-      <c r="IF5" s="223"/>
-      <c r="IG5" s="223"/>
-      <c r="IH5" s="223"/>
-      <c r="II5" s="227" t="s">
+      <c r="IC5" s="224"/>
+      <c r="ID5" s="224"/>
+      <c r="IE5" s="224"/>
+      <c r="IF5" s="224"/>
+      <c r="IG5" s="224"/>
+      <c r="IH5" s="224"/>
+      <c r="II5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="IJ5" s="228"/>
-      <c r="IK5" s="228"/>
-      <c r="IL5" s="228"/>
-      <c r="IM5" s="229"/>
+      <c r="IJ5" s="229"/>
+      <c r="IK5" s="229"/>
+      <c r="IL5" s="229"/>
+      <c r="IM5" s="230"/>
       <c r="IQ5" s="32" t="s">
         <v>28</v>
       </c>
       <c r="IR5" s="32"/>
       <c r="IS5" s="32"/>
-      <c r="IT5" s="220" t="s">
+      <c r="IT5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="IU5" s="220"/>
-      <c r="IV5" s="220"/>
-      <c r="IW5" s="220"/>
-      <c r="IX5" s="221"/>
-      <c r="IY5" s="220" t="s">
+      <c r="IU5" s="222"/>
+      <c r="IV5" s="222"/>
+      <c r="IW5" s="222"/>
+      <c r="IX5" s="223"/>
+      <c r="IY5" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="IZ5" s="220"/>
-      <c r="JA5" s="220"/>
-      <c r="JB5" s="220"/>
-      <c r="JC5" s="221"/>
-      <c r="JD5" s="220" t="s">
+      <c r="IZ5" s="222"/>
+      <c r="JA5" s="222"/>
+      <c r="JB5" s="222"/>
+      <c r="JC5" s="223"/>
+      <c r="JD5" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="JE5" s="220"/>
-      <c r="JF5" s="220"/>
-      <c r="JG5" s="221"/>
-      <c r="JH5" s="223" t="s">
+      <c r="JE5" s="222"/>
+      <c r="JF5" s="222"/>
+      <c r="JG5" s="223"/>
+      <c r="JH5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="JI5" s="223"/>
-      <c r="JJ5" s="223"/>
-      <c r="JK5" s="223"/>
-      <c r="JL5" s="223"/>
-      <c r="JM5" s="227" t="s">
+      <c r="JI5" s="224"/>
+      <c r="JJ5" s="224"/>
+      <c r="JK5" s="224"/>
+      <c r="JL5" s="224"/>
+      <c r="JM5" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="JN5" s="228"/>
-      <c r="JO5" s="228"/>
-      <c r="JP5" s="228"/>
-      <c r="JQ5" s="229"/>
+      <c r="JN5" s="229"/>
+      <c r="JO5" s="229"/>
+      <c r="JP5" s="229"/>
+      <c r="JQ5" s="230"/>
+      <c r="JU5" s="32" t="str">
+        <f>128-1-7-16-16-3-1-40 &amp; " bits"</f>
+        <v>44 bits</v>
+      </c>
+      <c r="JV5" s="32"/>
+      <c r="JW5" s="32"/>
+      <c r="JX5" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="JY5" s="222"/>
+      <c r="JZ5" s="222"/>
+      <c r="KA5" s="223"/>
+      <c r="KB5" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="KC5" s="222"/>
+      <c r="KD5" s="222"/>
+      <c r="KE5" s="223"/>
+      <c r="KF5" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="KG5" s="222"/>
+      <c r="KH5" s="222"/>
+      <c r="KI5" s="223"/>
+      <c r="KJ5" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK5" s="222"/>
+      <c r="KL5" s="222"/>
+      <c r="KM5" s="223"/>
+      <c r="KN5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="KO5" s="32"/>
+      <c r="KP5" s="32"/>
+      <c r="KQ5" s="224" t="s">
+        <v>30</v>
+      </c>
+      <c r="KR5" s="224"/>
+      <c r="KS5" s="224"/>
+      <c r="KT5" s="224"/>
+      <c r="KU5" s="224"/>
+      <c r="KV5" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="KW5" s="224"/>
+      <c r="KX5" s="224"/>
+      <c r="KY5" s="224"/>
+      <c r="KZ5" s="224"/>
+      <c r="LA5" s="228" t="s">
+        <v>10</v>
+      </c>
+      <c r="LB5" s="229"/>
+      <c r="LC5" s="229"/>
+      <c r="LD5" s="229"/>
+      <c r="LE5" s="230"/>
+      <c r="LI5" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="LJ5" s="32"/>
+      <c r="LK5" s="32"/>
+      <c r="LL5" s="222" t="s">
+        <v>27</v>
+      </c>
+      <c r="LM5" s="222"/>
+      <c r="LN5" s="222"/>
+      <c r="LO5" s="222"/>
+      <c r="LP5" s="223"/>
+      <c r="LQ5" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="LR5" s="222"/>
+      <c r="LS5" s="222"/>
+      <c r="LT5" s="222"/>
+      <c r="LU5" s="223"/>
+      <c r="LV5" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="LW5" s="224"/>
+      <c r="LX5" s="224"/>
+      <c r="LY5" s="224"/>
+      <c r="LZ5" s="224"/>
+      <c r="MA5" s="228" t="s">
+        <v>10</v>
+      </c>
+      <c r="MB5" s="229"/>
+      <c r="MC5" s="229"/>
+      <c r="MD5" s="229"/>
+      <c r="ME5" s="230"/>
     </row>
-    <row r="6" spans="3:277" x14ac:dyDescent="0.4">
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="AC6" s="243"/>
-      <c r="AD6" s="243"/>
+    <row r="6" spans="3:343" x14ac:dyDescent="0.4">
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="AC6" s="220"/>
+      <c r="AD6" s="220"/>
       <c r="AN6" s="1"/>
-      <c r="AR6" s="243"/>
-      <c r="AS6" s="243"/>
+      <c r="AR6" s="220"/>
+      <c r="AS6" s="220"/>
       <c r="AT6" s="248" t="s">
         <v>15</v>
       </c>
@@ -29073,8 +31581,10 @@
         <v>17</v>
       </c>
       <c r="BF6" s="1"/>
+      <c r="JU6" s="220"/>
+      <c r="JV6" s="220"/>
     </row>
-    <row r="7" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:343" x14ac:dyDescent="0.4">
       <c r="AT7" s="246" t="s">
         <v>18</v>
       </c>
@@ -29089,17 +31599,28 @@
       </c>
       <c r="BD7" s="247"/>
     </row>
-    <row r="9" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:343" x14ac:dyDescent="0.4">
       <c r="AQ9" s="4"/>
     </row>
-    <row r="10" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:343" x14ac:dyDescent="0.4">
       <c r="AQ10" s="4"/>
     </row>
-    <row r="11" spans="3:277" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:343" x14ac:dyDescent="0.4">
       <c r="AQ11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="164">
+    <mergeCell ref="LI3:ME3"/>
+    <mergeCell ref="LI4:LK4"/>
+    <mergeCell ref="LL4:LP4"/>
+    <mergeCell ref="LQ4:LU4"/>
+    <mergeCell ref="LV4:LZ4"/>
+    <mergeCell ref="MA4:ME4"/>
+    <mergeCell ref="LI5:LK5"/>
+    <mergeCell ref="LL5:LP5"/>
+    <mergeCell ref="LQ5:LU5"/>
+    <mergeCell ref="LV5:LZ5"/>
+    <mergeCell ref="MA5:ME5"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BC7:BD7"/>
     <mergeCell ref="AT6:AU6"/>
@@ -29233,6 +31754,26 @@
     <mergeCell ref="FW5:GC5"/>
     <mergeCell ref="FD4:FF4"/>
     <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="KV4:KZ4"/>
+    <mergeCell ref="KV5:KZ5"/>
+    <mergeCell ref="LA4:LE4"/>
+    <mergeCell ref="LA5:LE5"/>
+    <mergeCell ref="JU5:JW5"/>
+    <mergeCell ref="KN5:KP5"/>
+    <mergeCell ref="KQ5:KU5"/>
+    <mergeCell ref="JU3:LE3"/>
+    <mergeCell ref="JU4:JW4"/>
+    <mergeCell ref="KN4:KP4"/>
+    <mergeCell ref="KQ4:KU4"/>
+    <mergeCell ref="JU6:JV6"/>
+    <mergeCell ref="JX4:KA4"/>
+    <mergeCell ref="KB4:KE4"/>
+    <mergeCell ref="KF4:KI4"/>
+    <mergeCell ref="KJ4:KM4"/>
+    <mergeCell ref="JX5:KA5"/>
+    <mergeCell ref="KB5:KE5"/>
+    <mergeCell ref="KF5:KI5"/>
+    <mergeCell ref="KJ5:KM5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29241,18 +31782,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C6584-A140-46FB-9B22-984E9B48BC21}">
-  <dimension ref="C3:FE8"/>
+  <dimension ref="C3:GJ8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BS15" sqref="BS15"/>
+    <sheetView showGridLines="0" topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="FJ20" sqref="FJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="381" width="3.625" customWidth="1"/>
+    <col min="1" max="412" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:161" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:192" x14ac:dyDescent="0.4">
       <c r="C3" s="259" t="s">
         <v>9</v>
       </c>
@@ -29394,37 +31935,68 @@
       <c r="EJ3" s="258"/>
       <c r="EK3" s="258"/>
       <c r="EL3" s="258"/>
-      <c r="EO3" s="8">
+      <c r="EO3" s="258" t="s">
+        <v>586</v>
+      </c>
+      <c r="EP3" s="258"/>
+      <c r="EQ3" s="258"/>
+      <c r="ER3" s="258"/>
+      <c r="ES3" s="258"/>
+      <c r="ET3" s="258"/>
+      <c r="EU3" s="258"/>
+      <c r="EV3" s="258"/>
+      <c r="EW3" s="258"/>
+      <c r="EX3" s="258"/>
+      <c r="EY3" s="258"/>
+      <c r="EZ3" s="258"/>
+      <c r="FA3" s="258"/>
+      <c r="FB3" s="258"/>
+      <c r="FC3" s="258"/>
+      <c r="FD3" s="258"/>
+      <c r="FG3" s="258" t="s">
+        <v>587</v>
+      </c>
+      <c r="FH3" s="258"/>
+      <c r="FI3" s="258"/>
+      <c r="FJ3" s="258"/>
+      <c r="FK3" s="258"/>
+      <c r="FL3" s="258"/>
+      <c r="FM3" s="258"/>
+      <c r="FN3" s="258"/>
+      <c r="FO3" s="258"/>
+      <c r="FP3" s="258"/>
+      <c r="FQ3" s="258"/>
+      <c r="FT3" s="8">
         <v>15</v>
       </c>
-      <c r="EP3" s="6">
+      <c r="FU3" s="6">
         <v>14</v>
       </c>
-      <c r="EQ3" s="253" t="s">
+      <c r="FV3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="ER3" s="254"/>
-      <c r="ES3" s="254"/>
-      <c r="ET3" s="254"/>
-      <c r="EU3" s="254"/>
-      <c r="EV3" s="254"/>
-      <c r="EW3" s="254"/>
-      <c r="EX3" s="254"/>
-      <c r="EY3" s="254"/>
-      <c r="EZ3" s="254"/>
-      <c r="FA3" s="255"/>
-      <c r="FB3" s="6">
+      <c r="FW3" s="254"/>
+      <c r="FX3" s="254"/>
+      <c r="FY3" s="254"/>
+      <c r="FZ3" s="254"/>
+      <c r="GA3" s="254"/>
+      <c r="GB3" s="254"/>
+      <c r="GC3" s="254"/>
+      <c r="GD3" s="254"/>
+      <c r="GE3" s="254"/>
+      <c r="GF3" s="255"/>
+      <c r="GG3" s="6">
         <v>1</v>
       </c>
-      <c r="FC3" s="7">
+      <c r="GH3" s="7">
         <v>0</v>
       </c>
-      <c r="FD3" s="246" t="s">
+      <c r="GI3" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="FE3" s="49"/>
+      <c r="GJ3" s="49"/>
     </row>
-    <row r="4" spans="3:161" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:192" x14ac:dyDescent="0.4">
       <c r="C4" s="33" t="s">
         <v>44</v>
       </c>
@@ -29608,25 +32180,64 @@
       <c r="EJ4" s="33"/>
       <c r="EK4" s="33"/>
       <c r="EL4" s="33"/>
-      <c r="EO4" s="258" t="s">
+      <c r="EO4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="32"/>
+      <c r="EQ4" s="32"/>
+      <c r="ER4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="ES4" s="33"/>
+      <c r="ET4" s="33"/>
+      <c r="EU4" s="33"/>
+      <c r="EV4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="EW4" s="33"/>
+      <c r="EX4" s="33"/>
+      <c r="EY4" s="33"/>
+      <c r="EZ4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="FA4" s="33"/>
+      <c r="FB4" s="33"/>
+      <c r="FC4" s="33"/>
+      <c r="FD4" s="33"/>
+      <c r="FG4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="32"/>
+      <c r="FI4" s="32"/>
+      <c r="FJ4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="FK4" s="33"/>
+      <c r="FL4" s="33"/>
+      <c r="FM4" s="33"/>
+      <c r="FN4" s="33"/>
+      <c r="FO4" s="33"/>
+      <c r="FP4" s="33"/>
+      <c r="FQ4" s="33"/>
+      <c r="FT4" s="258" t="s">
         <v>403</v>
       </c>
-      <c r="EP4" s="258"/>
-      <c r="EQ4" s="258"/>
-      <c r="ER4" s="258"/>
-      <c r="ES4" s="258"/>
-      <c r="ET4" s="258"/>
-      <c r="EU4" s="258"/>
-      <c r="EV4" s="258"/>
-      <c r="EW4" s="258"/>
-      <c r="EX4" s="258"/>
-      <c r="EY4" s="258"/>
-      <c r="EZ4" s="258"/>
-      <c r="FA4" s="258"/>
-      <c r="FB4" s="258"/>
-      <c r="FC4" s="258"/>
+      <c r="FU4" s="258"/>
+      <c r="FV4" s="258"/>
+      <c r="FW4" s="258"/>
+      <c r="FX4" s="258"/>
+      <c r="FY4" s="258"/>
+      <c r="FZ4" s="258"/>
+      <c r="GA4" s="258"/>
+      <c r="GB4" s="258"/>
+      <c r="GC4" s="258"/>
+      <c r="GD4" s="258"/>
+      <c r="GE4" s="258"/>
+      <c r="GF4" s="258"/>
+      <c r="GG4" s="258"/>
+      <c r="GH4" s="258"/>
     </row>
-    <row r="5" spans="3:161" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:192" x14ac:dyDescent="0.4">
       <c r="C5" s="33" t="s">
         <v>6</v>
       </c>
@@ -29817,111 +32428,166 @@
       <c r="EJ5" s="33"/>
       <c r="EK5" s="33"/>
       <c r="EL5" s="33"/>
-      <c r="EO5" s="34"/>
-      <c r="EP5" s="35"/>
-      <c r="EQ5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="ER5" s="33"/>
+      <c r="EO5" s="32" t="str">
+        <f>128-24-1-1 &amp; " bits"</f>
+        <v>102 bits</v>
+      </c>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="32"/>
+      <c r="ER5" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="ES5" s="33"/>
       <c r="ET5" s="33"/>
       <c r="EU5" s="33"/>
-      <c r="EV5" s="33"/>
+      <c r="EV5" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="EW5" s="33"/>
       <c r="EX5" s="33"/>
       <c r="EY5" s="33"/>
-      <c r="EZ5" s="33"/>
+      <c r="EZ5" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="FA5" s="33"/>
-      <c r="FB5" s="34"/>
-      <c r="FC5" s="35"/>
+      <c r="FB5" s="33"/>
+      <c r="FC5" s="33"/>
+      <c r="FD5" s="33"/>
+      <c r="FG5" s="32" t="str">
+        <f>128-24 &amp; " bits"</f>
+        <v>104 bits</v>
+      </c>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="FK5" s="33"/>
+      <c r="FL5" s="33"/>
+      <c r="FM5" s="33"/>
+      <c r="FN5" s="33"/>
+      <c r="FO5" s="33"/>
+      <c r="FP5" s="33"/>
+      <c r="FQ5" s="33"/>
+      <c r="FT5" s="34"/>
+      <c r="FU5" s="35"/>
+      <c r="FV5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="FW5" s="33"/>
+      <c r="FX5" s="33"/>
+      <c r="FY5" s="33"/>
+      <c r="FZ5" s="33"/>
+      <c r="GA5" s="33"/>
+      <c r="GB5" s="33"/>
+      <c r="GC5" s="33"/>
+      <c r="GD5" s="33"/>
+      <c r="GE5" s="33"/>
+      <c r="GF5" s="33"/>
+      <c r="GG5" s="34"/>
+      <c r="GH5" s="35"/>
     </row>
-    <row r="6" spans="3:161" x14ac:dyDescent="0.4">
-      <c r="EO6" s="34"/>
-      <c r="EP6" s="35"/>
-      <c r="EQ6" s="34" t="s">
+    <row r="6" spans="3:192" x14ac:dyDescent="0.4">
+      <c r="FT6" s="34"/>
+      <c r="FU6" s="35"/>
+      <c r="FV6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="ER6" s="36"/>
-      <c r="ES6" s="36"/>
-      <c r="ET6" s="36"/>
-      <c r="EU6" s="36"/>
-      <c r="EV6" s="36"/>
-      <c r="EW6" s="36"/>
-      <c r="EX6" s="36"/>
-      <c r="EY6" s="36"/>
-      <c r="EZ6" s="36"/>
-      <c r="FA6" s="35"/>
-      <c r="FB6" s="34"/>
-      <c r="FC6" s="35"/>
+      <c r="FW6" s="36"/>
+      <c r="FX6" s="36"/>
+      <c r="FY6" s="36"/>
+      <c r="FZ6" s="36"/>
+      <c r="GA6" s="36"/>
+      <c r="GB6" s="36"/>
+      <c r="GC6" s="36"/>
+      <c r="GD6" s="36"/>
+      <c r="GE6" s="36"/>
+      <c r="GF6" s="35"/>
+      <c r="GG6" s="34"/>
+      <c r="GH6" s="35"/>
     </row>
-    <row r="7" spans="3:161" x14ac:dyDescent="0.4">
-      <c r="EO7" s="243"/>
-      <c r="EP7" s="243"/>
-      <c r="EQ7" s="248" t="s">
+    <row r="7" spans="3:192" x14ac:dyDescent="0.4">
+      <c r="FT7" s="220"/>
+      <c r="FU7" s="220"/>
+      <c r="FV7" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="ER7" s="249"/>
-      <c r="ES7" s="250" t="s">
+      <c r="FW7" s="249"/>
+      <c r="FX7" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="ET7" s="249"/>
-      <c r="EU7" s="256" t="s">
+      <c r="FY7" s="249"/>
+      <c r="FZ7" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="EV7" s="250"/>
-      <c r="EW7" s="249"/>
-      <c r="EX7" s="250">
+      <c r="GA7" s="250"/>
+      <c r="GB7" s="249"/>
+      <c r="GC7" s="250">
         <v>1</v>
       </c>
-      <c r="EY7" s="249"/>
-      <c r="EZ7" s="250">
+      <c r="GD7" s="249"/>
+      <c r="GE7" s="250">
         <v>0</v>
       </c>
-      <c r="FA7" s="251"/>
-      <c r="FB7" s="3" t="s">
+      <c r="GF7" s="251"/>
+      <c r="GG7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="FC7" s="1"/>
+      <c r="GH7" s="1"/>
     </row>
-    <row r="8" spans="3:161" x14ac:dyDescent="0.4">
-      <c r="EQ8" s="246" t="s">
+    <row r="8" spans="3:192" x14ac:dyDescent="0.4">
+      <c r="FV8" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="ER8" s="252"/>
-      <c r="ET8" s="5"/>
-      <c r="EU8" s="257"/>
-      <c r="EV8" s="49"/>
-      <c r="EW8" s="252"/>
-      <c r="EY8" s="5"/>
-      <c r="EZ8" s="49" t="s">
+      <c r="FW8" s="252"/>
+      <c r="FY8" s="5"/>
+      <c r="FZ8" s="257"/>
+      <c r="GA8" s="49"/>
+      <c r="GB8" s="252"/>
+      <c r="GD8" s="5"/>
+      <c r="GE8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="FA8" s="247"/>
+      <c r="GF8" s="247"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="97">
+    <mergeCell ref="FG3:FQ3"/>
+    <mergeCell ref="FG4:FI4"/>
+    <mergeCell ref="FJ4:FQ4"/>
+    <mergeCell ref="FG5:FI5"/>
+    <mergeCell ref="FJ5:FQ5"/>
+    <mergeCell ref="EO4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FD4"/>
+    <mergeCell ref="EO5:EQ5"/>
+    <mergeCell ref="ER5:EU5"/>
+    <mergeCell ref="EV5:EY5"/>
+    <mergeCell ref="EZ5:FD5"/>
+    <mergeCell ref="EO3:FD3"/>
     <mergeCell ref="BE4:BJ4"/>
     <mergeCell ref="BE5:BJ5"/>
-    <mergeCell ref="FB6:FC6"/>
-    <mergeCell ref="EO7:EP7"/>
-    <mergeCell ref="EQ7:ER7"/>
-    <mergeCell ref="ES7:ET7"/>
-    <mergeCell ref="EU7:EW8"/>
-    <mergeCell ref="EX7:EY7"/>
-    <mergeCell ref="EZ7:FA7"/>
-    <mergeCell ref="EQ8:ER8"/>
-    <mergeCell ref="EZ8:FA8"/>
-    <mergeCell ref="EO6:EP6"/>
-    <mergeCell ref="EQ6:FA6"/>
+    <mergeCell ref="GG6:GH6"/>
+    <mergeCell ref="FT7:FU7"/>
+    <mergeCell ref="FV7:FW7"/>
+    <mergeCell ref="FX7:FY7"/>
+    <mergeCell ref="FZ7:GB8"/>
+    <mergeCell ref="GC7:GD7"/>
+    <mergeCell ref="GE7:GF7"/>
+    <mergeCell ref="FV8:FW8"/>
+    <mergeCell ref="GE8:GF8"/>
+    <mergeCell ref="FT6:FU6"/>
+    <mergeCell ref="FV6:GF6"/>
     <mergeCell ref="EA4:EC4"/>
     <mergeCell ref="ED4:EG4"/>
     <mergeCell ref="EH4:EL4"/>
-    <mergeCell ref="EQ3:FA3"/>
-    <mergeCell ref="FD3:FE3"/>
-    <mergeCell ref="EO4:FC4"/>
-    <mergeCell ref="EQ5:FA5"/>
-    <mergeCell ref="FB5:FC5"/>
-    <mergeCell ref="EO5:EP5"/>
+    <mergeCell ref="FV3:GF3"/>
+    <mergeCell ref="GI3:GJ3"/>
+    <mergeCell ref="FT4:GH4"/>
+    <mergeCell ref="FV5:GF5"/>
+    <mergeCell ref="GG5:GH5"/>
+    <mergeCell ref="FT5:FU5"/>
     <mergeCell ref="EA5:EC5"/>
     <mergeCell ref="ED5:EG5"/>
     <mergeCell ref="EH5:EL5"/>
@@ -29993,8 +32659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4A6BD7-D5DE-4DEB-9699-4B92272781E1}">
   <dimension ref="D4:ID27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DO5" sqref="DO5:DV5"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="FS24" sqref="FS24:ID25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
